--- a/model/Single Motor - Final/vel.xlsx
+++ b/model/Single Motor - Final/vel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucyl\Documents\GitHub\Controller\model\Single Motor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucyl\Documents\GitHub\Controller\model\Single Motor - Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F0FB8F-6B96-408C-ABBD-EA2EDE3DA30A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F407C3-B77F-4904-9B29-45105BA2209A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7488" windowHeight="7596" xr2:uid="{014FF68F-6300-4F4E-98C3-DB7DF46E2176}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:FZY2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:OK2"/>
+      <selection sqref="A1:ATE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1584,2404 +1584,2404 @@
         <v>4</v>
       </c>
       <c r="OL1">
-        <v>0.11949165125760394</v>
+        <v>4.01</v>
       </c>
       <c r="OM1">
-        <v>0.11958393597477698</v>
+        <v>4.0200000000000005</v>
       </c>
       <c r="ON1">
-        <v>0.11960067930088943</v>
+        <v>4.03</v>
       </c>
       <c r="OO1">
-        <v>0.11960067930089031</v>
+        <v>4.04</v>
       </c>
       <c r="OP1">
-        <v>0.11969296401806336</v>
+        <v>4.05</v>
       </c>
       <c r="OQ1">
-        <v>0.1197852487352364</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="OR1">
-        <v>0.11996897024295741</v>
+        <v>4.07</v>
       </c>
       <c r="OS1">
-        <v>0.12016254523127752</v>
+        <v>4.08</v>
       </c>
       <c r="OT1">
-        <v>0.12038979867356496</v>
+        <v>4.09</v>
       </c>
       <c r="OU1">
-        <v>0.12065695065194887</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="OV1">
-        <v>0.12097997162194757</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="OW1">
-        <v>0.12138265425009424</v>
+        <v>4.12</v>
       </c>
       <c r="OX1">
-        <v>0.12141519616601014</v>
+        <v>4.13</v>
       </c>
       <c r="OY1">
-        <v>0.12141519616601103</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="OZ1">
-        <v>0.12156803580275645</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="PA1">
-        <v>0.12158209876277172</v>
+        <v>4.16</v>
       </c>
       <c r="PB1">
-        <v>0.12158209876277261</v>
+        <v>4.17</v>
       </c>
       <c r="PC1">
-        <v>0.12164531451301026</v>
+        <v>4.18</v>
       </c>
       <c r="PD1">
-        <v>0.12164531451301115</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="PE1">
-        <v>0.12170853026324881</v>
+        <v>4.2</v>
       </c>
       <c r="PF1">
-        <v>0.12177174601348646</v>
+        <v>4.21</v>
       </c>
       <c r="PG1">
-        <v>0.12189817751396177</v>
+        <v>4.22</v>
       </c>
       <c r="PH1">
-        <v>0.12210261419710125</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="PI1">
-        <v>0.12232574272856363</v>
+        <v>4.24</v>
       </c>
       <c r="PJ1">
-        <v>0.12259182951293041</v>
+        <v>4.25</v>
       </c>
       <c r="PK1">
-        <v>0.12291208793857432</v>
+        <v>4.26</v>
       </c>
       <c r="PL1">
-        <v>0.12331115165413455</v>
+        <v>4.2700000000000005</v>
       </c>
       <c r="PM1">
-        <v>0.1238046064955924</v>
+        <v>4.28</v>
       </c>
       <c r="PN1">
-        <v>0.12380460649559329</v>
+        <v>4.29</v>
       </c>
       <c r="PO1">
-        <v>0.12395297455332251</v>
+        <v>4.3</v>
       </c>
       <c r="PP1">
-        <v>0.12395297455332339</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="PQ1">
-        <v>0.12404827580349284</v>
+        <v>4.32</v>
       </c>
       <c r="PR1">
-        <v>0.12404827580349373</v>
+        <v>4.33</v>
       </c>
       <c r="PS1">
-        <v>0.12414357705366318</v>
+        <v>4.34</v>
       </c>
       <c r="PT1">
-        <v>0.12423887830383262</v>
+        <v>4.3500000000000005</v>
       </c>
       <c r="PU1">
-        <v>0.12442948080417152</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="PV1">
-        <v>0.12464580339938229</v>
+        <v>4.37</v>
       </c>
       <c r="PW1">
-        <v>0.12490005746719168</v>
+        <v>4.38</v>
       </c>
       <c r="PX1">
-        <v>0.12500671334047078</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="PY1">
-        <v>0.12500671334047256</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="PZ1">
-        <v>0.12511626453197439</v>
+        <v>4.41</v>
       </c>
       <c r="QA1">
-        <v>0.12511626453197616</v>
+        <v>4.42</v>
       </c>
       <c r="QB1">
-        <v>0.12522581572347799</v>
+        <v>4.43</v>
       </c>
       <c r="QC1">
-        <v>0.12533536691497982</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="QD1">
-        <v>0.12552089568865243</v>
+        <v>4.45</v>
       </c>
       <c r="QE1">
-        <v>0.12572044072604771</v>
+        <v>4.46</v>
       </c>
       <c r="QF1">
-        <v>0.12595477270000247</v>
+        <v>4.47</v>
       </c>
       <c r="QG1">
-        <v>0.12623162517959483</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="QH1">
-        <v>0.12656822261519562</v>
+        <v>4.49</v>
       </c>
       <c r="QI1">
-        <v>0.12699092130386058</v>
+        <v>4.5</v>
       </c>
       <c r="QJ1">
-        <v>0.12754476912855023</v>
+        <v>4.51</v>
       </c>
       <c r="QK1">
-        <v>0.128300376469314</v>
+        <v>4.5200000000000005</v>
       </c>
       <c r="QL1">
-        <v>0.1292655834831162</v>
+        <v>4.53</v>
       </c>
       <c r="QM1">
-        <v>0.12992366679012307</v>
+        <v>4.54</v>
       </c>
       <c r="QN1">
-        <v>0.13049836265140127</v>
+        <v>4.55</v>
       </c>
       <c r="QO1">
-        <v>0.13049836265140305</v>
+        <v>4.5600000000000005</v>
       </c>
       <c r="QP1">
-        <v>0.13058258427198607</v>
+        <v>4.57</v>
       </c>
       <c r="QQ1">
-        <v>0.13060829823278369</v>
+        <v>4.58</v>
       </c>
       <c r="QR1">
-        <v>0.13060829823278547</v>
+        <v>4.59</v>
       </c>
       <c r="QS1">
-        <v>0.13069251985336849</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="QT1">
-        <v>0.13077674147395152</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="QU1">
-        <v>0.13094518471511757</v>
+        <v>4.62</v>
       </c>
       <c r="QV1">
-        <v>0.13113700358754263</v>
+        <v>4.63</v>
       </c>
       <c r="QW1">
-        <v>0.13135820049665048</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="QX1">
-        <v>0.13161817061904488</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="QY1">
-        <v>0.13193092415789603</v>
+        <v>4.66</v>
       </c>
       <c r="QZ1">
-        <v>0.13209938736277738</v>
+        <v>4.67</v>
       </c>
       <c r="RA1">
-        <v>0.13209938736277915</v>
+        <v>4.68</v>
       </c>
       <c r="RB1">
-        <v>0.13221570772196151</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="RC1">
-        <v>0.13221570772196328</v>
+        <v>4.7</v>
       </c>
       <c r="RD1">
-        <v>0.13228904186822904</v>
+        <v>4.71</v>
       </c>
       <c r="RE1">
-        <v>0.13228904186823082</v>
+        <v>4.72</v>
       </c>
       <c r="RF1">
-        <v>0.13236237601449657</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="RG1">
-        <v>0.13243571016076233</v>
+        <v>4.74</v>
       </c>
       <c r="RH1">
-        <v>0.13258237845329385</v>
+        <v>4.75</v>
       </c>
       <c r="RI1">
-        <v>0.13278680061462253</v>
+        <v>4.76</v>
       </c>
       <c r="RJ1">
-        <v>0.13301547967272559</v>
+        <v>4.7700000000000005</v>
       </c>
       <c r="RK1">
-        <v>0.13328771329858358</v>
+        <v>4.78</v>
       </c>
       <c r="RL1">
-        <v>0.13361693420897214</v>
+        <v>4.79</v>
       </c>
       <c r="RM1">
-        <v>0.13374878170436971</v>
+        <v>4.8</v>
       </c>
       <c r="RN1">
-        <v>0.13374878170437149</v>
+        <v>4.8100000000000005</v>
       </c>
       <c r="RO1">
-        <v>0.13416088596465545</v>
+        <v>4.82</v>
       </c>
       <c r="RP1">
-        <v>0.1345729902249394</v>
+        <v>4.83</v>
       </c>
       <c r="RQ1">
-        <v>0.13539719874550732</v>
+        <v>4.84</v>
       </c>
       <c r="RR1">
-        <v>0.13581520710785547</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="RS1">
-        <v>0.13581520710785724</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="RT1">
-        <v>0.13597669886347918</v>
+        <v>4.87</v>
       </c>
       <c r="RU1">
-        <v>0.13597669886348096</v>
+        <v>4.88</v>
       </c>
       <c r="RV1">
-        <v>0.13608692730145905</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="RW1">
-        <v>0.13608692730146082</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="RX1">
-        <v>0.13619715573943891</v>
+        <v>4.91</v>
       </c>
       <c r="RY1">
-        <v>0.136307384177417</v>
+        <v>4.92</v>
       </c>
       <c r="RZ1">
-        <v>0.13649303391888545</v>
+        <v>4.93</v>
       </c>
       <c r="SA1">
-        <v>0.13669286691375437</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="SB1">
-        <v>0.1369275500138894</v>
+        <v>4.95</v>
       </c>
       <c r="SC1">
-        <v>0.13701659174707498</v>
+        <v>4.96</v>
       </c>
       <c r="SD1">
-        <v>0.13701659174707675</v>
+        <v>4.97</v>
       </c>
       <c r="SE1">
-        <v>0.13714445261211491</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="SF1">
-        <v>0.13714445261211669</v>
+        <v>4.99</v>
       </c>
       <c r="SG1">
-        <v>0.1372542902848376</v>
+        <v>5</v>
       </c>
       <c r="SH1">
-        <v>0.13725429028483938</v>
+        <v>5.01</v>
       </c>
       <c r="SI1">
-        <v>0.13736412795756028</v>
+        <v>5.0200000000000005</v>
       </c>
       <c r="SJ1">
-        <v>0.13747396563028119</v>
+        <v>5.03</v>
       </c>
       <c r="SK1">
-        <v>0.13768177474980142</v>
+        <v>5.04</v>
       </c>
       <c r="SL1">
-        <v>0.13790379794615162</v>
+        <v>5.05</v>
       </c>
       <c r="SM1">
-        <v>0.13816973026486429</v>
+        <v>5.0600000000000005</v>
       </c>
       <c r="SN1">
-        <v>0.13848939601353583</v>
+        <v>5.07</v>
       </c>
       <c r="SO1">
-        <v>0.13888771818748522</v>
+        <v>5.08</v>
       </c>
       <c r="SP1">
-        <v>0.13940364775456887</v>
+        <v>5.09</v>
       </c>
       <c r="SQ1">
-        <v>0.14010246970723064</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="SR1">
-        <v>0.14096509982700045</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="SS1">
-        <v>0.14096509982700223</v>
+        <v>5.12</v>
       </c>
       <c r="ST1">
-        <v>0.14106852641044421</v>
+        <v>5.13</v>
       </c>
       <c r="SU1">
-        <v>0.14107798250810977</v>
+        <v>5.14</v>
       </c>
       <c r="SV1">
-        <v>0.14107798250811154</v>
+        <v>5.15</v>
       </c>
       <c r="SW1">
-        <v>0.14115772626945067</v>
+        <v>5.16</v>
       </c>
       <c r="SX1">
-        <v>0.14115772626945244</v>
+        <v>5.17</v>
       </c>
       <c r="SY1">
-        <v>0.14123747003079157</v>
+        <v>5.18</v>
       </c>
       <c r="SZ1">
-        <v>0.14131721379213069</v>
+        <v>5.19</v>
       </c>
       <c r="TA1">
-        <v>0.14144170508399326</v>
+        <v>5.2</v>
       </c>
       <c r="TB1">
-        <v>0.14144170508399503</v>
+        <v>5.21</v>
       </c>
       <c r="TC1">
-        <v>0.14155214123600096</v>
+        <v>5.22</v>
       </c>
       <c r="TD1">
-        <v>0.14155214123600274</v>
+        <v>5.23</v>
       </c>
       <c r="TE1">
-        <v>0.14166257738800866</v>
+        <v>5.24</v>
       </c>
       <c r="TF1">
-        <v>0.14177301354001459</v>
+        <v>5.25</v>
       </c>
       <c r="TG1">
-        <v>0.14188234366929731</v>
+        <v>5.26</v>
       </c>
       <c r="TH1">
-        <v>0.14188234366929908</v>
+        <v>5.2700000000000005</v>
       </c>
       <c r="TI1">
-        <v>0.14206801829050641</v>
+        <v>5.28</v>
       </c>
       <c r="TJ1">
-        <v>0.14225369291171375</v>
+        <v>5.29</v>
       </c>
       <c r="TK1">
-        <v>0.14251366190426484</v>
+        <v>5.3</v>
       </c>
       <c r="TL1">
-        <v>0.14281336739553793</v>
+        <v>5.3100000000000005</v>
       </c>
       <c r="TM1">
-        <v>0.14318639943127354</v>
+        <v>5.32</v>
       </c>
       <c r="TN1">
-        <v>0.14366230031120047</v>
+        <v>5.33</v>
       </c>
       <c r="TO1">
-        <v>0.14429972129401894</v>
+        <v>5.34</v>
       </c>
       <c r="TP1">
-        <v>0.14516657618090331</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="TQ1">
-        <v>0.14614573400394421</v>
+        <v>5.36</v>
       </c>
       <c r="TR1">
-        <v>0.14672567063115277</v>
+        <v>5.37</v>
       </c>
       <c r="TS1">
-        <v>0.14689982596832621</v>
+        <v>5.38</v>
       </c>
       <c r="TT1">
-        <v>0.14689982596832799</v>
+        <v>5.39</v>
       </c>
       <c r="TU1">
-        <v>0.14701042231344624</v>
+        <v>5.4</v>
       </c>
       <c r="TV1">
-        <v>0.14701042231344802</v>
+        <v>5.41</v>
       </c>
       <c r="TW1">
-        <v>0.14712101865856628</v>
+        <v>5.42</v>
       </c>
       <c r="TX1">
-        <v>0.14723161500368454</v>
+        <v>5.43</v>
       </c>
       <c r="TY1">
-        <v>0.14741731838515321</v>
+        <v>5.44</v>
       </c>
       <c r="TZ1">
-        <v>0.1476172957036421</v>
+        <v>5.45</v>
       </c>
       <c r="UA1">
-        <v>0.14785215282465303</v>
+        <v>5.46</v>
       </c>
       <c r="UB1">
-        <v>0.14812972500832144</v>
+        <v>5.47</v>
       </c>
       <c r="UC1">
-        <v>0.14846733518722161</v>
+        <v>5.48</v>
       </c>
       <c r="UD1">
-        <v>0.14889153505727279</v>
+        <v>5.49</v>
       </c>
       <c r="UE1">
-        <v>0.14944771572724919</v>
+        <v>5.5</v>
       </c>
       <c r="UF1">
-        <v>0.15020673013504013</v>
+        <v>5.51</v>
       </c>
       <c r="UG1">
-        <v>0.15117351397362655</v>
+        <v>5.5200000000000005</v>
       </c>
       <c r="UH1">
-        <v>0.15182861344247406</v>
+        <v>5.53</v>
       </c>
       <c r="UI1">
-        <v>0.15235029494743965</v>
+        <v>5.54</v>
       </c>
       <c r="UJ1">
-        <v>0.15235029494744143</v>
+        <v>5.55</v>
       </c>
       <c r="UK1">
-        <v>0.15243436574086844</v>
+        <v>5.5600000000000005</v>
       </c>
       <c r="UL1">
-        <v>0.15246101566096981</v>
+        <v>5.57</v>
       </c>
       <c r="UM1">
-        <v>0.15246101566097159</v>
+        <v>5.58</v>
       </c>
       <c r="UN1">
-        <v>0.1525450864543986</v>
+        <v>5.59</v>
       </c>
       <c r="UO1">
-        <v>0.15262915724782561</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="UP1">
-        <v>0.15279729883467963</v>
+        <v>5.61</v>
       </c>
       <c r="UQ1">
-        <v>0.15298914455447218</v>
+        <v>5.62</v>
       </c>
       <c r="UR1">
-        <v>0.15321028982009463</v>
+        <v>5.63</v>
       </c>
       <c r="US1">
-        <v>0.15329415078561659</v>
+        <v>5.64</v>
       </c>
       <c r="UT1">
-        <v>0.15329415078561837</v>
+        <v>5.65</v>
       </c>
       <c r="UU1">
-        <v>0.15343371199170333</v>
+        <v>5.66</v>
       </c>
       <c r="UV1">
-        <v>0.15347924695404255</v>
+        <v>5.67</v>
       </c>
       <c r="UW1">
-        <v>0.15347924695404433</v>
+        <v>5.68</v>
       </c>
       <c r="UX1">
-        <v>0.15353755015806006</v>
+        <v>5.69</v>
       </c>
       <c r="UY1">
-        <v>0.15353755015806184</v>
+        <v>5.7</v>
       </c>
       <c r="UZ1">
-        <v>0.15359585336207757</v>
+        <v>5.71</v>
       </c>
       <c r="VA1">
-        <v>0.1536541565660933</v>
+        <v>5.72</v>
       </c>
       <c r="VB1">
-        <v>0.15377076297412476</v>
+        <v>5.73</v>
       </c>
       <c r="VC1">
-        <v>0.15397463003245548</v>
+        <v>5.74</v>
       </c>
       <c r="VD1">
-        <v>0.1541945230099348</v>
+        <v>5.75</v>
       </c>
       <c r="VE1">
-        <v>0.15445683519920086</v>
+        <v>5.76</v>
       </c>
       <c r="VF1">
-        <v>0.15477169262026608</v>
+        <v>5.7700000000000005</v>
       </c>
       <c r="VG1">
-        <v>0.15516291563412901</v>
+        <v>5.78</v>
       </c>
       <c r="VH1">
-        <v>0.15545980707063467</v>
+        <v>5.79</v>
       </c>
       <c r="VI1">
-        <v>0.15545980707063645</v>
+        <v>5.8</v>
       </c>
       <c r="VJ1">
-        <v>0.1556155709113175</v>
+        <v>5.8100000000000005</v>
       </c>
       <c r="VK1">
-        <v>0.15562006598977787</v>
+        <v>5.82</v>
       </c>
       <c r="VL1">
-        <v>0.15562006598977965</v>
+        <v>5.83</v>
       </c>
       <c r="VM1">
-        <v>0.15570793625753415</v>
+        <v>5.84</v>
       </c>
       <c r="VN1">
-        <v>0.15570793625753593</v>
+        <v>5.8500000000000005</v>
       </c>
       <c r="VO1">
-        <v>0.15579580652529043</v>
+        <v>5.86</v>
       </c>
       <c r="VP1">
-        <v>0.15588367679304493</v>
+        <v>5.87</v>
       </c>
       <c r="VQ1">
-        <v>0.15605941732855394</v>
+        <v>5.88</v>
       </c>
       <c r="VR1">
-        <v>0.15627342271140524</v>
+        <v>5.89</v>
       </c>
       <c r="VS1">
-        <v>0.15652066372196963</v>
+        <v>5.9</v>
       </c>
       <c r="VT1">
-        <v>0.15681670178604359</v>
+        <v>5.91</v>
       </c>
       <c r="VU1">
-        <v>0.15718008754695645</v>
+        <v>5.92</v>
       </c>
       <c r="VV1">
-        <v>0.157643021096596</v>
+        <v>5.93</v>
       </c>
       <c r="VW1">
-        <v>0.15779721166408434</v>
+        <v>5.94</v>
       </c>
       <c r="VX1">
-        <v>0.15779721166408611</v>
+        <v>5.95</v>
       </c>
       <c r="VY1">
-        <v>0.15787937386640352</v>
+        <v>5.96</v>
       </c>
       <c r="VZ1">
-        <v>0.15790802363282022</v>
+        <v>5.97</v>
       </c>
       <c r="WA1">
-        <v>0.157908023632822</v>
+        <v>5.98</v>
       </c>
       <c r="WB1">
-        <v>0.15799018583513941</v>
+        <v>5.99</v>
       </c>
       <c r="WC1">
-        <v>0.15807234803745682</v>
+        <v>6</v>
       </c>
       <c r="WD1">
-        <v>0.15823667244209164</v>
+        <v>6.01</v>
       </c>
       <c r="WE1">
-        <v>0.15842810765179213</v>
+        <v>6.0200000000000005</v>
       </c>
       <c r="WF1">
-        <v>0.15864779097674989</v>
+        <v>6.03</v>
       </c>
       <c r="WG1">
-        <v>0.15890598422893162</v>
+        <v>6.04</v>
       </c>
       <c r="WH1">
-        <v>0.15921620634933423</v>
+        <v>6.05</v>
       </c>
       <c r="WI1">
-        <v>0.15960033497988207</v>
+        <v>6.0600000000000005</v>
       </c>
       <c r="WJ1">
-        <v>0.16009466710807976</v>
+        <v>6.07</v>
       </c>
       <c r="WK1">
-        <v>0.16076015839839419</v>
+        <v>6.08</v>
       </c>
       <c r="WL1">
-        <v>0.16165767704574061</v>
+        <v>6.09</v>
       </c>
       <c r="WM1">
-        <v>0.16241062312082141</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="WN1">
-        <v>0.16316356919590222</v>
+        <v>6.11</v>
       </c>
       <c r="WO1">
-        <v>0.16323961934197412</v>
+        <v>6.12</v>
       </c>
       <c r="WP1">
-        <v>0.16323961934197589</v>
+        <v>6.13</v>
       </c>
       <c r="WQ1">
-        <v>0.16333084088471142</v>
+        <v>6.1400000000000006</v>
       </c>
       <c r="WR1">
-        <v>0.16335049573426361</v>
+        <v>6.15</v>
       </c>
       <c r="WS1">
-        <v>0.16335049573426538</v>
+        <v>6.16</v>
       </c>
       <c r="WT1">
-        <v>0.16344171727700091</v>
+        <v>6.17</v>
       </c>
       <c r="WU1">
-        <v>0.16353293881973643</v>
+        <v>6.18</v>
       </c>
       <c r="WV1">
-        <v>0.16371538190520749</v>
+        <v>6.19</v>
       </c>
       <c r="WW1">
-        <v>0.16390881388294362</v>
+        <v>6.2</v>
       </c>
       <c r="WX1">
-        <v>0.16413555983782985</v>
+        <v>6.21</v>
       </c>
       <c r="WY1">
-        <v>0.16437741208772852</v>
+        <v>6.22</v>
       </c>
       <c r="WZ1">
-        <v>0.1643774120877303</v>
+        <v>6.23</v>
       </c>
       <c r="XA1">
-        <v>0.16449999687759237</v>
+        <v>6.24</v>
       </c>
       <c r="XB1">
-        <v>0.16449999687759415</v>
+        <v>6.25</v>
       </c>
       <c r="XC1">
-        <v>0.16457107337855426</v>
+        <v>6.26</v>
       </c>
       <c r="XD1">
-        <v>0.16457107337855603</v>
+        <v>6.2700000000000005</v>
       </c>
       <c r="XE1">
-        <v>0.16464214987951614</v>
+        <v>6.28</v>
       </c>
       <c r="XF1">
-        <v>0.16471322638047625</v>
+        <v>6.29</v>
       </c>
       <c r="XG1">
-        <v>0.16485537938239647</v>
+        <v>6.3</v>
       </c>
       <c r="XH1">
-        <v>0.16505939300487762</v>
+        <v>6.3100000000000005</v>
       </c>
       <c r="XI1">
-        <v>0.16528639480384277</v>
+        <v>6.32</v>
       </c>
       <c r="XJ1">
-        <v>0.16555663924969757</v>
+        <v>6.33</v>
       </c>
       <c r="XK1">
-        <v>0.16588299771635309</v>
+        <v>6.34</v>
       </c>
       <c r="XL1">
-        <v>0.16620808554471631</v>
+        <v>6.3500000000000005</v>
       </c>
       <c r="XM1">
-        <v>0.16620808554471808</v>
+        <v>6.36</v>
       </c>
       <c r="XN1">
-        <v>0.16661600136212032</v>
+        <v>6.37</v>
       </c>
       <c r="XO1">
-        <v>0.16702391717952256</v>
+        <v>6.38</v>
       </c>
       <c r="XP1">
-        <v>0.16733576150907017</v>
+        <v>6.3900000000000006</v>
       </c>
       <c r="XQ1">
-        <v>0.16733576150907195</v>
+        <v>6.4</v>
       </c>
       <c r="XR1">
-        <v>0.16815159314387643</v>
+        <v>6.41</v>
       </c>
       <c r="XS1">
-        <v>0.16868028372215027</v>
+        <v>6.42</v>
       </c>
       <c r="XT1">
-        <v>0.16868028372215205</v>
+        <v>6.43</v>
       </c>
       <c r="XU1">
-        <v>0.16876303802884809</v>
+        <v>6.44</v>
       </c>
       <c r="XV1">
-        <v>0.16876303802884987</v>
+        <v>6.45</v>
       </c>
       <c r="XW1">
-        <v>0.16879121164660438</v>
+        <v>6.46</v>
       </c>
       <c r="XX1">
-        <v>0.16879121164660615</v>
+        <v>6.47</v>
       </c>
       <c r="XY1">
-        <v>0.16881938526436066</v>
+        <v>6.48</v>
       </c>
       <c r="XZ1">
-        <v>0.16884755888211517</v>
+        <v>6.49</v>
       </c>
       <c r="YA1">
-        <v>0.16889213021087507</v>
+        <v>6.5</v>
       </c>
       <c r="YB1">
-        <v>0.16889213021087685</v>
+        <v>6.51</v>
       </c>
       <c r="YC1">
-        <v>0.16894847744638586</v>
+        <v>6.5200000000000005</v>
       </c>
       <c r="YD1">
-        <v>0.16900251820766449</v>
+        <v>6.53</v>
       </c>
       <c r="YE1">
-        <v>0.16900251820766626</v>
+        <v>6.54</v>
       </c>
       <c r="YF1">
-        <v>0.16905886544317528</v>
+        <v>6.55</v>
       </c>
       <c r="YG1">
-        <v>0.16911521267868429</v>
+        <v>6.5600000000000005</v>
       </c>
       <c r="YH1">
-        <v>0.16922790714970232</v>
+        <v>6.57</v>
       </c>
       <c r="YI1">
-        <v>0.16943623645009293</v>
+        <v>6.58</v>
       </c>
       <c r="YJ1">
-        <v>0.16965955821576295</v>
+        <v>6.59</v>
       </c>
       <c r="YK1">
-        <v>0.16992710502917729</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="YL1">
-        <v>0.1702490532966584</v>
+        <v>6.61</v>
       </c>
       <c r="YM1">
-        <v>0.17065070883303807</v>
+        <v>6.62</v>
       </c>
       <c r="YN1">
-        <v>0.17117177442900108</v>
+        <v>6.63</v>
       </c>
       <c r="YO1">
-        <v>0.17187843156265167</v>
+        <v>6.6400000000000006</v>
       </c>
       <c r="YP1">
-        <v>0.1728130104148696</v>
+        <v>6.65</v>
       </c>
       <c r="YQ1">
-        <v>0.17300629095319681</v>
+        <v>6.66</v>
       </c>
       <c r="YR1">
-        <v>0.17300629095319858</v>
+        <v>6.67</v>
       </c>
       <c r="YS1">
-        <v>0.17309358539276481</v>
+        <v>6.68</v>
       </c>
       <c r="YT1">
-        <v>0.17311926896535554</v>
+        <v>6.69</v>
       </c>
       <c r="YU1">
-        <v>0.17311926896535731</v>
+        <v>6.7</v>
       </c>
       <c r="YV1">
-        <v>0.17319751937422381</v>
+        <v>6.71</v>
       </c>
       <c r="YW1">
-        <v>0.17319751937422559</v>
+        <v>6.72</v>
       </c>
       <c r="YX1">
-        <v>0.17327576978309209</v>
+        <v>6.73</v>
       </c>
       <c r="YY1">
-        <v>0.17335402019195859</v>
+        <v>6.74</v>
       </c>
       <c r="YZ1">
-        <v>0.17351052100969158</v>
+        <v>6.75</v>
       </c>
       <c r="ZA1">
-        <v>0.17371666514332776</v>
+        <v>6.76</v>
       </c>
       <c r="ZB1">
-        <v>0.1739499137832089</v>
+        <v>6.7700000000000005</v>
       </c>
       <c r="ZC1">
-        <v>0.17397515304025074</v>
+        <v>6.78</v>
       </c>
       <c r="ZD1">
-        <v>0.17397515304025252</v>
+        <v>6.79</v>
       </c>
       <c r="ZE1">
-        <v>0.17411826810733577</v>
+        <v>6.8</v>
       </c>
       <c r="ZF1">
-        <v>0.17411826810733755</v>
+        <v>6.8100000000000005</v>
       </c>
       <c r="ZG1">
-        <v>0.17422923110563426</v>
+        <v>6.82</v>
       </c>
       <c r="ZH1">
-        <v>0.17422923110563604</v>
+        <v>6.83</v>
       </c>
       <c r="ZI1">
-        <v>0.17434019410393276</v>
+        <v>6.84</v>
       </c>
       <c r="ZJ1">
-        <v>0.17445115710222947</v>
+        <v>6.8500000000000005</v>
       </c>
       <c r="ZK1">
-        <v>0.1746369346962989</v>
+        <v>6.86</v>
       </c>
       <c r="ZL1">
-        <v>0.17483707697035039</v>
+        <v>6.87</v>
       </c>
       <c r="ZM1">
-        <v>0.17507213665435925</v>
+        <v>6.88</v>
       </c>
       <c r="ZN1">
-        <v>0.17534998597834225</v>
+        <v>6.8900000000000006</v>
       </c>
       <c r="ZO1">
-        <v>0.17568798647881578</v>
+        <v>6.9</v>
       </c>
       <c r="ZP1">
-        <v>0.17611276516475932</v>
+        <v>6.91</v>
       </c>
       <c r="ZQ1">
-        <v>0.17666984561811033</v>
+        <v>6.92</v>
       </c>
       <c r="ZR1">
-        <v>0.17743017072098052</v>
+        <v>6.93</v>
       </c>
       <c r="ZS1">
-        <v>0.17839754182345918</v>
+        <v>6.94</v>
       </c>
       <c r="ZT1">
-        <v>0.17905150439364534</v>
+        <v>6.95</v>
       </c>
       <c r="ZU1">
-        <v>0.17955545796345437</v>
+        <v>6.96</v>
       </c>
       <c r="ZV1">
-        <v>0.17955545796345615</v>
+        <v>6.97</v>
       </c>
       <c r="ZW1">
-        <v>0.17963947091665022</v>
+        <v>6.98</v>
       </c>
       <c r="ZX1">
-        <v>0.1796664495317748</v>
+        <v>6.99</v>
       </c>
       <c r="ZY1">
-        <v>0.17966644953177657</v>
+        <v>7</v>
       </c>
       <c r="ZZ1">
-        <v>0.17975046248497065</v>
+        <v>7.01</v>
       </c>
       <c r="AAA1">
-        <v>0.17983447543816472</v>
+        <v>7.0200000000000005</v>
       </c>
       <c r="AAB1">
-        <v>0.18000250134455287</v>
+        <v>7.03</v>
       </c>
       <c r="AAC1">
-        <v>0.18019435503265013</v>
+        <v>7.04</v>
       </c>
       <c r="AAD1">
-        <v>0.18041547797462457</v>
+        <v>7.05</v>
       </c>
       <c r="AAE1">
-        <v>0.18067537801443109</v>
+        <v>7.0600000000000005</v>
       </c>
       <c r="AAF1">
-        <v>0.18098802627680899</v>
+        <v>7.07</v>
       </c>
       <c r="AAG1">
-        <v>0.18137565897589444</v>
+        <v>7.08</v>
       </c>
       <c r="AAH1">
-        <v>0.18187535756872542</v>
+        <v>7.09</v>
       </c>
       <c r="AAI1">
-        <v>0.18254915295296925</v>
+        <v>7.1000000000000005</v>
       </c>
       <c r="AAJ1">
-        <v>0.18345493187823736</v>
+        <v>7.11</v>
       </c>
       <c r="AAK1">
-        <v>0.18358343376248371</v>
+        <v>7.12</v>
       </c>
       <c r="AAL1">
-        <v>0.18358343376248548</v>
+        <v>7.13</v>
       </c>
       <c r="AAM1">
-        <v>0.18375961370245153</v>
+        <v>7.1400000000000006</v>
       </c>
       <c r="AAN1">
-        <v>0.18376573565524054</v>
+        <v>7.15</v>
       </c>
       <c r="AAO1">
-        <v>0.18376573565524232</v>
+        <v>7.16</v>
       </c>
       <c r="AAP1">
-        <v>0.18383100422394841</v>
+        <v>7.17</v>
       </c>
       <c r="AAQ1">
-        <v>0.18383100422395018</v>
+        <v>7.18</v>
       </c>
       <c r="AAR1">
-        <v>0.18389627279265627</v>
+        <v>7.19</v>
       </c>
       <c r="AAS1">
-        <v>0.18396154136136236</v>
+        <v>7.2</v>
       </c>
       <c r="AAT1">
-        <v>0.18409207849877454</v>
+        <v>7.21</v>
       </c>
       <c r="AAU1">
-        <v>0.18417472602487189</v>
+        <v>7.22</v>
       </c>
       <c r="AAV1">
-        <v>0.18417472602487367</v>
+        <v>7.23</v>
       </c>
       <c r="AAW1">
-        <v>0.18438127046121691</v>
+        <v>7.24</v>
       </c>
       <c r="AAX1">
-        <v>0.18458781489756015</v>
+        <v>7.25</v>
       </c>
       <c r="AAY1">
-        <v>0.18488073390553031</v>
+        <v>7.26</v>
       </c>
       <c r="AAZ1">
-        <v>0.1849910239296883</v>
+        <v>7.2700000000000005</v>
       </c>
       <c r="ABA1">
-        <v>0.18499102392969008</v>
+        <v>7.28</v>
       </c>
       <c r="ABB1">
-        <v>0.18510203572460487</v>
+        <v>7.29</v>
       </c>
       <c r="ABC1">
-        <v>0.18510203572460665</v>
+        <v>7.3</v>
       </c>
       <c r="ABD1">
-        <v>0.18521304751952145</v>
+        <v>7.3100000000000005</v>
       </c>
       <c r="ABE1">
-        <v>0.18532405931443624</v>
+        <v>7.32</v>
       </c>
       <c r="ABF1">
-        <v>0.18544227379297212</v>
+        <v>7.33</v>
       </c>
       <c r="ABG1">
-        <v>0.1854422737929739</v>
+        <v>7.34</v>
       </c>
       <c r="ABH1">
-        <v>0.18562806188917819</v>
+        <v>7.3500000000000005</v>
       </c>
       <c r="ABI1">
-        <v>0.18574757872421135</v>
+        <v>7.36</v>
       </c>
       <c r="ABJ1">
-        <v>0.18574757872421313</v>
+        <v>7.37</v>
       </c>
       <c r="ABK1">
-        <v>0.18588832324113336</v>
+        <v>7.38</v>
       </c>
       <c r="ABL1">
-        <v>0.18590450925713364</v>
+        <v>7.3900000000000006</v>
       </c>
       <c r="ABM1">
-        <v>0.18590450925713542</v>
+        <v>7.4</v>
       </c>
       <c r="ABN1">
-        <v>0.18598783701258617</v>
+        <v>7.41</v>
       </c>
       <c r="ABO1">
-        <v>0.18598783701258795</v>
+        <v>7.42</v>
       </c>
       <c r="ABP1">
-        <v>0.1860711647680387</v>
+        <v>7.43</v>
       </c>
       <c r="ABQ1">
-        <v>0.18615449252348945</v>
+        <v>7.44</v>
       </c>
       <c r="ABR1">
-        <v>0.18632114803439095</v>
+        <v>7.45</v>
       </c>
       <c r="ABS1">
-        <v>0.18653291238126929</v>
+        <v>7.46</v>
       </c>
       <c r="ABT1">
-        <v>0.1867750606227159</v>
+        <v>7.47</v>
       </c>
       <c r="ABU1">
-        <v>0.1870646746531931</v>
+        <v>7.48</v>
       </c>
       <c r="ABV1">
-        <v>0.18741871522090664</v>
+        <v>7.49</v>
       </c>
       <c r="ABW1">
-        <v>0.18786764533692599</v>
+        <v>7.5</v>
       </c>
       <c r="ABX1">
-        <v>0.18846228615406227</v>
+        <v>7.51</v>
       </c>
       <c r="ABY1">
-        <v>0.18927534104882079</v>
+        <v>7.5200000000000005</v>
       </c>
       <c r="ABZ1">
-        <v>0.19025748125633266</v>
+        <v>7.53</v>
       </c>
       <c r="ACA1">
-        <v>0.19042626453421296</v>
+        <v>7.54</v>
       </c>
       <c r="ACB1">
-        <v>0.19042626453421474</v>
+        <v>7.55</v>
       </c>
       <c r="ACC1">
-        <v>0.1905082593470786</v>
+        <v>7.5600000000000005</v>
       </c>
       <c r="ACD1">
-        <v>0.19053729219393242</v>
+        <v>7.57</v>
       </c>
       <c r="ACE1">
-        <v>0.1905372921939342</v>
+        <v>7.58</v>
       </c>
       <c r="ACF1">
-        <v>0.19061928700679806</v>
+        <v>7.59</v>
       </c>
       <c r="ACG1">
-        <v>0.19070128181966192</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="ACH1">
-        <v>0.19086527144538964</v>
+        <v>7.61</v>
       </c>
       <c r="ACI1">
-        <v>0.19105668688954441</v>
+        <v>7.62</v>
       </c>
       <c r="ACJ1">
-        <v>0.19127625987272862</v>
+        <v>7.63</v>
       </c>
       <c r="ACK1">
-        <v>0.19153432614042629</v>
+        <v>7.6400000000000006</v>
       </c>
       <c r="ACL1">
-        <v>0.19184436677077826</v>
+        <v>7.65</v>
       </c>
       <c r="ACM1">
-        <v>0.19222823391017202</v>
+        <v>7.66</v>
       </c>
       <c r="ACN1">
-        <v>0.19272216584200616</v>
+        <v>7.67</v>
       </c>
       <c r="ACO1">
-        <v>0.1933870370562053</v>
+        <v>7.68</v>
       </c>
       <c r="ACP1">
-        <v>0.19428392355059906</v>
+        <v>7.69</v>
       </c>
       <c r="ACQ1">
-        <v>0.19503763075980518</v>
+        <v>7.7</v>
       </c>
       <c r="ACR1">
-        <v>0.1957913379690113</v>
+        <v>7.71</v>
       </c>
       <c r="ACS1">
-        <v>0.19586050719544132</v>
+        <v>7.72</v>
       </c>
       <c r="ACT1">
-        <v>0.1958605071954431</v>
+        <v>7.73</v>
       </c>
       <c r="ACU1">
-        <v>0.19595171194087829</v>
+        <v>7.74</v>
       </c>
       <c r="ACV1">
-        <v>0.19597154439152861</v>
+        <v>7.75</v>
       </c>
       <c r="ACW1">
-        <v>0.19597154439153039</v>
+        <v>7.76</v>
       </c>
       <c r="ACX1">
-        <v>0.19606274913696559</v>
+        <v>7.7700000000000005</v>
       </c>
       <c r="ACY1">
-        <v>0.19615395388240078</v>
+        <v>7.78</v>
       </c>
       <c r="ACZ1">
-        <v>0.19633636337327118</v>
+        <v>7.79</v>
       </c>
       <c r="ADA1">
-        <v>0.19652980446438223</v>
+        <v>7.8</v>
       </c>
       <c r="ADB1">
-        <v>0.19659166603837269</v>
+        <v>7.8100000000000005</v>
       </c>
       <c r="ADC1">
-        <v>0.19659166603837447</v>
+        <v>7.82</v>
       </c>
       <c r="ADD1">
-        <v>0.1967129202644621</v>
+        <v>7.83</v>
       </c>
       <c r="ADE1">
-        <v>0.19671292026446388</v>
+        <v>7.84</v>
       </c>
       <c r="ADF1">
-        <v>0.19678501278494467</v>
+        <v>7.8500000000000005</v>
       </c>
       <c r="ADG1">
-        <v>0.19678501278494645</v>
+        <v>7.86</v>
       </c>
       <c r="ADH1">
-        <v>0.19685710530542724</v>
+        <v>7.87</v>
       </c>
       <c r="ADI1">
-        <v>0.19692919782590804</v>
+        <v>7.88</v>
       </c>
       <c r="ADJ1">
-        <v>0.19707338286686962</v>
+        <v>7.8900000000000006</v>
       </c>
       <c r="ADK1">
-        <v>0.19727771340833641</v>
+        <v>7.9</v>
       </c>
       <c r="ADL1">
-        <v>0.19750560765772715</v>
+        <v>7.91</v>
       </c>
       <c r="ADM1">
-        <v>0.19777694291455525</v>
+        <v>7.92</v>
       </c>
       <c r="ADN1">
-        <v>0.19810485951405815</v>
+        <v>7.9300000000000006</v>
       </c>
       <c r="ADO1">
-        <v>0.19851505775680317</v>
+        <v>7.94</v>
       </c>
       <c r="ADP1">
-        <v>0.19904939963747995</v>
+        <v>7.95</v>
       </c>
       <c r="ADQ1">
-        <v>0.19977610881369484</v>
+        <v>7.96</v>
       </c>
       <c r="ADR1">
-        <v>0.20072503964866825</v>
+        <v>7.97</v>
       </c>
       <c r="ADS1">
-        <v>0.20074017264829358</v>
+        <v>7.98</v>
       </c>
       <c r="ADT1">
-        <v>0.20074017264829536</v>
+        <v>7.99</v>
       </c>
       <c r="ADU1">
-        <v>0.200825910704933</v>
+        <v>8</v>
       </c>
       <c r="ADV1">
-        <v>0.20086567214485673</v>
+        <v>8.01</v>
       </c>
       <c r="ADW1">
-        <v>0.20086567214485851</v>
+        <v>8.02</v>
       </c>
       <c r="ADX1">
-        <v>0.20095141020149615</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="ADY1">
-        <v>0.20097792339878726</v>
+        <v>8.0400000000000009</v>
       </c>
       <c r="ADZ1">
-        <v>0.20097792339878903</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AEA1">
-        <v>0.20106366145542667</v>
+        <v>8.06</v>
       </c>
       <c r="AEB1">
-        <v>0.20114939951206431</v>
+        <v>8.07</v>
       </c>
       <c r="AEC1">
-        <v>0.20129465682925268</v>
+        <v>8.08</v>
       </c>
       <c r="AED1">
-        <v>0.20129465682925446</v>
+        <v>8.09</v>
       </c>
       <c r="AEE1">
-        <v>0.20140570460244001</v>
+        <v>8.1</v>
       </c>
       <c r="AEF1">
-        <v>0.20140570460244178</v>
+        <v>8.11</v>
       </c>
       <c r="AEG1">
-        <v>0.20151675237562733</v>
+        <v>8.120000000000001</v>
       </c>
       <c r="AEH1">
-        <v>0.20162780014881287</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="AEI1">
-        <v>0.20181359605035276</v>
+        <v>8.14</v>
       </c>
       <c r="AEJ1">
-        <v>0.20201377764279374</v>
+        <v>8.15</v>
       </c>
       <c r="AEK1">
-        <v>0.20224888578674621</v>
+        <v>8.16</v>
       </c>
       <c r="AEL1">
-        <v>0.20252680137421686</v>
+        <v>8.17</v>
       </c>
       <c r="AEM1">
-        <v>0.20286489522729342</v>
+        <v>8.18</v>
       </c>
       <c r="AEN1">
-        <v>0.20328981236795046</v>
+        <v>8.19</v>
       </c>
       <c r="AEO1">
-        <v>0.20384710807680925</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AEP1">
-        <v>0.2046077464515218</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="AEQ1">
-        <v>0.20540121020724528</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="AER1">
-        <v>0.20540121020724705</v>
+        <v>8.23</v>
       </c>
       <c r="AES1">
-        <v>0.20550795334869323</v>
+        <v>8.24</v>
       </c>
       <c r="AET1">
-        <v>0.20551088424507497</v>
+        <v>8.25</v>
       </c>
       <c r="AEU1">
-        <v>0.20551088424507674</v>
+        <v>8.26</v>
       </c>
       <c r="AEV1">
-        <v>0.20558945199028208</v>
+        <v>8.27</v>
       </c>
       <c r="AEW1">
-        <v>0.20558945199028386</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="AEX1">
-        <v>0.2056680197354892</v>
+        <v>8.2900000000000009</v>
       </c>
       <c r="AEY1">
-        <v>0.20574658748069455</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AEZ1">
-        <v>0.20590372297110524</v>
+        <v>8.31</v>
       </c>
       <c r="AFA1">
-        <v>0.20610973619036868</v>
+        <v>8.32</v>
       </c>
       <c r="AFB1">
-        <v>0.20634302575008298</v>
+        <v>8.33</v>
       </c>
       <c r="AFC1">
-        <v>0.20647192003439227</v>
+        <v>8.34</v>
       </c>
       <c r="AFD1">
-        <v>0.20647192003439405</v>
+        <v>8.35</v>
       </c>
       <c r="AFE1">
-        <v>0.20672817542244765</v>
+        <v>8.36</v>
       </c>
       <c r="AFF1">
-        <v>0.20672817542244942</v>
+        <v>8.370000000000001</v>
       </c>
       <c r="AFG1">
-        <v>0.20683922946921676</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="AFH1">
-        <v>0.20683922946921854</v>
+        <v>8.39</v>
       </c>
       <c r="AFI1">
-        <v>0.20695028351598588</v>
+        <v>8.4</v>
       </c>
       <c r="AFJ1">
-        <v>0.20706133756275322</v>
+        <v>8.41</v>
       </c>
       <c r="AFK1">
-        <v>0.20724713489001695</v>
+        <v>8.42</v>
       </c>
       <c r="AFL1">
-        <v>0.20744731946425488</v>
+        <v>8.43</v>
       </c>
       <c r="AFM1">
-        <v>0.20768243129389313</v>
+        <v>8.44</v>
       </c>
       <c r="AFN1">
-        <v>0.2079603519184095</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="AFO1">
-        <v>0.20829845286878126</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="AFP1">
-        <v>0.20872338053580283</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="AFQ1">
-        <v>0.20928069261046478</v>
+        <v>8.48</v>
       </c>
       <c r="AFR1">
-        <v>0.21004135479856351</v>
+        <v>8.49</v>
       </c>
       <c r="AFS1">
-        <v>0.21100887519722378</v>
+        <v>8.5</v>
       </c>
       <c r="AFT1">
-        <v>0.21166254636087051</v>
+        <v>8.51</v>
       </c>
       <c r="AFU1">
-        <v>0.21216170276719346</v>
+        <v>8.52</v>
       </c>
       <c r="AFV1">
-        <v>0.21216170276719523</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="AFW1">
-        <v>0.21224570116721578</v>
+        <v>8.5400000000000009</v>
       </c>
       <c r="AFX1">
-        <v>0.21227276067326584</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="AFY1">
-        <v>0.21227276067326761</v>
+        <v>8.56</v>
       </c>
       <c r="AFZ1">
-        <v>0.21235675907328816</v>
+        <v>8.57</v>
       </c>
       <c r="AGA1">
-        <v>0.21244075747330871</v>
+        <v>8.58</v>
       </c>
       <c r="AGB1">
-        <v>0.2126087542733498</v>
+        <v>8.59</v>
       </c>
       <c r="AGC1">
-        <v>0.21280060981493615</v>
+        <v>8.6</v>
       </c>
       <c r="AGD1">
-        <v>0.21302172697630761</v>
+        <v>8.61</v>
       </c>
       <c r="AGE1">
-        <v>0.21328162126738676</v>
+        <v>8.620000000000001</v>
       </c>
       <c r="AGF1">
-        <v>0.21359426100167797</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="AGG1">
-        <v>0.21398188148357386</v>
+        <v>8.64</v>
       </c>
       <c r="AGH1">
-        <v>0.2144815613052426</v>
+        <v>8.65</v>
       </c>
       <c r="AGI1">
-        <v>0.21513085780282851</v>
+        <v>8.66</v>
       </c>
       <c r="AGJ1">
-        <v>0.21513085780283028</v>
+        <v>8.67</v>
       </c>
       <c r="AGK1">
-        <v>0.21529867696500365</v>
+        <v>8.68</v>
       </c>
       <c r="AGL1">
-        <v>0.2153024117676173</v>
+        <v>8.69</v>
       </c>
       <c r="AGM1">
-        <v>0.21530241176761908</v>
+        <v>8.7000000000000011</v>
       </c>
       <c r="AGN1">
-        <v>0.21532797033724158</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="AGO1">
-        <v>0.21532797033724335</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="AGP1">
-        <v>0.21535352890686585</v>
+        <v>8.73</v>
       </c>
       <c r="AGQ1">
-        <v>0.21537587118260396</v>
+        <v>8.74</v>
       </c>
       <c r="AGR1">
-        <v>0.21537587118260573</v>
+        <v>8.75</v>
       </c>
       <c r="AGS1">
-        <v>0.21540142975222823</v>
+        <v>8.76</v>
       </c>
       <c r="AGT1">
-        <v>0.21542698832185073</v>
+        <v>8.77</v>
       </c>
       <c r="AGU1">
-        <v>0.21547810546109572</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="AGV1">
-        <v>0.21558033973958571</v>
+        <v>8.7900000000000009</v>
       </c>
       <c r="AGW1">
-        <v>0.21578425644760316</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AGX1">
-        <v>0.21600036552051546</v>
+        <v>8.81</v>
       </c>
       <c r="AGY1">
-        <v>0.21625848252108207</v>
+        <v>8.82</v>
       </c>
       <c r="AGZ1">
-        <v>0.21656729890311061</v>
+        <v>8.83</v>
       </c>
       <c r="AHA1">
-        <v>0.21694981035746913</v>
+        <v>8.84</v>
       </c>
       <c r="AHB1">
-        <v>0.2174175982120852</v>
+        <v>8.85</v>
       </c>
       <c r="AHC1">
-        <v>0.21741759821208698</v>
+        <v>8.86</v>
       </c>
       <c r="AHD1">
-        <v>0.21746348296458656</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="AHE1">
-        <v>0.21746348296458834</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="AHF1">
-        <v>0.21750936771708793</v>
+        <v>8.89</v>
       </c>
       <c r="AHG1">
-        <v>0.21755525246958751</v>
+        <v>8.9</v>
       </c>
       <c r="AHH1">
-        <v>0.21756627605826898</v>
+        <v>8.91</v>
       </c>
       <c r="AHI1">
-        <v>0.21756627605827075</v>
+        <v>8.92</v>
       </c>
       <c r="AHJ1">
-        <v>0.21759482723751442</v>
+        <v>8.93</v>
       </c>
       <c r="AHK1">
-        <v>0.21759482723751619</v>
+        <v>8.94</v>
       </c>
       <c r="AHL1">
-        <v>0.21762337841675986</v>
+        <v>8.9500000000000011</v>
       </c>
       <c r="AHM1">
-        <v>0.21764945842235228</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="AHN1">
-        <v>0.21764945842235406</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="AHO1">
-        <v>0.21767800960159772</v>
+        <v>8.98</v>
       </c>
       <c r="AHP1">
-        <v>0.21770588904676624</v>
+        <v>8.99</v>
       </c>
       <c r="AHQ1">
-        <v>0.21770588904676802</v>
+        <v>9</v>
       </c>
       <c r="AHR1">
-        <v>0.21773444022601168</v>
+        <v>9.01</v>
       </c>
       <c r="AHS1">
-        <v>0.21776299140525535</v>
+        <v>9.02</v>
       </c>
       <c r="AHT1">
-        <v>0.21782009376374267</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="AHU1">
-        <v>0.21793429848071733</v>
+        <v>9.0400000000000009</v>
       </c>
       <c r="AHV1">
-        <v>0.21812042245565053</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="AHW1">
-        <v>0.21832171225121552</v>
+        <v>9.06</v>
       </c>
       <c r="AHX1">
-        <v>0.21855813310771635</v>
+        <v>9.07</v>
       </c>
       <c r="AHY1">
-        <v>0.21883785967642069</v>
+        <v>9.08</v>
       </c>
       <c r="AHZ1">
-        <v>0.21917850262317085</v>
+        <v>9.09</v>
       </c>
       <c r="AIA1">
-        <v>0.21960720565447478</v>
+        <v>9.1</v>
       </c>
       <c r="AIB1">
-        <v>0.22017038990287088</v>
+        <v>9.11</v>
       </c>
       <c r="AIC1">
-        <v>0.22093955425121184</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="AID1">
-        <v>0.22191060564021553</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="AIE1">
-        <v>0.22255705825555583</v>
+        <v>9.14</v>
       </c>
       <c r="AIF1">
-        <v>0.22302800598142003</v>
+        <v>9.15</v>
       </c>
       <c r="AIG1">
-        <v>0.22302800598142181</v>
+        <v>9.16</v>
       </c>
       <c r="AIH1">
-        <v>0.22311163662788719</v>
+        <v>9.17</v>
       </c>
       <c r="AII1">
-        <v>0.22313907013934967</v>
+        <v>9.18</v>
       </c>
       <c r="AIJ1">
-        <v>0.22313907013935144</v>
+        <v>9.19</v>
       </c>
       <c r="AIK1">
-        <v>0.22322270078581682</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="AIL1">
-        <v>0.22330633143228221</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="AIM1">
-        <v>0.22347359272521297</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="AIN1">
-        <v>0.22366536803476236</v>
+        <v>9.23</v>
       </c>
       <c r="AIO1">
-        <v>0.22388620169968182</v>
+        <v>9.24</v>
       </c>
       <c r="AIP1">
-        <v>0.22414576053785251</v>
+        <v>9.25</v>
       </c>
       <c r="AIQ1">
-        <v>0.22445792281703653</v>
+        <v>9.26</v>
       </c>
       <c r="AIR1">
-        <v>0.2248448532827452</v>
+        <v>9.27</v>
       </c>
       <c r="AIS1">
-        <v>0.22534347550721159</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="AIT1">
-        <v>0.22601560715067795</v>
+        <v>9.2900000000000009</v>
       </c>
       <c r="AIU1">
-        <v>0.22691976202975592</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AIV1">
-        <v>0.2276646468280292</v>
+        <v>9.31</v>
       </c>
       <c r="AIW1">
-        <v>0.22840953162630248</v>
+        <v>9.32</v>
       </c>
       <c r="AIX1">
-        <v>0.22846092459022413</v>
+        <v>9.33</v>
       </c>
       <c r="AIY1">
-        <v>0.22846092459022591</v>
+        <v>9.34</v>
       </c>
       <c r="AIZ1">
-        <v>0.22855233246575135</v>
+        <v>9.35</v>
       </c>
       <c r="AJA1">
-        <v>0.22857198899896847</v>
+        <v>9.36</v>
       </c>
       <c r="AJB1">
-        <v>0.22857198899897024</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="AJC1">
-        <v>0.22866339687449569</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="AJD1">
-        <v>0.22875480475002113</v>
+        <v>9.39</v>
       </c>
       <c r="AJE1">
-        <v>0.22893762050107203</v>
+        <v>9.4</v>
       </c>
       <c r="AJF1">
-        <v>0.22913110919731475</v>
+        <v>9.41</v>
       </c>
       <c r="AJG1">
-        <v>0.22935801954326998</v>
+        <v>9.42</v>
       </c>
       <c r="AJH1">
-        <v>0.22949321240610665</v>
+        <v>9.43</v>
       </c>
       <c r="AJI1">
-        <v>0.22949321240610843</v>
+        <v>9.44</v>
       </c>
       <c r="AJJ1">
-        <v>0.22961209284099265</v>
+        <v>9.4500000000000011</v>
       </c>
       <c r="AJK1">
-        <v>0.22961209284099443</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="AJL1">
-        <v>0.22968537290817737</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="AJM1">
-        <v>0.22968537290817914</v>
+        <v>9.48</v>
       </c>
       <c r="AJN1">
-        <v>0.22975865297536208</v>
+        <v>9.49</v>
       </c>
       <c r="AJO1">
-        <v>0.22983193304254501</v>
+        <v>9.5</v>
       </c>
       <c r="AJP1">
-        <v>0.22997849317691088</v>
+        <v>9.51</v>
       </c>
       <c r="AJQ1">
-        <v>0.23018312120620196</v>
+        <v>9.52</v>
       </c>
       <c r="AJR1">
-        <v>0.23041198570938876</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="AJS1">
-        <v>0.23068449178600292</v>
+        <v>9.5400000000000009</v>
       </c>
       <c r="AJT1">
-        <v>0.23101408794871153</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="AJU1">
-        <v>0.23142674768370164</v>
+        <v>9.56</v>
       </c>
       <c r="AJV1">
-        <v>0.23196490356374841</v>
+        <v>9.57</v>
       </c>
       <c r="AJW1">
-        <v>0.23269732704751511</v>
+        <v>9.58</v>
       </c>
       <c r="AJX1">
-        <v>0.23361617904407481</v>
+        <v>9.59</v>
       </c>
       <c r="AJY1">
-        <v>0.23361617904407658</v>
+        <v>9.6</v>
       </c>
       <c r="AJZ1">
-        <v>0.23372149445086657</v>
+        <v>9.61</v>
       </c>
       <c r="AKA1">
-        <v>0.23373909314804117</v>
+        <v>9.620000000000001</v>
       </c>
       <c r="AKB1">
-        <v>0.23373909314804295</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="AKC1">
-        <v>0.23384440855483293</v>
+        <v>9.64</v>
       </c>
       <c r="AKD1">
-        <v>0.23385243689888288</v>
+        <v>9.65</v>
       </c>
       <c r="AKE1">
-        <v>0.23385243689888466</v>
+        <v>9.66</v>
       </c>
       <c r="AKF1">
-        <v>0.23389391143973196</v>
+        <v>9.67</v>
       </c>
       <c r="AKG1">
-        <v>0.23389391143973373</v>
+        <v>9.68</v>
       </c>
       <c r="AKH1">
-        <v>0.23393538598058103</v>
+        <v>9.69</v>
       </c>
       <c r="AKI1">
-        <v>0.23397686052142833</v>
+        <v>9.7000000000000011</v>
       </c>
       <c r="AKJ1">
-        <v>0.23400497893185285</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="AKK1">
-        <v>0.23400497893185462</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="AKL1">
-        <v>0.23408792801354922</v>
+        <v>9.73</v>
       </c>
       <c r="AKM1">
-        <v>0.23417087709524381</v>
+        <v>9.74</v>
       </c>
       <c r="AKN1">
-        <v>0.234336775258633</v>
+        <v>9.75</v>
       </c>
       <c r="AKO1">
-        <v>0.23452840149696774</v>
+        <v>9.76</v>
       </c>
       <c r="AKP1">
-        <v>0.23474871012636392</v>
+        <v>9.77</v>
       </c>
       <c r="AKQ1">
-        <v>0.23500764758041909</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="AKR1">
-        <v>0.23531892601524879</v>
+        <v>9.7900000000000009</v>
       </c>
       <c r="AKS1">
-        <v>0.23570457978421022</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AKT1">
-        <v>0.23620124626244196</v>
+        <v>9.81</v>
       </c>
       <c r="AKU1">
-        <v>0.23687035250345381</v>
+        <v>9.82</v>
       </c>
       <c r="AKV1">
-        <v>0.23777151430086896</v>
+        <v>9.83</v>
       </c>
       <c r="AKW1">
-        <v>0.23847083378095429</v>
+        <v>9.84</v>
       </c>
       <c r="AKX1">
-        <v>0.23847083378095607</v>
+        <v>9.85</v>
       </c>
       <c r="AKY1">
-        <v>0.23856056419899213</v>
+        <v>9.86</v>
       </c>
       <c r="AKZ1">
-        <v>0.23857839889460439</v>
+        <v>9.870000000000001</v>
       </c>
       <c r="ALA1">
-        <v>0.23857839889460616</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="ALB1">
-        <v>0.23865753595338016</v>
+        <v>9.89</v>
       </c>
       <c r="ALC1">
-        <v>0.23865753595338193</v>
+        <v>9.9</v>
       </c>
       <c r="ALD1">
-        <v>0.23873667301215593</v>
+        <v>9.91</v>
       </c>
       <c r="ALE1">
-        <v>0.23881581007092992</v>
+        <v>9.92</v>
       </c>
       <c r="ALF1">
-        <v>0.2389740841884779</v>
+        <v>9.93</v>
       </c>
       <c r="ALG1">
-        <v>0.23918016176047274</v>
+        <v>9.94</v>
       </c>
       <c r="ALH1">
-        <v>0.23932672237413871</v>
+        <v>9.9500000000000011</v>
       </c>
       <c r="ALI1">
-        <v>0.23932672237414049</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="ALJ1">
-        <v>0.23943779149759034</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="ALK1">
-        <v>0.23943779149759212</v>
+        <v>9.98</v>
       </c>
       <c r="ALL1">
-        <v>0.23954886062104197</v>
+        <v>9.99</v>
       </c>
       <c r="ALM1">
-        <v>0.23963841104613839</v>
+        <v>10</v>
       </c>
       <c r="ALN1">
-        <v>0.23963841104614017</v>
+        <v>10.01</v>
       </c>
       <c r="ALO1">
-        <v>0.23974948016959002</v>
+        <v>10.02</v>
       </c>
       <c r="ALP1">
-        <v>0.23986054929303988</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="ALQ1">
-        <v>0.24008268627518436</v>
+        <v>10.040000000000001</v>
       </c>
       <c r="ALR1">
-        <v>0.24031931725883854</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="ALS1">
-        <v>0.24060634696807379</v>
+        <v>10.06</v>
       </c>
       <c r="ALT1">
-        <v>0.2409552102397661</v>
+        <v>10.07</v>
       </c>
       <c r="ALU1">
-        <v>0.24139692112391345</v>
+        <v>10.08</v>
       </c>
       <c r="ALV1">
-        <v>0.24198007873784569</v>
+        <v>10.09</v>
       </c>
       <c r="ALW1">
-        <v>0.24277752291907564</v>
+        <v>10.1</v>
       </c>
       <c r="ALX1">
-        <v>0.24375713135333946</v>
+        <v>10.11</v>
       </c>
       <c r="ALY1">
-        <v>0.24438131406665894</v>
+        <v>10.120000000000001</v>
       </c>
       <c r="ALZ1">
-        <v>0.2447595894644497</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="AMA1">
-        <v>0.24475958946445148</v>
+        <v>10.14</v>
       </c>
       <c r="AMB1">
-        <v>0.24484211953506541</v>
+        <v>10.15</v>
       </c>
       <c r="AMC1">
-        <v>0.24487065920889797</v>
+        <v>10.16</v>
       </c>
       <c r="AMD1">
-        <v>0.24487065920889975</v>
+        <v>10.17</v>
       </c>
       <c r="AME1">
-        <v>0.24495318927951368</v>
+        <v>10.18</v>
       </c>
       <c r="AMF1">
-        <v>0.24503571935012761</v>
+        <v>10.19</v>
       </c>
       <c r="AMG1">
-        <v>0.24520077949135546</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="AMH1">
-        <v>0.24539231435895001</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="AMI1">
-        <v>0.24561230100777867</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="AMJ1">
-        <v>0.24587085742619802</v>
+        <v>10.23</v>
       </c>
       <c r="AMK1">
-        <v>0.24618159422155461</v>
+        <v>10.24</v>
       </c>
       <c r="AML1">
-        <v>0.24656646601964549</v>
+        <v>10.25</v>
       </c>
       <c r="AMM1">
-        <v>0.24706193529598369</v>
+        <v>10.26</v>
       </c>
       <c r="AMN1">
-        <v>0.24772918809592295</v>
+        <v>10.27</v>
       </c>
       <c r="AMO1">
-        <v>0.24809179496160699</v>
+        <v>10.28</v>
       </c>
       <c r="AMP1">
-        <v>0.24809179496160877</v>
+        <v>10.290000000000001</v>
       </c>
       <c r="AMQ1">
-        <v>0.24815320356788867</v>
+        <v>10.3</v>
       </c>
       <c r="AMR1">
-        <v>0.24815320356789045</v>
+        <v>10.31</v>
       </c>
       <c r="AMS1">
-        <v>0.24821461217417035</v>
+        <v>10.32</v>
       </c>
       <c r="AMT1">
-        <v>0.24825954277013326</v>
+        <v>10.33</v>
       </c>
       <c r="AMU1">
-        <v>0.24825954277013504</v>
+        <v>10.34</v>
       </c>
       <c r="AMV1">
-        <v>0.24832095137641494</v>
+        <v>10.35</v>
       </c>
       <c r="AMW1">
-        <v>0.24833542510774212</v>
+        <v>10.36</v>
       </c>
       <c r="AMX1">
-        <v>0.2483354251077439</v>
+        <v>10.370000000000001</v>
       </c>
       <c r="AMY1">
-        <v>0.2483968337140238</v>
+        <v>10.38</v>
       </c>
       <c r="AMZ1">
-        <v>0.2484582423203037</v>
+        <v>10.39</v>
       </c>
       <c r="ANA1">
-        <v>0.2485810595328635</v>
+        <v>10.4</v>
       </c>
       <c r="ANB1">
-        <v>0.24878745301288865</v>
+        <v>10.41</v>
       </c>
       <c r="ANC1">
-        <v>0.24901158856541974</v>
+        <v>10.42</v>
       </c>
       <c r="AND1">
-        <v>0.24927942061568956</v>
+        <v>10.43</v>
       </c>
       <c r="ANE1">
-        <v>0.24960199722831614</v>
+        <v>10.44</v>
       </c>
       <c r="ANF1">
-        <v>0.25000449692656518</v>
+        <v>10.450000000000001</v>
       </c>
       <c r="ANG1">
-        <v>0.25019233521077194</v>
+        <v>10.46</v>
       </c>
       <c r="ANH1">
-        <v>0.2501923352107755</v>
+        <v>10.47</v>
       </c>
       <c r="ANI1">
-        <v>0.25030340081359603</v>
+        <v>10.48</v>
       </c>
       <c r="ANJ1">
-        <v>0.25030340081359959</v>
+        <v>10.49</v>
       </c>
       <c r="ANK1">
-        <v>0.25041446641642012</v>
+        <v>10.5</v>
       </c>
       <c r="ANL1">
-        <v>0.25042569766460887</v>
+        <v>10.51</v>
       </c>
       <c r="ANM1">
-        <v>0.25042569766461242</v>
+        <v>10.52</v>
       </c>
       <c r="ANN1">
-        <v>0.25053676326743296</v>
+        <v>10.53</v>
       </c>
       <c r="ANO1">
-        <v>0.25057156230942401</v>
+        <v>10.540000000000001</v>
       </c>
       <c r="ANP1">
-        <v>0.25057156230942756</v>
+        <v>10.55</v>
       </c>
       <c r="ANQ1">
-        <v>0.25057942760926455</v>
+        <v>10.56</v>
       </c>
       <c r="ANR1">
-        <v>0.2505794276092681</v>
+        <v>10.57</v>
       </c>
       <c r="ANS1">
-        <v>0.25058729290910509</v>
+        <v>10.58</v>
       </c>
       <c r="ANT1">
-        <v>0.25059515820894207</v>
+        <v>10.59</v>
       </c>
       <c r="ANU1">
-        <v>0.25061088880861604</v>
+        <v>10.6</v>
       </c>
       <c r="ANV1">
-        <v>0.25064235000796398</v>
+        <v>10.61</v>
       </c>
       <c r="ANW1">
-        <v>0.25065512589771832</v>
+        <v>10.620000000000001</v>
       </c>
       <c r="ANX1">
-        <v>0.25065512589772188</v>
+        <v>10.63</v>
       </c>
       <c r="ANY1">
-        <v>0.25071804829641775</v>
+        <v>10.64</v>
       </c>
       <c r="ANZ1">
-        <v>0.25078097069511363</v>
+        <v>10.65</v>
       </c>
       <c r="AOA1">
-        <v>0.25090681549250538</v>
+        <v>10.66</v>
       </c>
       <c r="AOB1">
-        <v>0.25111294295253506</v>
+        <v>10.67</v>
       </c>
       <c r="AOC1">
-        <v>0.25133763684982041</v>
+        <v>10.68</v>
       </c>
       <c r="AOD1">
-        <v>0.25160600411262624</v>
+        <v>10.69</v>
       </c>
       <c r="AOE1">
-        <v>0.25192938839107898</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="AOF1">
-        <v>0.2523330528113778</v>
+        <v>10.71</v>
       </c>
       <c r="AOG1">
-        <v>0.2528572530659895</v>
+        <v>10.72</v>
       </c>
       <c r="AOH1">
-        <v>0.25356866253574817</v>
+        <v>10.73</v>
       </c>
       <c r="AOI1">
-        <v>0.25450686501724057</v>
+        <v>10.74</v>
       </c>
       <c r="AOJ1">
-        <v>0.25520754256771772</v>
+        <v>10.75</v>
       </c>
       <c r="AOK1">
-        <v>0.25562516684119041</v>
+        <v>10.76</v>
       </c>
       <c r="AOL1">
-        <v>0.25562516684119396</v>
+        <v>10.77</v>
       </c>
       <c r="AOM1">
-        <v>0.25571171278556754</v>
+        <v>10.78</v>
       </c>
       <c r="AON1">
-        <v>0.25573623722006128</v>
+        <v>10.790000000000001</v>
       </c>
       <c r="AOO1">
-        <v>0.25573623722006483</v>
+        <v>10.8</v>
       </c>
       <c r="AOP1">
-        <v>0.25582278316443841</v>
+        <v>10.81</v>
       </c>
       <c r="AOQ1">
-        <v>0.25590932910881198</v>
+        <v>10.82</v>
       </c>
       <c r="AOR1">
-        <v>0.25608242099755912</v>
+        <v>10.83</v>
       </c>
       <c r="AOS1">
-        <v>0.25627483406924978</v>
+        <v>10.84</v>
       </c>
       <c r="AOT1">
-        <v>0.25649792509822705</v>
+        <v>10.85</v>
       </c>
       <c r="AOU1">
-        <v>0.25676015492510146</v>
+        <v>10.86</v>
       </c>
       <c r="AOV1">
-        <v>0.25707612457220014</v>
+        <v>10.870000000000001</v>
       </c>
       <c r="AOW1">
-        <v>0.25746856417422059</v>
+        <v>10.88</v>
       </c>
       <c r="AOX1">
-        <v>0.25797564129855433</v>
+        <v>10.89</v>
       </c>
       <c r="AOY1">
-        <v>0.25866081427979593</v>
+        <v>10.9</v>
       </c>
       <c r="AOZ1">
-        <v>0.25957727552469678</v>
+        <v>10.91</v>
       </c>
       <c r="APA1">
-        <v>0.26030681657867311</v>
+        <v>10.92</v>
       </c>
       <c r="APB1">
-        <v>0.26103635763264943</v>
+        <v>10.93</v>
       </c>
       <c r="APC1">
-        <v>0.26105790850198807</v>
+        <v>10.94</v>
       </c>
       <c r="APD1">
-        <v>0.26105790850199162</v>
+        <v>10.950000000000001</v>
       </c>
       <c r="APE1">
-        <v>0.2611496563033216</v>
+        <v>10.96</v>
       </c>
       <c r="APF1">
-        <v>0.26116897695749242</v>
+        <v>10.97</v>
       </c>
       <c r="APG1">
-        <v>0.26116897695749597</v>
+        <v>10.98</v>
       </c>
       <c r="APH1">
-        <v>0.26126072475882595</v>
+        <v>10.99</v>
       </c>
       <c r="API1">
-        <v>0.26135247256015592</v>
+        <v>11</v>
       </c>
       <c r="APJ1">
-        <v>0.26153596816281588</v>
+        <v>11.01</v>
       </c>
       <c r="APK1">
-        <v>0.26172953298982304</v>
+        <v>11.02</v>
       </c>
       <c r="APL1">
-        <v>0.26195671334009812</v>
+        <v>11.03</v>
       </c>
       <c r="APM1">
-        <v>0.26222378215944842</v>
+        <v>11.040000000000001</v>
       </c>
       <c r="APN1">
-        <v>0.26254668256671188</v>
+        <v>11.05</v>
       </c>
       <c r="APO1">
-        <v>0.26278599764908467</v>
+        <v>11.06</v>
       </c>
       <c r="APP1">
-        <v>0.26278599764908822</v>
+        <v>11.07</v>
       </c>
       <c r="APQ1">
-        <v>0.26290380200787256</v>
+        <v>11.08</v>
       </c>
       <c r="APR1">
-        <v>0.26290380200787611</v>
+        <v>11.09</v>
       </c>
       <c r="APS1">
-        <v>0.26297755252617033</v>
+        <v>11.1</v>
       </c>
       <c r="APT1">
-        <v>0.26297755252617389</v>
+        <v>11.11</v>
       </c>
       <c r="APU1">
-        <v>0.26305130304446811</v>
+        <v>11.120000000000001</v>
       </c>
       <c r="APV1">
-        <v>0.26312505356276233</v>
+        <v>11.13</v>
       </c>
       <c r="APW1">
-        <v>0.26327255459935078</v>
+        <v>11.14</v>
       </c>
       <c r="APX1">
-        <v>0.26347728629192829</v>
+        <v>11.15</v>
       </c>
       <c r="APY1">
-        <v>0.26370652122323396</v>
+        <v>11.16</v>
       </c>
       <c r="APZ1">
-        <v>0.2639794711022983</v>
+        <v>11.17</v>
       </c>
       <c r="AQA1">
-        <v>0.26430970558480293</v>
+        <v>11.18</v>
       </c>
       <c r="AQB1">
-        <v>0.26472330121881543</v>
+        <v>11.19</v>
       </c>
       <c r="AQC1">
-        <v>0.26526290835899657</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="AQD1">
-        <v>0.26599749924025001</v>
+        <v>11.21</v>
       </c>
       <c r="AQE1">
-        <v>0.266490691087927</v>
+        <v>11.22</v>
       </c>
       <c r="AQF1">
-        <v>0.26649069108793055</v>
+        <v>11.23</v>
       </c>
       <c r="AQG1">
-        <v>0.26659601237595398</v>
+        <v>11.24</v>
       </c>
       <c r="AQH1">
-        <v>0.26660176219361642</v>
+        <v>11.25</v>
       </c>
       <c r="AQI1">
-        <v>0.26660176219361997</v>
+        <v>11.26</v>
       </c>
       <c r="AQJ1">
-        <v>0.2667070834816434</v>
+        <v>11.27</v>
       </c>
       <c r="AQK1">
-        <v>0.26681240476966683</v>
+        <v>11.28</v>
       </c>
       <c r="AQL1">
-        <v>0.26693251798495216</v>
+        <v>11.290000000000001</v>
       </c>
       <c r="AQM1">
-        <v>0.26693251798495571</v>
+        <v>11.3</v>
       </c>
       <c r="AQN1">
-        <v>0.26705458973504892</v>
+        <v>11.31</v>
       </c>
       <c r="AQO1">
-        <v>0.26705458973505247</v>
+        <v>11.32</v>
       </c>
       <c r="AQP1">
-        <v>0.26716830996418134</v>
+        <v>11.33</v>
       </c>
       <c r="AQQ1">
-        <v>0.26716830996418489</v>
+        <v>11.34</v>
       </c>
       <c r="AQR1">
-        <v>0.26728203019331376</v>
+        <v>11.35</v>
       </c>
       <c r="AQS1">
-        <v>0.26739575042244262</v>
+        <v>11.36</v>
       </c>
       <c r="AQT1">
-        <v>0.26760422491038033</v>
+        <v>11.370000000000001</v>
       </c>
       <c r="AQU1">
-        <v>0.26782797262721991</v>
+        <v>11.38</v>
       </c>
       <c r="AQV1">
-        <v>0.26809604101667023</v>
+        <v>11.39</v>
       </c>
       <c r="AQW1">
-        <v>0.26841873009183986</v>
+        <v>11.4</v>
       </c>
       <c r="AQX1">
-        <v>0.26882146787385663</v>
+        <v>11.41</v>
       </c>
       <c r="AQY1">
-        <v>0.26934420302920969</v>
+        <v>11.42</v>
       </c>
       <c r="AQZ1">
-        <v>0.27005339943883433</v>
+        <v>11.43</v>
       </c>
       <c r="ARA1">
-        <v>0.27098993392094284</v>
+        <v>11.44</v>
       </c>
       <c r="ARB1">
-        <v>0.27169293998168637</v>
+        <v>11.450000000000001</v>
       </c>
       <c r="ARC1">
-        <v>0.27181595037990047</v>
+        <v>11.46</v>
       </c>
       <c r="ARD1">
-        <v>0.27181595037990403</v>
+        <v>11.47</v>
       </c>
       <c r="ARE1">
-        <v>0.27190294598989567</v>
+        <v>11.48</v>
       </c>
       <c r="ARF1">
-        <v>0.27192289931482755</v>
+        <v>11.49</v>
       </c>
       <c r="ARG1">
-        <v>0.2719228993148311</v>
+        <v>11.5</v>
       </c>
       <c r="ARH1">
-        <v>0.27192340955066202</v>
+        <v>11.51</v>
       </c>
       <c r="ARI1">
-        <v>0.27192340955066557</v>
+        <v>11.52</v>
       </c>
       <c r="ARJ1">
-        <v>0.27192391978649649</v>
+        <v>11.53</v>
       </c>
       <c r="ARK1">
-        <v>0.27192443002232741</v>
+        <v>11.540000000000001</v>
       </c>
       <c r="ARL1">
-        <v>0.27192545049398925</v>
+        <v>11.55</v>
       </c>
       <c r="ARM1">
-        <v>0.27192749143731293</v>
+        <v>11.56</v>
       </c>
       <c r="ARN1">
-        <v>0.27193157332396029</v>
+        <v>11.57</v>
       </c>
       <c r="ARO1">
-        <v>0.271939737097255</v>
+        <v>11.58</v>
       </c>
       <c r="ARP1">
-        <v>0.27195606464384442</v>
+        <v>11.59</v>
       </c>
       <c r="ARQ1">
-        <v>0.27198871973702327</v>
+        <v>11.6</v>
       </c>
       <c r="ARR1">
-        <v>0.27200228838485246</v>
+        <v>11.61</v>
       </c>
       <c r="ARS1">
-        <v>0.27200228838485685</v>
+        <v>11.620000000000001</v>
       </c>
       <c r="ART1">
-        <v>0.2720344805587227</v>
+        <v>11.63</v>
       </c>
       <c r="ARU1">
-        <v>0.27203448055872625</v>
+        <v>11.64</v>
       </c>
       <c r="ARV1">
-        <v>0.27206667273259211</v>
+        <v>11.65</v>
       </c>
       <c r="ARW1">
-        <v>0.27209886490645796</v>
+        <v>11.66</v>
       </c>
       <c r="ARX1">
-        <v>0.27216324925418967</v>
+        <v>11.67</v>
       </c>
       <c r="ARY1">
-        <v>0.27229201794965308</v>
+        <v>11.68</v>
       </c>
       <c r="ARZ1">
-        <v>0.27247966573263638</v>
+        <v>11.69</v>
       </c>
       <c r="ASA1">
-        <v>0.27268614447785827</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="ASB1">
-        <v>0.27292871059657758</v>
+        <v>11.71</v>
       </c>
       <c r="ASC1">
-        <v>0.27298539318123294</v>
+        <v>11.72</v>
       </c>
       <c r="ASD1">
-        <v>0.27298539318123649</v>
+        <v>11.73</v>
       </c>
       <c r="ASE1">
-        <v>0.27327363924542658</v>
+        <v>11.74</v>
       </c>
       <c r="ASF1">
-        <v>0.27356188530961667</v>
+        <v>11.75</v>
       </c>
       <c r="ASG1">
-        <v>0.27404085598363881</v>
+        <v>11.76</v>
       </c>
       <c r="ASH1">
-        <v>0.27462678444905614</v>
+        <v>11.77</v>
       </c>
       <c r="ASI1">
-        <v>0.27543376995503899</v>
+        <v>11.78</v>
       </c>
       <c r="ASJ1">
-        <v>0.27641989867107919</v>
+        <v>11.790000000000001</v>
       </c>
       <c r="ASK1">
-        <v>0.27703587858088252</v>
+        <v>11.8</v>
       </c>
       <c r="ASL1">
-        <v>0.27735615738226477</v>
+        <v>11.81</v>
       </c>
       <c r="ASM1">
-        <v>0.27735615738226832</v>
+        <v>11.82</v>
       </c>
       <c r="ASN1">
-        <v>0.27743829397010789</v>
+        <v>11.83</v>
       </c>
       <c r="ASO1">
-        <v>0.27746722890976422</v>
+        <v>11.84</v>
       </c>
       <c r="ASP1">
-        <v>0.27746722890976777</v>
+        <v>11.85</v>
       </c>
       <c r="ASQ1">
-        <v>0.27754936549760734</v>
+        <v>11.86</v>
       </c>
       <c r="ASR1">
-        <v>0.2776315020854469</v>
+        <v>11.870000000000001</v>
       </c>
       <c r="ASS1">
-        <v>0.27779577526112603</v>
+        <v>11.88</v>
       </c>
       <c r="AST1">
-        <v>0.27798722442429791</v>
+        <v>11.89</v>
       </c>
       <c r="ASU1">
-        <v>0.27820690916461277</v>
+        <v>11.9</v>
       </c>
       <c r="ASV1">
-        <v>0.27846510830285648</v>
+        <v>11.91</v>
       </c>
       <c r="ASW1">
-        <v>0.278775337466527</v>
+        <v>11.92</v>
       </c>
       <c r="ASX1">
-        <v>0.27915947667765528</v>
+        <v>11.93</v>
       </c>
       <c r="ASY1">
-        <v>0.27965382483498419</v>
+        <v>11.94</v>
       </c>
       <c r="ASZ1">
-        <v>0.28031934102126987</v>
+        <v>11.950000000000001</v>
       </c>
       <c r="ATA1">
-        <v>0.28121688501264475</v>
+        <v>11.96</v>
       </c>
       <c r="ATB1">
-        <v>0.28150976373110564</v>
+        <v>11.97</v>
       </c>
       <c r="ATC1">
-        <v>0.2815097637311092</v>
+        <v>11.98</v>
       </c>
       <c r="ATD1">
-        <v>0.28158568426907149</v>
+        <v>11.99</v>
       </c>
       <c r="ATE1">
-        <v>0.28158568426907504</v>
+        <v>12</v>
       </c>
       <c r="ATF1">
         <v>0.28166160480703734</v>
@@ -14657,3604 +14657,3604 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.4924380318406587</v>
+        <v>0.48321863376939095</v>
       </c>
       <c r="C2">
-        <v>-2.891774789278367</v>
+        <v>0.97889639917921456</v>
       </c>
       <c r="D2">
-        <v>32.869368728214688</v>
+        <v>1.4688800561455773</v>
       </c>
       <c r="E2">
-        <v>66.416596925276153</v>
+        <v>1.9532350158427174</v>
       </c>
       <c r="F2">
-        <v>97.434725696876114</v>
+        <v>2.4320259380455052</v>
       </c>
       <c r="G2">
-        <v>126.11442187394644</v>
+        <v>2.9053167397483222</v>
       </c>
       <c r="H2">
-        <v>152.63197807037739</v>
+        <v>3.3731706036977744</v>
       </c>
       <c r="I2">
-        <v>177.15039633706309</v>
+        <v>3.8356499868273737</v>
       </c>
       <c r="J2">
-        <v>199.82039012710331</v>
+        <v>4.2928166285953342</v>
       </c>
       <c r="K2">
-        <v>220.78131072363158</v>
+        <v>4.7447315592265804</v>
       </c>
       <c r="L2">
-        <v>240.16200382496768</v>
+        <v>5.1914551078600795</v>
       </c>
       <c r="M2">
-        <v>258.08160155248328</v>
+        <v>5.6330469106025864</v>
       </c>
       <c r="N2">
-        <v>274.65025474960959</v>
+        <v>6.0695659184898618</v>
       </c>
       <c r="O2">
-        <v>289.96981007339434</v>
+        <v>6.501070405356435</v>
       </c>
       <c r="P2">
-        <v>304.13443604065208</v>
+        <v>6.9276179756149716</v>
       </c>
       <c r="Q2">
-        <v>317.23120187698208</v>
+        <v>7.3492655719462707</v>
       </c>
       <c r="R2">
-        <v>329.34061272680992</v>
+        <v>7.7660694829009227</v>
       </c>
       <c r="S2">
-        <v>340.53710451435887</v>
+        <v>8.1780853504136477</v>
       </c>
       <c r="T2">
-        <v>350.88950149744102</v>
+        <v>8.5853681772312918</v>
       </c>
       <c r="U2">
-        <v>360.46143932661943</v>
+        <v>8.9879723342555344</v>
       </c>
       <c r="V2">
-        <v>369.31175621027296</v>
+        <v>9.3859515678012073</v>
       </c>
       <c r="W2">
-        <v>377.4948545900296</v>
+        <v>9.7793590067712497</v>
       </c>
       <c r="X2">
-        <v>385.06103554977113</v>
+        <v>10.168247169749254</v>
       </c>
       <c r="Y2">
-        <v>392.05680801380174</v>
+        <v>10.552667972010486</v>
       </c>
       <c r="Z2">
-        <v>398.52517463480859</v>
+        <v>10.932672732452451</v>
       </c>
       <c r="AA2">
-        <v>404.5058961289505</v>
+        <v>11.308312180445778</v>
       </c>
       <c r="AB2">
-        <v>410.03573568293092</v>
+        <v>11.679636462606377</v>
       </c>
       <c r="AC2">
-        <v>415.14868493541178</v>
+        <v>12.046695149489919</v>
       </c>
       <c r="AD2">
-        <v>419.87617292186252</v>
+        <v>12.409537242209277</v>
       </c>
       <c r="AE2">
-        <v>424.24725926722243</v>
+        <v>12.76821117897607</v>
       </c>
       <c r="AF2">
-        <v>428.28881281391574</v>
+        <v>13.122764841566944</v>
       </c>
       <c r="AG2">
-        <v>432.02567678324198</v>
+        <v>13.473245561715665</v>
       </c>
       <c r="AH2">
-        <v>435.48082148537679</v>
+        <v>13.819700127431755</v>
       </c>
       <c r="AI2">
-        <v>438.67548551668239</v>
+        <v>14.162174789246503</v>
       </c>
       <c r="AJ2">
-        <v>441.62930631226612</v>
+        <v>14.500715266387274</v>
       </c>
       <c r="AK2">
-        <v>444.36044085628203</v>
+        <v>14.835366752880883</v>
       </c>
       <c r="AL2">
-        <v>446.88567729197575</v>
+        <v>15.166173923586848</v>
       </c>
       <c r="AM2">
-        <v>449.22053811753483</v>
+        <v>15.493180940161297</v>
       </c>
       <c r="AN2">
-        <v>451.37937560208638</v>
+        <v>15.81643145695246</v>
       </c>
       <c r="AO2">
-        <v>453.37546000835431</v>
+        <v>16.135968626828337</v>
       </c>
       <c r="AP2">
-        <v>455.22106116428091</v>
+        <v>16.451835106937473</v>
       </c>
       <c r="AQ2">
-        <v>456.92752388502669</v>
+        <v>16.764073064403554</v>
       </c>
       <c r="AR2">
-        <v>458.50533770896368</v>
+        <v>17.072724181954566</v>
       </c>
       <c r="AS2">
-        <v>459.96420137632725</v>
+        <v>17.377829663487322</v>
       </c>
       <c r="AT2">
-        <v>461.31308244687256</v>
+        <v>17.679430239568003</v>
       </c>
       <c r="AU2">
-        <v>462.56027242300223</v>
+        <v>17.977566172869597</v>
       </c>
       <c r="AV2">
-        <v>463.71343771720382</v>
+        <v>18.272277263546805</v>
       </c>
       <c r="AW2">
-        <v>464.77966677709242</v>
+        <v>18.563602854549238</v>
       </c>
       <c r="AX2">
-        <v>465.76551365773213</v>
+        <v>18.851581836873571</v>
       </c>
       <c r="AY2">
-        <v>466.67703830907584</v>
+        <v>19.136252654755367</v>
       </c>
       <c r="AZ2">
-        <v>467.51984382616348</v>
+        <v>19.417653310801228</v>
       </c>
       <c r="BA2">
-        <v>468.29911089106037</v>
+        <v>19.695821371062067</v>
       </c>
       <c r="BB2">
-        <v>469.01962961824091</v>
+        <v>19.970793970048003</v>
       </c>
       <c r="BC2">
-        <v>469.68582899917647</v>
+        <v>20.242607815685698</v>
       </c>
       <c r="BD2">
-        <v>470.30180412711763</v>
+        <v>20.511299194218765</v>
       </c>
       <c r="BE2">
-        <v>470.87134136942109</v>
+        <v>20.776903975051876</v>
       </c>
       <c r="BF2">
-        <v>471.39794164215368</v>
+        <v>21.03945761553916</v>
       </c>
       <c r="BG2">
-        <v>471.88484193004501</v>
+        <v>21.29899516571766</v>
       </c>
       <c r="BH2">
-        <v>472.33503518406354</v>
+        <v>21.555551272986428</v>
       </c>
       <c r="BI2">
-        <v>472.7512887189327</v>
+        <v>21.809160186731777</v>
       </c>
       <c r="BJ2">
-        <v>473.13616122367358</v>
+        <v>22.059855762899549</v>
       </c>
       <c r="BK2">
-        <v>473.49201848973036</v>
+        <v>22.307671468514659</v>
       </c>
       <c r="BL2">
-        <v>473.82104795337278</v>
+        <v>22.552640386148912</v>
       </c>
       <c r="BM2">
-        <v>474.12527214175191</v>
+        <v>22.794795218337395</v>
       </c>
       <c r="BN2">
-        <v>474.40656110526976</v>
+        <v>23.034168291944155</v>
       </c>
       <c r="BO2">
-        <v>474.66664391268387</v>
+        <v>23.270791562477726</v>
       </c>
       <c r="BP2">
-        <v>474.90711927960365</v>
+        <v>23.504696618357102</v>
       </c>
       <c r="BQ2">
-        <v>475.12946539571249</v>
+        <v>23.735914685128666</v>
       </c>
       <c r="BR2">
-        <v>475.33504901112366</v>
+        <v>23.964476629634639</v>
       </c>
       <c r="BS2">
-        <v>475.52513383772259</v>
+        <v>24.190412964133841</v>
       </c>
       <c r="BT2">
-        <v>475.700888317139</v>
+        <v>24.413753850374857</v>
       </c>
       <c r="BU2">
-        <v>475.86339280309755</v>
+        <v>24.634529103622572</v>
       </c>
       <c r="BV2">
-        <v>476.01364620229617</v>
+        <v>24.852768196638412</v>
       </c>
       <c r="BW2">
-        <v>476.15257211463302</v>
+        <v>25.068500263614855</v>
       </c>
       <c r="BX2">
-        <v>476.28102451053013</v>
+        <v>25.281754104064746</v>
       </c>
       <c r="BY2">
-        <v>476.39979298024241</v>
+        <v>25.492558186665921</v>
       </c>
       <c r="BZ2">
-        <v>476.50960758743031</v>
+        <v>25.700940653061718</v>
       </c>
       <c r="CA2">
-        <v>476.61114335682328</v>
+        <v>25.906929321617763</v>
       </c>
       <c r="CB2">
-        <v>476.70502442356138</v>
+        <v>26.110551691135658</v>
       </c>
       <c r="CC2">
-        <v>476.79182786972171</v>
+        <v>26.311834944523955</v>
       </c>
       <c r="CD2">
-        <v>476.87208727161334</v>
+        <v>26.510805952426939</v>
       </c>
       <c r="CE2">
-        <v>476.946295979642</v>
+        <v>26.70749127681189</v>
       </c>
       <c r="CF2">
-        <v>477.01491015091023</v>
+        <v>26.901917174514903</v>
       </c>
       <c r="CG2">
-        <v>477.07835155319168</v>
+        <v>27.094109600746151</v>
       </c>
       <c r="CH2">
-        <v>477.13701015751553</v>
+        <v>27.284094212554805</v>
       </c>
       <c r="CI2">
-        <v>477.19124653529838</v>
+        <v>27.471896372254129</v>
       </c>
       <c r="CJ2">
-        <v>477.24139407475883</v>
+        <v>27.657541150807305</v>
       </c>
       <c r="CK2">
-        <v>477.28776103023642</v>
+        <v>27.84105333117434</v>
       </c>
       <c r="CL2">
-        <v>477.33063241701598</v>
+        <v>28.022457411620458</v>
       </c>
       <c r="CM2">
-        <v>477.37027176330224</v>
+        <v>28.201777608986578</v>
       </c>
       <c r="CN2">
-        <v>477.40692273011319</v>
+        <v>28.379037861922136</v>
       </c>
       <c r="CO2">
-        <v>477.44081060905268</v>
+        <v>28.554261834080862</v>
       </c>
       <c r="CP2">
-        <v>477.47214370716517</v>
+        <v>28.727472917279787</v>
       </c>
       <c r="CQ2">
-        <v>477.50111462738977</v>
+        <v>28.898694234621956</v>
       </c>
       <c r="CR2">
-        <v>477.52790145247928</v>
+        <v>29.067948643583311</v>
       </c>
       <c r="CS2">
-        <v>477.55266883966681</v>
+        <v>29.235258739064026</v>
       </c>
       <c r="CT2">
-        <v>477.57556903280442</v>
+        <v>29.400646856404958</v>
       </c>
       <c r="CU2">
-        <v>477.59674279819853</v>
+        <v>29.564135074369236</v>
       </c>
       <c r="CV2">
-        <v>477.61632028989408</v>
+        <v>29.72574521808977</v>
       </c>
       <c r="CW2">
-        <v>477.63442184972303</v>
+        <v>29.885498861982793</v>
       </c>
       <c r="CX2">
-        <v>477.65115874704003</v>
+        <v>30.04341733262801</v>
       </c>
       <c r="CY2">
-        <v>477.66663386269039</v>
+        <v>30.199521711615596</v>
       </c>
       <c r="CZ2">
-        <v>477.68094232141215</v>
+        <v>30.353832838360518</v>
       </c>
       <c r="DA2">
-        <v>477.69417207656346</v>
+        <v>30.506371312884564</v>
       </c>
       <c r="DB2">
-        <v>477.70640445076765</v>
+        <v>30.657157498566313</v>
       </c>
       <c r="DC2">
-        <v>477.71771463579779</v>
+        <v>30.806211524859652</v>
       </c>
       <c r="DD2">
-        <v>477.72817215477835</v>
+        <v>30.953553289980931</v>
       </c>
       <c r="DE2">
-        <v>477.7378412895394</v>
+        <v>31.099202463565351</v>
       </c>
       <c r="DF2">
-        <v>477.74678147575395</v>
+        <v>31.24317848929277</v>
       </c>
       <c r="DG2">
-        <v>477.75504766828573</v>
+        <v>31.385500587483389</v>
       </c>
       <c r="DH2">
-        <v>477.76269067899392</v>
+        <v>31.52618775766355</v>
       </c>
       <c r="DI2">
-        <v>477.76975748907171</v>
+        <v>31.665258781102189</v>
       </c>
       <c r="DJ2">
-        <v>477.77629153783579</v>
+        <v>31.802732223318003</v>
       </c>
       <c r="DK2">
-        <v>477.7823329897472</v>
+        <v>31.938626436557932</v>
       </c>
       <c r="DL2">
-        <v>477.7879189812997</v>
+        <v>32.0729595622471</v>
       </c>
       <c r="DM2">
-        <v>477.79308384929487</v>
+        <v>32.205749533410632</v>
       </c>
       <c r="DN2">
-        <v>477.79785934191051</v>
+        <v>32.337014077067671</v>
       </c>
       <c r="DO2">
-        <v>477.8022748138535</v>
+        <v>32.466770716597878</v>
       </c>
       <c r="DP2">
-        <v>477.80635740680202</v>
+        <v>32.595036774080697</v>
       </c>
       <c r="DQ2">
-        <v>477.81013221624477</v>
+        <v>32.72182937260785</v>
       </c>
       <c r="DR2">
-        <v>477.81362244574086</v>
+        <v>32.847165438569192</v>
       </c>
       <c r="DS2">
-        <v>477.81684954955068</v>
+        <v>32.971061703912312</v>
       </c>
       <c r="DT2">
-        <v>477.81983336451532</v>
+        <v>33.093534708376239</v>
       </c>
       <c r="DU2">
-        <v>477.82259223199128</v>
+        <v>33.214600801699419</v>
       </c>
       <c r="DV2">
-        <v>477.82514311059464</v>
+        <v>33.334276145802292</v>
       </c>
       <c r="DW2">
-        <v>477.8275016804447</v>
+        <v>33.452576716944954</v>
       </c>
       <c r="DX2">
-        <v>477.82968243954861</v>
+        <v>33.569518307859866</v>
       </c>
       <c r="DY2">
-        <v>477.83169879292069</v>
+        <v>33.68511652986016</v>
       </c>
       <c r="DZ2">
-        <v>477.83356313498092</v>
+        <v>33.799386814923679</v>
       </c>
       <c r="EA2">
-        <v>477.8352869257435</v>
+        <v>33.912344417753111</v>
       </c>
       <c r="EB2">
-        <v>477.83688076126208</v>
+        <v>34.024004417812442</v>
       </c>
       <c r="EC2">
-        <v>477.83835443876069</v>
+        <v>34.134381721339999</v>
       </c>
       <c r="ED2">
-        <v>477.83971701685925</v>
+        <v>34.243491063338411</v>
       </c>
       <c r="EE2">
-        <v>477.84097687125524</v>
+        <v>34.351347009541627</v>
       </c>
       <c r="EF2">
-        <v>477.84214174620865</v>
+        <v>34.45796395835945</v>
       </c>
       <c r="EG2">
-        <v>477.8432188021452</v>
+        <v>34.563356142799663</v>
       </c>
       <c r="EH2">
-        <v>477.84421465967296</v>
+        <v>34.667537632368074</v>
       </c>
       <c r="EI2">
-        <v>477.84513544027641</v>
+        <v>34.770522334946769</v>
       </c>
       <c r="EJ2">
-        <v>477.84598680394686</v>
+        <v>34.872323998650714</v>
       </c>
       <c r="EK2">
-        <v>477.84677398397235</v>
+        <v>34.972956213663181</v>
       </c>
       <c r="EL2">
-        <v>477.84750181910817</v>
+        <v>35.072432414049871</v>
       </c>
       <c r="EM2">
-        <v>477.84817478331945</v>
+        <v>35.170765879552434</v>
       </c>
       <c r="EN2">
-        <v>477.84879701328242</v>
+        <v>35.267969737361199</v>
       </c>
       <c r="EO2">
-        <v>477.8493723338126</v>
+        <v>35.364056963867618</v>
       </c>
       <c r="EP2">
-        <v>477.84990428137564</v>
+        <v>35.459040386396595</v>
       </c>
       <c r="EQ2">
-        <v>477.8503961258258</v>
+        <v>35.552932684918858</v>
       </c>
       <c r="ER2">
-        <v>477.8508508905058</v>
+        <v>35.645746393743735</v>
       </c>
       <c r="ES2">
-        <v>477.8512713708302</v>
+        <v>35.737493903192409</v>
       </c>
       <c r="ET2">
-        <v>477.85166015147018</v>
+        <v>35.828187461251986</v>
       </c>
       <c r="EU2">
-        <v>477.85201962223999</v>
+        <v>35.917839175210588</v>
       </c>
       <c r="EV2">
-        <v>477.85235199278839</v>
+        <v>36.006461013273622</v>
       </c>
       <c r="EW2">
-        <v>477.85265930617987</v>
+        <v>36.094064806161434</v>
       </c>
       <c r="EX2">
-        <v>477.85294345145365</v>
+        <v>36.180662248688812</v>
       </c>
       <c r="EY2">
-        <v>477.85320617523615</v>
+        <v>36.266264901326061</v>
       </c>
       <c r="EZ2">
-        <v>477.85344909247721</v>
+        <v>36.350884191742374</v>
       </c>
       <c r="FA2">
-        <v>477.85367369637657</v>
+        <v>36.434531416331346</v>
       </c>
       <c r="FB2">
-        <v>477.85388136756251</v>
+        <v>36.51721774171903</v>
       </c>
       <c r="FC2">
-        <v>477.85407338257949</v>
+        <v>36.598954206254639</v>
       </c>
       <c r="FD2">
-        <v>477.85425092173375</v>
+        <v>36.679751721484124</v>
       </c>
       <c r="FE2">
-        <v>477.8544150763492</v>
+        <v>36.759621073606795</v>
       </c>
       <c r="FF2">
-        <v>477.85456685547581</v>
+        <v>36.838572924915312</v>
       </c>
       <c r="FG2">
-        <v>477.85470719209241</v>
+        <v>36.916617815219027</v>
       </c>
       <c r="FH2">
-        <v>477.85483694884073</v>
+        <v>36.99376616325101</v>
       </c>
       <c r="FI2">
-        <v>477.85495692332864</v>
+        <v>37.070028268058913</v>
       </c>
       <c r="FJ2">
-        <v>477.85506785303318</v>
+        <v>37.145414310379891</v>
       </c>
       <c r="FK2">
-        <v>477.85517041983371</v>
+        <v>37.219934353999655</v>
       </c>
       <c r="FL2">
-        <v>477.85526525420283</v>
+        <v>37.293598347095966</v>
       </c>
       <c r="FM2">
-        <v>477.85535293908288</v>
+        <v>37.366416123566722</v>
       </c>
       <c r="FN2">
-        <v>477.8554340134678</v>
+        <v>37.43839740434268</v>
       </c>
       <c r="FO2">
-        <v>477.8555089757179</v>
+        <v>37.50955179868523</v>
       </c>
       <c r="FP2">
-        <v>477.85557828662246</v>
+        <v>37.579888805469153</v>
       </c>
       <c r="FQ2">
-        <v>477.85564237223184</v>
+        <v>37.649417814450736</v>
       </c>
       <c r="FR2">
-        <v>477.8557016264769</v>
+        <v>37.718148107521259</v>
       </c>
       <c r="FS2">
-        <v>477.85575641359065</v>
+        <v>37.786088859946055</v>
       </c>
       <c r="FT2">
-        <v>477.85580707034637</v>
+        <v>37.853249141589416</v>
       </c>
       <c r="FU2">
-        <v>477.85585390812867</v>
+        <v>37.919637918125389</v>
       </c>
       <c r="FV2">
-        <v>477.85589721484718</v>
+        <v>37.985264052234641</v>
       </c>
       <c r="FW2">
-        <v>477.85593725670554</v>
+        <v>38.05013630478765</v>
       </c>
       <c r="FX2">
-        <v>477.85597427983942</v>
+        <v>38.11426333601419</v>
       </c>
       <c r="FY2">
-        <v>477.85600851182846</v>
+        <v>38.177653706659463</v>
       </c>
       <c r="FZ2">
-        <v>477.85604016309418</v>
+        <v>38.240315879126968</v>
       </c>
       <c r="GA2">
-        <v>477.85606942819572</v>
+        <v>38.302258218608131</v>
       </c>
       <c r="GB2">
-        <v>477.85609648702382</v>
+        <v>38.363488994199088</v>
       </c>
       <c r="GC2">
-        <v>477.85612150590794</v>
+        <v>38.424016380004574</v>
       </c>
       <c r="GD2">
-        <v>477.85614463863828</v>
+        <v>38.483848456229111</v>
       </c>
       <c r="GE2">
-        <v>477.85616602740993</v>
+        <v>38.542993210255702</v>
       </c>
       <c r="GF2">
-        <v>477.85618580369851</v>
+        <v>38.601458537712162</v>
       </c>
       <c r="GG2">
-        <v>477.85620408906829</v>
+        <v>38.659252243525088</v>
       </c>
       <c r="GH2">
-        <v>477.85622099591791</v>
+        <v>38.716382042961818</v>
       </c>
       <c r="GI2">
-        <v>477.85623662817352</v>
+        <v>38.772855562660425</v>
       </c>
       <c r="GJ2">
-        <v>477.85625108192545</v>
+        <v>38.828680341647804</v>
       </c>
       <c r="GK2">
-        <v>477.8562644460203</v>
+        <v>38.883863832346123</v>
       </c>
       <c r="GL2">
-        <v>477.85627680260643</v>
+        <v>38.938413401567708</v>
       </c>
       <c r="GM2">
-        <v>477.85628822763897</v>
+        <v>38.992336331498478</v>
       </c>
       <c r="GN2">
-        <v>477.85629879134729</v>
+        <v>39.045639820670075</v>
       </c>
       <c r="GO2">
-        <v>477.85630855866617</v>
+        <v>39.098330984920906</v>
       </c>
       <c r="GP2">
-        <v>477.85631758963422</v>
+        <v>39.150416858345963</v>
       </c>
       <c r="GQ2">
-        <v>477.85632593976447</v>
+        <v>39.201904394235996</v>
       </c>
       <c r="GR2">
-        <v>477.8563336603853</v>
+        <v>39.252800466005674</v>
       </c>
       <c r="GS2">
-        <v>477.85634079895442</v>
+        <v>39.303111868111131</v>
       </c>
       <c r="GT2">
-        <v>477.85634739935216</v>
+        <v>39.352845316957101</v>
       </c>
       <c r="GU2">
-        <v>477.85635350215114</v>
+        <v>39.402007451793452</v>
       </c>
       <c r="GV2">
-        <v>477.8563591448646</v>
+        <v>39.450604835601553</v>
       </c>
       <c r="GW2">
-        <v>477.85636436217868</v>
+        <v>39.498643955970365</v>
       </c>
       <c r="GX2">
-        <v>477.85636918616342</v>
+        <v>39.546131225962547</v>
       </c>
       <c r="GY2">
-        <v>477.85637364647152</v>
+        <v>39.593072984970576</v>
       </c>
       <c r="GZ2">
-        <v>477.85637777052057</v>
+        <v>39.639475499563048</v>
       </c>
       <c r="HA2">
-        <v>477.85638158366095</v>
+        <v>39.685344964321196</v>
       </c>
       <c r="HB2">
-        <v>477.85638510933143</v>
+        <v>39.730687502665845</v>
       </c>
       <c r="HC2">
-        <v>477.85638836920458</v>
+        <v>39.775509167674976</v>
       </c>
       <c r="HD2">
-        <v>477.85639138331828</v>
+        <v>39.819815942891644</v>
       </c>
       <c r="HE2">
-        <v>477.8563941702003</v>
+        <v>39.863613743122883</v>
       </c>
       <c r="HF2">
-        <v>477.85639674698143</v>
+        <v>39.906908415229218</v>
       </c>
       <c r="HG2">
-        <v>477.85639912950097</v>
+        <v>39.949705738905294</v>
       </c>
       <c r="HH2">
-        <v>477.85640133240435</v>
+        <v>39.992011427451331</v>
       </c>
       <c r="HI2">
-        <v>477.85640336923245</v>
+        <v>40.03383112853593</v>
       </c>
       <c r="HJ2">
-        <v>477.85640525250562</v>
+        <v>40.075170424949988</v>
       </c>
       <c r="HK2">
-        <v>477.85640699380036</v>
+        <v>40.116034835351989</v>
       </c>
       <c r="HL2">
-        <v>477.85640860382011</v>
+        <v>40.156429815004671</v>
       </c>
       <c r="HM2">
-        <v>477.85641009246211</v>
+        <v>40.196360756503374</v>
       </c>
       <c r="HN2">
-        <v>477.85641146887627</v>
+        <v>40.235832990495858</v>
       </c>
       <c r="HO2">
-        <v>477.85641274152368</v>
+        <v>40.274851786393974</v>
       </c>
       <c r="HP2">
-        <v>477.85641391822708</v>
+        <v>40.313422353077108</v>
       </c>
       <c r="HQ2">
-        <v>477.85641500621972</v>
+        <v>40.351549839587513</v>
       </c>
       <c r="HR2">
-        <v>477.85641601218964</v>
+        <v>40.389239335817734</v>
       </c>
       <c r="HS2">
-        <v>477.85641694232032</v>
+        <v>40.426495873190056</v>
       </c>
       <c r="HT2">
-        <v>477.8564178023293</v>
+        <v>40.46332442532821</v>
       </c>
       <c r="HU2">
-        <v>477.85641859750274</v>
+        <v>40.499729908721292</v>
       </c>
       <c r="HV2">
-        <v>477.85641933272859</v>
+        <v>40.535717183380179</v>
       </c>
       <c r="HW2">
-        <v>477.85642001252648</v>
+        <v>40.571291053486242</v>
       </c>
       <c r="HX2">
-        <v>477.85642064107452</v>
+        <v>40.606456268032723</v>
       </c>
       <c r="HY2">
-        <v>477.85642122223709</v>
+        <v>40.641217521458721</v>
       </c>
       <c r="HZ2">
-        <v>477.85642175958623</v>
+        <v>40.675579454275855</v>
       </c>
       <c r="IA2">
-        <v>477.85642225642516</v>
+        <v>40.709546653687781</v>
       </c>
       <c r="IB2">
-        <v>477.85642271580758</v>
+        <v>40.743123654202549</v>
       </c>
       <c r="IC2">
-        <v>477.85642314055775</v>
+        <v>40.776314938237952</v>
       </c>
       <c r="ID2">
-        <v>477.85642353328615</v>
+        <v>40.80912493671994</v>
       </c>
       <c r="IE2">
-        <v>477.85642389640702</v>
+        <v>40.841558029674097</v>
       </c>
       <c r="IF2">
-        <v>477.85642423215273</v>
+        <v>40.87361854681037</v>
       </c>
       <c r="IG2">
-        <v>477.85642454258686</v>
+        <v>40.905310768101074</v>
       </c>
       <c r="IH2">
-        <v>477.85642482961748</v>
+        <v>40.936638924352266</v>
       </c>
       <c r="II2">
-        <v>477.85642509500934</v>
+        <v>40.967607197768523</v>
       </c>
       <c r="IJ2">
-        <v>477.85642534039329</v>
+        <v>40.998219722511259</v>
       </c>
       <c r="IK2">
-        <v>477.85642556727782</v>
+        <v>41.028480585250627</v>
       </c>
       <c r="IL2">
-        <v>477.85642577705761</v>
+        <v>41.058393825711093</v>
       </c>
       <c r="IM2">
-        <v>477.85642597102225</v>
+        <v>41.087963437210682</v>
       </c>
       <c r="IN2">
-        <v>477.85642615036437</v>
+        <v>41.117193367194098</v>
       </c>
       <c r="IO2">
-        <v>477.85642631618566</v>
+        <v>41.146087517759689</v>
       </c>
       <c r="IP2">
-        <v>477.85642646950618</v>
+        <v>41.174649746180393</v>
       </c>
       <c r="IQ2">
-        <v>477.85642661126769</v>
+        <v>41.202883865418578</v>
       </c>
       <c r="IR2">
-        <v>477.85642674234236</v>
+        <v>41.230793644635256</v>
       </c>
       <c r="IS2">
-        <v>477.85642686353503</v>
+        <v>41.258382809693018</v>
       </c>
       <c r="IT2">
-        <v>477.85642697559109</v>
+        <v>41.285655043653563</v>
       </c>
       <c r="IU2">
-        <v>477.85642707919919</v>
+        <v>41.312613987269337</v>
       </c>
       <c r="IV2">
-        <v>477.85642717499678</v>
+        <v>41.339263239469588</v>
       </c>
       <c r="IW2">
-        <v>477.8564272635719</v>
+        <v>41.36560635784079</v>
       </c>
       <c r="IX2">
-        <v>477.85642734546923</v>
+        <v>41.391646859101527</v>
       </c>
       <c r="IY2">
-        <v>477.85642742119273</v>
+        <v>41.417388219572054</v>
       </c>
       <c r="IZ2">
-        <v>477.85642749120774</v>
+        <v>41.442833875638286</v>
       </c>
       <c r="JA2">
-        <v>477.85642755594404</v>
+        <v>41.467987224210631</v>
       </c>
       <c r="JB2">
-        <v>477.85642761579982</v>
+        <v>41.492851623177437</v>
       </c>
       <c r="JC2">
-        <v>477.85642767114285</v>
+        <v>41.517430391853139</v>
       </c>
       <c r="JD2">
-        <v>477.85642772231387</v>
+        <v>41.54172681142154</v>
       </c>
       <c r="JE2">
-        <v>477.85642776962749</v>
+        <v>41.565744125373818</v>
       </c>
       <c r="JF2">
-        <v>477.85642781337407</v>
+        <v>41.589485539941442</v>
       </c>
       <c r="JG2">
-        <v>477.85642785382231</v>
+        <v>41.612954224524188</v>
       </c>
       <c r="JH2">
-        <v>477.85642789122147</v>
+        <v>41.636153312113372</v>
       </c>
       <c r="JI2">
-        <v>477.85642792580109</v>
+        <v>41.659085899709936</v>
       </c>
       <c r="JJ2">
-        <v>477.85642795777363</v>
+        <v>41.681755048737983</v>
       </c>
       <c r="JK2">
-        <v>477.85642798733585</v>
+        <v>41.704163785453474</v>
       </c>
       <c r="JL2">
-        <v>477.85642801466946</v>
+        <v>41.726315101348149</v>
       </c>
       <c r="JM2">
-        <v>477.85642803994256</v>
+        <v>41.748211953548967</v>
       </c>
       <c r="JN2">
-        <v>477.85642806331043</v>
+        <v>41.769857265212785</v>
       </c>
       <c r="JO2">
-        <v>477.85642808491644</v>
+        <v>41.791253925916706</v>
       </c>
       <c r="JP2">
-        <v>477.85642810489355</v>
+        <v>41.812404792043658</v>
       </c>
       <c r="JQ2">
-        <v>477.85642812336454</v>
+        <v>41.833312687163897</v>
       </c>
       <c r="JR2">
-        <v>477.85642814044314</v>
+        <v>41.853980402411828</v>
       </c>
       <c r="JS2">
-        <v>477.85642815623407</v>
+        <v>41.874410696858625</v>
       </c>
       <c r="JT2">
-        <v>477.85642817083476</v>
+        <v>41.8946062978806</v>
       </c>
       <c r="JU2">
-        <v>477.85642818433473</v>
+        <v>41.914569901523251</v>
       </c>
       <c r="JV2">
-        <v>477.85642819681647</v>
+        <v>41.934304172861225</v>
       </c>
       <c r="JW2">
-        <v>477.8564282083575</v>
+        <v>41.953811746354056</v>
       </c>
       <c r="JX2">
-        <v>477.8564282190286</v>
+        <v>41.973095226197835</v>
       </c>
       <c r="JY2">
-        <v>477.85642822889531</v>
+        <v>41.992157186672983</v>
       </c>
       <c r="JZ2">
-        <v>477.85642823801811</v>
+        <v>42.011000172487776</v>
       </c>
       <c r="KA2">
-        <v>477.85642824645299</v>
+        <v>42.029626699118047</v>
       </c>
       <c r="KB2">
-        <v>477.8564282542518</v>
+        <v>42.048039253143173</v>
       </c>
       <c r="KC2">
-        <v>477.85642826146301</v>
+        <v>42.066240292577795</v>
       </c>
       <c r="KD2">
-        <v>477.8564282681304</v>
+        <v>42.084232247200084</v>
       </c>
       <c r="KE2">
-        <v>477.85642827429496</v>
+        <v>42.102017518876082</v>
       </c>
       <c r="KF2">
-        <v>477.85642827999504</v>
+        <v>42.119598481880374</v>
       </c>
       <c r="KG2">
-        <v>477.85642828526528</v>
+        <v>42.136977483212995</v>
       </c>
       <c r="KH2">
-        <v>477.85642829013818</v>
+        <v>42.154156842912748</v>
       </c>
       <c r="KI2">
-        <v>477.85642829464399</v>
+        <v>42.171138854367015</v>
       </c>
       <c r="KJ2">
-        <v>477.85642829880965</v>
+        <v>42.187925784617768</v>
       </c>
       <c r="KK2">
-        <v>477.85642830266164</v>
+        <v>42.204519874664321</v>
       </c>
       <c r="KL2">
-        <v>477.85642830622299</v>
+        <v>42.220923339762486</v>
       </c>
       <c r="KM2">
-        <v>477.85642830951588</v>
+        <v>42.237138369720213</v>
       </c>
       <c r="KN2">
-        <v>477.85642831256064</v>
+        <v>42.253167129190047</v>
       </c>
       <c r="KO2">
-        <v>477.85642831537558</v>
+        <v>42.269011757958047</v>
       </c>
       <c r="KP2">
-        <v>477.85642831797838</v>
+        <v>42.284674371229372</v>
       </c>
       <c r="KQ2">
-        <v>477.85642832038513</v>
+        <v>42.300157059910752</v>
       </c>
       <c r="KR2">
-        <v>477.85642832261044</v>
+        <v>42.31546189088963</v>
       </c>
       <c r="KS2">
-        <v>477.856428324668</v>
+        <v>42.330590907309976</v>
       </c>
       <c r="KT2">
-        <v>477.85642832657015</v>
+        <v>42.345546128845136</v>
       </c>
       <c r="KU2">
-        <v>477.85642832832929</v>
+        <v>42.360329551967396</v>
       </c>
       <c r="KV2">
-        <v>477.85642832995575</v>
+        <v>42.374943150214513</v>
       </c>
       <c r="KW2">
-        <v>477.85642833145931</v>
+        <v>42.389388874453211</v>
       </c>
       <c r="KX2">
-        <v>477.85642833284982</v>
+        <v>42.403668653139633</v>
       </c>
       <c r="KY2">
-        <v>477.85642833413527</v>
+        <v>42.417784392576671</v>
       </c>
       <c r="KZ2">
-        <v>477.85642833532398</v>
+        <v>42.431737977168545</v>
       </c>
       <c r="LA2">
-        <v>477.85642833642294</v>
+        <v>42.445531269672379</v>
       </c>
       <c r="LB2">
-        <v>477.85642833743924</v>
+        <v>42.459166111446798</v>
       </c>
       <c r="LC2">
-        <v>477.85642833837881</v>
+        <v>42.472644322697747</v>
       </c>
       <c r="LD2">
-        <v>477.85642833924777</v>
+        <v>42.485967702721659</v>
       </c>
       <c r="LE2">
-        <v>477.8564283400508</v>
+        <v>42.499138030145332</v>
       </c>
       <c r="LF2">
-        <v>477.85642834079329</v>
+        <v>42.51215706316367</v>
       </c>
       <c r="LG2">
-        <v>477.85642834148013</v>
+        <v>42.525026539774281</v>
       </c>
       <c r="LH2">
-        <v>477.85642834211478</v>
+        <v>42.537748178009416</v>
       </c>
       <c r="LI2">
-        <v>477.85642834270203</v>
+        <v>42.550323676165405</v>
       </c>
       <c r="LJ2">
-        <v>477.85642834324506</v>
+        <v>42.562754713029427</v>
       </c>
       <c r="LK2">
-        <v>477.85642834374698</v>
+        <v>42.575042948103508</v>
       </c>
       <c r="LL2">
-        <v>477.85642834421128</v>
+        <v>42.587190021826153</v>
       </c>
       <c r="LM2">
-        <v>477.85642834464034</v>
+        <v>42.59919755579125</v>
       </c>
       <c r="LN2">
-        <v>477.8564283450371</v>
+        <v>42.611067152964651</v>
       </c>
       <c r="LO2">
-        <v>477.85642834540374</v>
+        <v>42.62280039789804</v>
       </c>
       <c r="LP2">
-        <v>477.8564283457431</v>
+        <v>42.63439885694055</v>
       </c>
       <c r="LQ2">
-        <v>477.85642834605682</v>
+        <v>42.645864078447872</v>
       </c>
       <c r="LR2">
-        <v>477.85642834634683</v>
+        <v>42.657197592988886</v>
       </c>
       <c r="LS2">
-        <v>477.85642834661519</v>
+        <v>42.668400913550094</v>
       </c>
       <c r="LT2">
-        <v>477.85642834686308</v>
+        <v>42.679475535737488</v>
       </c>
       <c r="LU2">
-        <v>477.85642834709205</v>
+        <v>42.690422937976273</v>
       </c>
       <c r="LV2">
-        <v>477.8564283473039</v>
+        <v>42.701244581708174</v>
       </c>
       <c r="LW2">
-        <v>477.85642834749979</v>
+        <v>42.711941911586635</v>
       </c>
       <c r="LX2">
-        <v>477.85642834768089</v>
+        <v>42.722516355669597</v>
       </c>
       <c r="LY2">
-        <v>477.85642834784812</v>
+        <v>42.732969325610121</v>
       </c>
       <c r="LZ2">
-        <v>477.85642834800279</v>
+        <v>42.743302216844917</v>
       </c>
       <c r="MA2">
-        <v>477.85642834814593</v>
+        <v>42.753516408780541</v>
       </c>
       <c r="MB2">
-        <v>477.85642834827831</v>
+        <v>42.763613264977629</v>
       </c>
       <c r="MC2">
-        <v>477.85642834840075</v>
+        <v>42.7735941333329</v>
       </c>
       <c r="MD2">
-        <v>477.85642834851404</v>
+        <v>42.783460346259034</v>
       </c>
       <c r="ME2">
-        <v>477.85642834861881</v>
+        <v>42.793213220862626</v>
       </c>
       <c r="MF2">
-        <v>477.85642834871544</v>
+        <v>42.802854059119973</v>
       </c>
       <c r="MG2">
-        <v>477.85642834880491</v>
+        <v>42.812384148050896</v>
       </c>
       <c r="MH2">
-        <v>477.85642834888745</v>
+        <v>42.821804759890547</v>
       </c>
       <c r="MI2">
-        <v>477.85642834896407</v>
+        <v>42.831117152259232</v>
       </c>
       <c r="MJ2">
-        <v>477.8564283490349</v>
+        <v>42.840322568330329</v>
       </c>
       <c r="MK2">
-        <v>477.85642834910027</v>
+        <v>42.84942223699624</v>
       </c>
       <c r="ML2">
-        <v>477.85642834916081</v>
+        <v>42.858417373032481</v>
       </c>
       <c r="MM2">
-        <v>477.85642834921657</v>
+        <v>42.867309177259727</v>
       </c>
       <c r="MN2">
-        <v>477.85642834926836</v>
+        <v>42.876098836704266</v>
       </c>
       <c r="MO2">
-        <v>477.85642834931599</v>
+        <v>42.884787524756391</v>
       </c>
       <c r="MP2">
-        <v>477.85642834936027</v>
+        <v>42.893376401327004</v>
       </c>
       <c r="MQ2">
-        <v>477.85642834940131</v>
+        <v>42.901866613002554</v>
       </c>
       <c r="MR2">
-        <v>477.85642834943877</v>
+        <v>42.910259293198038</v>
       </c>
       <c r="MS2">
-        <v>477.85642834947379</v>
+        <v>42.91855556230832</v>
       </c>
       <c r="MT2">
-        <v>477.8564283495059</v>
+        <v>42.926756527857712</v>
       </c>
       <c r="MU2">
-        <v>477.85642834953586</v>
+        <v>42.934863284647825</v>
       </c>
       <c r="MV2">
-        <v>477.85642834956343</v>
+        <v>42.942876914903678</v>
       </c>
       <c r="MW2">
-        <v>477.85642834958884</v>
+        <v>42.950798488418286</v>
       </c>
       <c r="MX2">
-        <v>477.85642834961249</v>
+        <v>42.95862906269533</v>
       </c>
       <c r="MY2">
-        <v>477.85642834963443</v>
+        <v>42.966369683090363</v>
       </c>
       <c r="MZ2">
-        <v>477.85642834965444</v>
+        <v>42.974021382950461</v>
       </c>
       <c r="NA2">
-        <v>477.85642834967291</v>
+        <v>42.981585183752117</v>
       </c>
       <c r="NB2">
-        <v>477.85642834969042</v>
+        <v>42.989062095237564</v>
       </c>
       <c r="NC2">
-        <v>477.85642834970639</v>
+        <v>42.996453115549549</v>
       </c>
       <c r="ND2">
-        <v>477.85642834972066</v>
+        <v>43.003759231364718</v>
       </c>
       <c r="NE2">
-        <v>477.85642834973441</v>
+        <v>43.010981418025196</v>
       </c>
       <c r="NF2">
-        <v>477.85642834974692</v>
+        <v>43.018120639668901</v>
       </c>
       <c r="NG2">
-        <v>477.85642834975869</v>
+        <v>43.025177849358094</v>
       </c>
       <c r="NH2">
-        <v>477.85642834976971</v>
+        <v>43.032153989206819</v>
       </c>
       <c r="NI2">
-        <v>477.85642834977995</v>
+        <v>43.03904999050652</v>
       </c>
       <c r="NJ2">
-        <v>477.85642834978916</v>
+        <v>43.045866773850392</v>
       </c>
       <c r="NK2">
-        <v>477.85642834979757</v>
+        <v>43.052605249256345</v>
       </c>
       <c r="NL2">
-        <v>477.85642834980553</v>
+        <v>43.059266316288451</v>
       </c>
       <c r="NM2">
-        <v>477.85642834981257</v>
+        <v>43.06585086417693</v>
       </c>
       <c r="NN2">
-        <v>477.85642834981928</v>
+        <v>43.072359771937037</v>
       </c>
       <c r="NO2">
-        <v>477.85642834982559</v>
+        <v>43.078793908486247</v>
       </c>
       <c r="NP2">
-        <v>477.85642834983105</v>
+        <v>43.085154132760437</v>
       </c>
       <c r="NQ2">
-        <v>477.85642834983616</v>
+        <v>43.091441293828332</v>
       </c>
       <c r="NR2">
-        <v>477.85642834984128</v>
+        <v>43.09765623100504</v>
       </c>
       <c r="NS2">
-        <v>477.85642834984611</v>
+        <v>43.103799773963964</v>
       </c>
       <c r="NT2">
-        <v>477.85642834985032</v>
+        <v>43.109872742847607</v>
       </c>
       <c r="NU2">
-        <v>477.85642834985453</v>
+        <v>43.115875948377166</v>
       </c>
       <c r="NV2">
-        <v>477.85642834985856</v>
+        <v>43.121810191960535</v>
       </c>
       <c r="NW2">
-        <v>477.85642834986214</v>
+        <v>43.127676265799536</v>
       </c>
       <c r="NX2">
-        <v>477.85642834986544</v>
+        <v>43.133474952995471</v>
       </c>
       <c r="NY2">
-        <v>477.85642834986822</v>
+        <v>43.139207027653775</v>
       </c>
       <c r="NZ2">
-        <v>477.85642834987067</v>
+        <v>43.14487325498736</v>
       </c>
       <c r="OA2">
-        <v>477.85642834987289</v>
+        <v>43.150474391418669</v>
       </c>
       <c r="OB2">
-        <v>477.85642834987493</v>
+        <v>43.156011184680807</v>
       </c>
       <c r="OC2">
-        <v>477.85642834987675</v>
+        <v>43.161484373917247</v>
       </c>
       <c r="OD2">
-        <v>477.85642834987834</v>
+        <v>43.16689468978052</v>
       </c>
       <c r="OE2">
-        <v>477.85642834987971</v>
+        <v>43.172242854529784</v>
       </c>
       <c r="OF2">
-        <v>477.85642834988096</v>
+        <v>43.177529582127249</v>
       </c>
       <c r="OG2">
-        <v>477.85642834988215</v>
+        <v>43.182755578333413</v>
       </c>
       <c r="OH2">
-        <v>477.85642834988329</v>
+        <v>43.187921540801398</v>
       </c>
       <c r="OI2">
-        <v>477.85642834988414</v>
+        <v>43.193028159170005</v>
       </c>
       <c r="OJ2">
-        <v>477.85642834988505</v>
+        <v>43.198076115155757</v>
       </c>
       <c r="OK2">
-        <v>477.8564283498859</v>
+        <v>43.203066082644021</v>
       </c>
       <c r="OL2">
-        <v>194.52856730395962</v>
+        <v>43.207998727778836</v>
       </c>
       <c r="OM2">
-        <v>194.58916365007494</v>
+        <v>43.212874709051881</v>
       </c>
       <c r="ON2">
-        <v>194.60014964129749</v>
+        <v>43.21769467739044</v>
       </c>
       <c r="OO2">
-        <v>194.60014964129806</v>
+        <v>43.222459276244237</v>
       </c>
       <c r="OP2">
-        <v>194.66065700216791</v>
+        <v>43.227169141671361</v>
       </c>
       <c r="OQ2">
-        <v>194.72108914528761</v>
+        <v>43.231824902423192</v>
       </c>
       <c r="OR2">
-        <v>194.84117461295571</v>
+        <v>43.236427180028244</v>
       </c>
       <c r="OS2">
-        <v>194.96737927572397</v>
+        <v>43.240976588875327</v>
       </c>
       <c r="OT2">
-        <v>195.11512160999553</v>
+        <v>43.245473736295303</v>
       </c>
       <c r="OU2">
-        <v>195.28822512003342</v>
+        <v>43.249919222642411</v>
       </c>
       <c r="OV2">
-        <v>195.49669865580316</v>
+        <v>43.254313641374331</v>
       </c>
       <c r="OW2">
-        <v>195.75531695038651</v>
+        <v>43.258657579131288</v>
       </c>
       <c r="OX2">
-        <v>195.77615538457388</v>
+        <v>43.262951615814522</v>
       </c>
       <c r="OY2">
-        <v>195.77615538457445</v>
+        <v>43.267196324663651</v>
       </c>
       <c r="OZ2">
-        <v>195.87390508665354</v>
+        <v>43.271392272333145</v>
       </c>
       <c r="PA2">
-        <v>195.88288904243083</v>
+        <v>43.275540018968059</v>
       </c>
       <c r="PB2">
-        <v>195.8828890424314</v>
+        <v>43.279640118278799</v>
       </c>
       <c r="PC2">
-        <v>195.92325265101229</v>
+        <v>43.283693117614938</v>
       </c>
       <c r="PD2">
-        <v>195.92325265101289</v>
+        <v>43.287699558038398</v>
       </c>
       <c r="PE2">
-        <v>195.96358188142875</v>
+        <v>43.29165997439565</v>
       </c>
       <c r="PF2">
-        <v>196.00387676295992</v>
+        <v>43.295574895389116</v>
       </c>
       <c r="PG2">
-        <v>196.0843635963646</v>
+        <v>43.299444843647677</v>
       </c>
       <c r="PH2">
-        <v>196.2142190054206</v>
+        <v>43.303270335796526</v>
       </c>
       <c r="PI2">
-        <v>196.35553942380849</v>
+        <v>43.307051882526167</v>
       </c>
       <c r="PJ2">
-        <v>196.52351312863982</v>
+        <v>43.310789988660517</v>
       </c>
       <c r="PK2">
-        <v>196.72488671074441</v>
+        <v>43.314485153224297</v>
       </c>
       <c r="PL2">
-        <v>196.97459846228455</v>
+        <v>43.318137869509634</v>
       </c>
       <c r="PM2">
-        <v>197.28152336350291</v>
+        <v>43.321748625142042</v>
       </c>
       <c r="PN2">
-        <v>197.28152336350345</v>
+        <v>43.325317902145336</v>
       </c>
       <c r="PO2">
-        <v>197.37340862321309</v>
+        <v>43.328846177006156</v>
       </c>
       <c r="PP2">
-        <v>197.37340862321366</v>
+        <v>43.332333920737426</v>
       </c>
       <c r="PQ2">
-        <v>197.43233243006108</v>
+        <v>43.335781598941331</v>
       </c>
       <c r="PR2">
-        <v>197.43233243006165</v>
+        <v>43.339189671871431</v>
       </c>
       <c r="PS2">
-        <v>197.49118059492528</v>
+        <v>43.342558594494122</v>
       </c>
       <c r="PT2">
-        <v>197.54995321490864</v>
+        <v>43.345888816549376</v>
       </c>
       <c r="PU2">
-        <v>197.66727220802554</v>
+        <v>43.34918078261073</v>
       </c>
       <c r="PV2">
-        <v>197.80005769986843</v>
+        <v>43.352434932144689</v>
       </c>
       <c r="PW2">
-        <v>197.9556325471988</v>
+        <v>43.355651699569421</v>
       </c>
       <c r="PX2">
-        <v>198.0207353565508</v>
+        <v>43.358831514312612</v>
       </c>
       <c r="PY2">
-        <v>198.02073535655185</v>
+        <v>43.361974800869</v>
       </c>
       <c r="PZ2">
-        <v>198.087508104059</v>
+        <v>43.365081978856857</v>
       </c>
       <c r="QA2">
-        <v>198.08750810406011</v>
+        <v>43.368153463074115</v>
       </c>
       <c r="QB2">
-        <v>198.15418232617586</v>
+        <v>43.371189663553665</v>
       </c>
       <c r="QC2">
-        <v>198.22075816827771</v>
+        <v>43.374190985618171</v>
       </c>
       <c r="QD2">
-        <v>198.33328270754981</v>
+        <v>43.37715782993417</v>
       </c>
       <c r="QE2">
-        <v>198.45399454179412</v>
+        <v>43.380090592565452</v>
       </c>
       <c r="QF2">
-        <v>198.59533633826027</v>
+        <v>43.382989665026123</v>
       </c>
       <c r="QG2">
-        <v>198.76175091440888</v>
+        <v>43.385855434332683</v>
       </c>
       <c r="QH2">
-        <v>198.96324317402735</v>
+        <v>43.388688283055799</v>
       </c>
       <c r="QI2">
-        <v>199.21498553551541</v>
+        <v>43.391488589371313</v>
       </c>
       <c r="QJ2">
-        <v>199.54267164352382</v>
+        <v>43.394256727110836</v>
       </c>
       <c r="QK2">
-        <v>199.98580248619535</v>
+        <v>43.396993065811522</v>
       </c>
       <c r="QL2">
-        <v>200.54532920101042</v>
+        <v>43.399697970765487</v>
       </c>
       <c r="QM2">
-        <v>200.92266533667316</v>
+        <v>43.40237180306849</v>
       </c>
       <c r="QN2">
-        <v>201.24946157035069</v>
+        <v>43.405014919668318</v>
       </c>
       <c r="QO2">
-        <v>201.24946157035171</v>
+        <v>43.407627673412208</v>
       </c>
       <c r="QP2">
-        <v>201.29714120555414</v>
+        <v>43.410210413094084</v>
       </c>
       <c r="QQ2">
-        <v>201.31168763875149</v>
+        <v>43.412763483501109</v>
       </c>
       <c r="QR2">
-        <v>201.31168763875249</v>
+        <v>43.415287225459672</v>
       </c>
       <c r="QS2">
-        <v>201.35929667441135</v>
+        <v>43.417781975880914</v>
       </c>
       <c r="QT2">
-        <v>201.40685169450609</v>
+        <v>43.420248067805751</v>
       </c>
       <c r="QU2">
-        <v>201.50179993307043</v>
+        <v>43.422685830449218</v>
       </c>
       <c r="QV2">
-        <v>201.60966237194177</v>
+        <v>43.425095589244528</v>
       </c>
       <c r="QW2">
-        <v>201.73369876922706</v>
+        <v>43.427477665886428</v>
       </c>
       <c r="QX2">
-        <v>201.87900534390582</v>
+        <v>43.42983237837425</v>
       </c>
       <c r="QY2">
-        <v>202.05314106073368</v>
+        <v>43.432160041054267</v>
       </c>
       <c r="QZ2">
-        <v>202.14663468301231</v>
+        <v>43.434460964661696</v>
       </c>
       <c r="RA2">
-        <v>202.1466346830133</v>
+        <v>43.4367354563622</v>
       </c>
       <c r="RB2">
-        <v>202.21106630771567</v>
+        <v>43.43898381979281</v>
       </c>
       <c r="RC2">
-        <v>202.21106630771666</v>
+        <v>43.44120635510258</v>
       </c>
       <c r="RD2">
-        <v>202.25163532272026</v>
+        <v>43.443403358992569</v>
       </c>
       <c r="RE2">
-        <v>202.25163532272126</v>
+        <v>43.445575124755486</v>
       </c>
       <c r="RF2">
-        <v>202.29216425672911</v>
+        <v>43.447721942314828</v>
       </c>
       <c r="RG2">
-        <v>202.33265314934008</v>
+        <v>43.449844098263618</v>
       </c>
       <c r="RH2">
-        <v>202.41351096857119</v>
+        <v>43.451941875902605</v>
       </c>
       <c r="RI2">
-        <v>202.52594200817055</v>
+        <v>43.454015555278104</v>
       </c>
       <c r="RJ2">
-        <v>202.65134763963852</v>
+        <v>43.456065413219392</v>
       </c>
       <c r="RK2">
-        <v>202.80013511216691</v>
+        <v>43.458091723375709</v>
       </c>
       <c r="RL2">
-        <v>202.97934077556755</v>
+        <v>43.46009475625273</v>
       </c>
       <c r="RM2">
-        <v>203.05088694825957</v>
+        <v>43.462074779248645</v>
       </c>
       <c r="RN2">
-        <v>203.05088694826051</v>
+        <v>43.464032056689945</v>
       </c>
       <c r="RO2">
-        <v>203.27369456817934</v>
+        <v>43.465966849866639</v>
       </c>
       <c r="RP2">
-        <v>203.49526799265371</v>
+        <v>43.467879417067209</v>
       </c>
       <c r="RQ2">
-        <v>203.93473956365244</v>
+        <v>43.469770013612987</v>
       </c>
       <c r="RR2">
-        <v>204.15576444316679</v>
+        <v>43.471638891892312</v>
       </c>
       <c r="RS2">
-        <v>204.15576444316773</v>
+        <v>43.473486301394232</v>
       </c>
       <c r="RT2">
-        <v>204.24082141660094</v>
+        <v>43.47531248874175</v>
       </c>
       <c r="RU2">
-        <v>204.2408214166019</v>
+        <v>43.477117697724807</v>
       </c>
       <c r="RV2">
-        <v>204.29877200914547</v>
+        <v>43.478902169332798</v>
       </c>
       <c r="RW2">
-        <v>204.29877200914643</v>
+        <v>43.48066614178672</v>
       </c>
       <c r="RX2">
-        <v>204.35663656546052</v>
+        <v>43.482409850571067</v>
       </c>
       <c r="RY2">
-        <v>204.41441521327869</v>
+        <v>43.484133528465122</v>
       </c>
       <c r="RZ2">
-        <v>204.5115337520219</v>
+        <v>43.485837405574138</v>
       </c>
       <c r="SA2">
-        <v>204.61580071868752</v>
+        <v>43.48752170936006</v>
       </c>
       <c r="SB2">
-        <v>204.73789339863188</v>
+        <v>43.489186664671863</v>
       </c>
       <c r="SC2">
-        <v>204.78411593281089</v>
+        <v>43.490832493775507</v>
       </c>
       <c r="SD2">
-        <v>204.7841159328118</v>
+        <v>43.492459416383674</v>
       </c>
       <c r="SE2">
-        <v>204.85039295124417</v>
+        <v>43.494067649685157</v>
       </c>
       <c r="SF2">
-        <v>204.85039295124508</v>
+        <v>43.495657408373738</v>
       </c>
       <c r="SG2">
-        <v>204.9072364648641</v>
+        <v>43.497228904676909</v>
       </c>
       <c r="SH2">
-        <v>204.90723646486501</v>
+        <v>43.498782348384168</v>
       </c>
       <c r="SI2">
-        <v>204.96399588483158</v>
+        <v>43.500317946875093</v>
       </c>
       <c r="SJ2">
-        <v>205.02067133555295</v>
+        <v>43.501835905147018</v>
       </c>
       <c r="SK2">
-        <v>205.12767007145808</v>
+        <v>43.503336425842264</v>
       </c>
       <c r="SL2">
-        <v>205.24165681393126</v>
+        <v>43.504819709275388</v>
       </c>
       <c r="SM2">
-        <v>205.37773828308761</v>
+        <v>43.506285953459752</v>
       </c>
       <c r="SN2">
-        <v>205.54067167375118</v>
+        <v>43.507735354134127</v>
       </c>
       <c r="SO2">
-        <v>205.74271624505843</v>
+        <v>43.50916810478865</v>
       </c>
       <c r="SP2">
-        <v>206.00280858200938</v>
+        <v>43.510584396690732</v>
       </c>
       <c r="SQ2">
-        <v>206.35222955000012</v>
+        <v>43.511984418910657</v>
       </c>
       <c r="SR2">
-        <v>206.77904259047244</v>
+        <v>43.513368358346725</v>
       </c>
       <c r="SS2">
-        <v>206.7790425904733</v>
+        <v>43.514736399750262</v>
       </c>
       <c r="ST2">
-        <v>206.82988373110535</v>
+        <v>43.51608872575023</v>
       </c>
       <c r="SU2">
-        <v>206.83452850551407</v>
+        <v>43.517425516877637</v>
       </c>
       <c r="SV2">
-        <v>206.83452850551495</v>
+        <v>43.518746951589669</v>
       </c>
       <c r="SW2">
-        <v>206.87367459056608</v>
+        <v>43.520053206293426</v>
       </c>
       <c r="SX2">
-        <v>206.87367459056696</v>
+        <v>43.521344455369622</v>
       </c>
       <c r="SY2">
-        <v>206.91277862192962</v>
+        <v>43.522620871195677</v>
       </c>
       <c r="SZ2">
-        <v>206.95184064478107</v>
+        <v>43.523882624168827</v>
       </c>
       <c r="TA2">
-        <v>207.01273811377393</v>
+        <v>43.525129882728947</v>
       </c>
       <c r="TB2">
-        <v>207.01273811377479</v>
+        <v>43.526362813380885</v>
       </c>
       <c r="TC2">
-        <v>207.06667475731228</v>
+        <v>43.527581580716763</v>
       </c>
       <c r="TD2">
-        <v>207.06667475731317</v>
+        <v>43.528786347437986</v>
       </c>
       <c r="TE2">
-        <v>207.12053117313809</v>
+        <v>43.529977274376868</v>
       </c>
       <c r="TF2">
-        <v>207.17430748058462</v>
+        <v>43.531154520518193</v>
       </c>
       <c r="TG2">
-        <v>207.22746642406102</v>
+        <v>43.532318243020441</v>
       </c>
       <c r="TH2">
-        <v>207.2274664240619</v>
+        <v>43.53346859723667</v>
       </c>
       <c r="TI2">
-        <v>207.31756660283514</v>
+        <v>43.53460573673533</v>
       </c>
       <c r="TJ2">
-        <v>207.40744157180842</v>
+        <v>43.535729813320771</v>
       </c>
       <c r="TK2">
-        <v>207.53290106131044</v>
+        <v>43.536840977053473</v>
       </c>
       <c r="TL2">
-        <v>207.67699265053392</v>
+        <v>43.53793937627011</v>
       </c>
       <c r="TM2">
-        <v>207.85552675658334</v>
+        <v>43.539025157603291</v>
       </c>
       <c r="TN2">
-        <v>208.08199490152501</v>
+        <v>43.540098466001218</v>
       </c>
       <c r="TO2">
-        <v>208.38305901318631</v>
+        <v>43.541159444746981</v>
       </c>
       <c r="TP2">
-        <v>208.7883596779142</v>
+        <v>43.542208235477752</v>
       </c>
       <c r="TQ2">
-        <v>209.24050830187809</v>
+        <v>43.543244978203589</v>
       </c>
       <c r="TR2">
-        <v>209.50550697909566</v>
+        <v>43.544269811326174</v>
       </c>
       <c r="TS2">
-        <v>209.5846826594809</v>
+        <v>43.545282871657328</v>
       </c>
       <c r="TT2">
-        <v>209.5846826594817</v>
+        <v>43.546284294437243</v>
       </c>
       <c r="TU2">
-        <v>209.63486631504617</v>
+        <v>43.547274213352509</v>
       </c>
       <c r="TV2">
-        <v>209.63486631504696</v>
+        <v>43.548252760554021</v>
       </c>
       <c r="TW2">
-        <v>209.68497521706047</v>
+        <v>43.549220066674557</v>
       </c>
       <c r="TX2">
-        <v>209.73500947687592</v>
+        <v>43.550176260846264</v>
       </c>
       <c r="TY2">
-        <v>209.81885489831606</v>
+        <v>43.551121470717902</v>
       </c>
       <c r="TZ2">
-        <v>209.90891064945924</v>
+        <v>43.552055822471836</v>
       </c>
       <c r="UA2">
-        <v>210.01436433956647</v>
+        <v>43.552979440840915</v>
       </c>
       <c r="UB2">
-        <v>210.13856795483511</v>
+        <v>43.553892449125073</v>
       </c>
       <c r="UC2">
-        <v>210.28901143672769</v>
+        <v>43.554794969207961</v>
       </c>
       <c r="UD2">
-        <v>210.47707248658958</v>
+        <v>43.555687121572923</v>
       </c>
       <c r="UE2">
-        <v>210.72202120593221</v>
+        <v>43.556569025319362</v>
       </c>
       <c r="UF2">
-        <v>211.05335119399024</v>
+        <v>43.557440798178504</v>
       </c>
       <c r="UG2">
-        <v>211.47049909254568</v>
+        <v>43.558302556529121</v>
       </c>
       <c r="UH2">
-        <v>211.7500875164782</v>
+        <v>43.55915441541309</v>
       </c>
       <c r="UI2">
-        <v>211.97097573439135</v>
+        <v>43.559996488550716</v>
       </c>
       <c r="UJ2">
-        <v>211.97097573439211</v>
+        <v>43.560828888355957</v>
       </c>
       <c r="UK2">
-        <v>212.00642754448802</v>
+        <v>43.561651725951464</v>
       </c>
       <c r="UL2">
-        <v>212.01765716527802</v>
+        <v>43.562465111183258</v>
       </c>
       <c r="UM2">
-        <v>212.01765716527876</v>
+        <v>43.563269152635591</v>
       </c>
       <c r="UN2">
-        <v>212.0530561070334</v>
+        <v>43.564063957645303</v>
       </c>
       <c r="UO2">
-        <v>212.08841495825746</v>
+        <v>43.564849632316239</v>
       </c>
       <c r="UP2">
-        <v>212.15901257067804</v>
+        <v>43.565626281533355</v>
       </c>
       <c r="UQ2">
-        <v>212.23936765665067</v>
+        <v>43.566394008976708</v>
       </c>
       <c r="UR2">
-        <v>212.33173749035166</v>
+        <v>43.567152917135381</v>
       </c>
       <c r="US2">
-        <v>212.36669331207477</v>
+        <v>43.567903107321079</v>
       </c>
       <c r="UT2">
-        <v>212.36669331207551</v>
+        <v>43.56864467968169</v>
       </c>
       <c r="UU2">
-        <v>212.4247791795581</v>
+        <v>43.569377733214644</v>
       </c>
       <c r="UV2">
-        <v>212.44370736288894</v>
+        <v>43.570102365780194</v>
       </c>
       <c r="UW2">
-        <v>212.44370736288965</v>
+        <v>43.570818674114328</v>
       </c>
       <c r="UX2">
-        <v>212.46792615364492</v>
+        <v>43.57152675384183</v>
       </c>
       <c r="UY2">
-        <v>212.46792615364564</v>
+        <v>43.572226699488994</v>
       </c>
       <c r="UZ2">
-        <v>212.49212591931342</v>
+        <v>43.572918604496259</v>
       </c>
       <c r="VA2">
-        <v>212.51630667483883</v>
+        <v>43.573602561230608</v>
       </c>
       <c r="VB2">
-        <v>212.56461121518473</v>
+        <v>43.574278660997997</v>
       </c>
       <c r="VC2">
-        <v>212.64888154494454</v>
+        <v>43.574946994055509</v>
       </c>
       <c r="VD2">
-        <v>212.73951712515549</v>
+        <v>43.575607649623372</v>
       </c>
       <c r="VE2">
-        <v>212.84728629466537</v>
+        <v>43.576260715896872</v>
       </c>
       <c r="VF2">
-        <v>212.9761411490118</v>
+        <v>43.576906280058239</v>
       </c>
       <c r="VG2">
-        <v>213.13548848263918</v>
+        <v>43.577544428288121</v>
       </c>
       <c r="VH2">
-        <v>213.25585448231675</v>
+        <v>43.57817524577716</v>
       </c>
       <c r="VI2">
-        <v>213.25585448231749</v>
+        <v>43.578798816737404</v>
       </c>
       <c r="VJ2">
-        <v>213.31881201794499</v>
+        <v>43.579415224413509</v>
       </c>
       <c r="VK2">
-        <v>213.32062690335434</v>
+        <v>43.580024551093842</v>
       </c>
       <c r="VL2">
-        <v>213.32062690335508</v>
+        <v>43.580626878121485</v>
       </c>
       <c r="VM2">
-        <v>213.35608239927009</v>
+        <v>43.581222285905106</v>
       </c>
       <c r="VN2">
-        <v>213.35608239927083</v>
+        <v>43.581810853929646</v>
       </c>
       <c r="VO2">
-        <v>213.3914959269442</v>
+        <v>43.582392660766985</v>
       </c>
       <c r="VP2">
-        <v>213.42686753605315</v>
+        <v>43.582967784086378</v>
       </c>
       <c r="VQ2">
-        <v>213.49748519699307</v>
+        <v>43.583536300664896</v>
       </c>
       <c r="VR2">
-        <v>213.58325321711811</v>
+        <v>43.584098286397612</v>
       </c>
       <c r="VS2">
-        <v>213.68203371927757</v>
+        <v>43.584653816307721</v>
       </c>
       <c r="VT2">
-        <v>213.79987792752851</v>
+        <v>43.585202964556657</v>
       </c>
       <c r="VU2">
-        <v>213.94388992580576</v>
+        <v>43.585745804453857</v>
       </c>
       <c r="VV2">
-        <v>214.12633458299683</v>
+        <v>43.586282408466658</v>
       </c>
       <c r="VW2">
-        <v>214.18684963605017</v>
+        <v>43.58681284822989</v>
       </c>
       <c r="VX2">
-        <v>214.18684963605085</v>
+        <v>43.587337194555502</v>
       </c>
       <c r="VY2">
-        <v>214.21904444470525</v>
+        <v>43.587855517441994</v>
       </c>
       <c r="VZ2">
-        <v>214.23026231741619</v>
+        <v>43.588367886083759</v>
       </c>
       <c r="WA2">
-        <v>214.2302623174169</v>
+        <v>43.588874368880255</v>
       </c>
       <c r="WB2">
-        <v>214.26240907526864</v>
+        <v>43.589375033445279</v>
       </c>
       <c r="WC2">
-        <v>214.2945202518693</v>
+        <v>43.589869946615885</v>
       </c>
       <c r="WD2">
-        <v>214.35863601880439</v>
+        <v>43.590359174461334</v>
       </c>
       <c r="WE2">
-        <v>214.43315095845989</v>
+        <v>43.590842782291908</v>
       </c>
       <c r="WF2">
-        <v>214.51842470951885</v>
+        <v>43.591320834667684</v>
       </c>
       <c r="WG2">
-        <v>214.61832448895947</v>
+        <v>43.591793395407016</v>
       </c>
       <c r="WH2">
-        <v>214.73789630082302</v>
+        <v>43.592260527595201</v>
       </c>
       <c r="WI2">
-        <v>214.88526342381587</v>
+        <v>43.592722293592814</v>
       </c>
       <c r="WJ2">
-        <v>215.07378971454531</v>
+        <v>43.593178755044114</v>
       </c>
       <c r="WK2">
-        <v>215.32561621814278</v>
+        <v>43.593629972885154</v>
       </c>
       <c r="WL2">
-        <v>215.66168561827726</v>
+        <v>43.594076007352029</v>
       </c>
       <c r="WM2">
-        <v>215.94050171767358</v>
+        <v>43.594516917988813</v>
       </c>
       <c r="WN2">
-        <v>216.21650246822895</v>
+        <v>43.594952763655691</v>
       </c>
       <c r="WO2">
-        <v>216.244224063232</v>
+        <v>43.595383602536558</v>
       </c>
       <c r="WP2">
-        <v>216.24422406323265</v>
+        <v>43.595809492146977</v>
       </c>
       <c r="WQ2">
-        <v>216.27743843150861</v>
+        <v>43.596230489341814</v>
       </c>
       <c r="WR2">
-        <v>216.28458954644881</v>
+        <v>43.596646650322761</v>
       </c>
       <c r="WS2">
-        <v>216.28458954644947</v>
+        <v>43.59705803064594</v>
       </c>
       <c r="WT2">
-        <v>216.31775431342965</v>
+        <v>43.597464685229241</v>
       </c>
       <c r="WU2">
-        <v>216.35087832738805</v>
+        <v>43.597866668359721</v>
       </c>
       <c r="WV2">
-        <v>216.41700429648799</v>
+        <v>43.598264033700772</v>
       </c>
       <c r="WW2">
-        <v>216.48693578645407</v>
+        <v>43.598656834299362</v>
       </c>
       <c r="WX2">
-        <v>216.568679485747</v>
+        <v>43.599045122593076</v>
       </c>
       <c r="WY2">
-        <v>216.65559421034214</v>
+        <v>43.59942895041705</v>
       </c>
       <c r="WZ2">
-        <v>216.65559421034274</v>
+        <v>43.599808369011065</v>
       </c>
       <c r="XA2">
-        <v>216.69953956791224</v>
+        <v>43.600183429026217</v>
       </c>
       <c r="XB2">
-        <v>216.69953956791286</v>
+        <v>43.600554180531795</v>
       </c>
       <c r="XC2">
-        <v>216.72498650972781</v>
+        <v>43.600920673021868</v>
       </c>
       <c r="XD2">
-        <v>216.72498650972847</v>
+        <v>43.601282955421993</v>
       </c>
       <c r="XE2">
-        <v>216.75040908432018</v>
+        <v>43.601641076095632</v>
       </c>
       <c r="XF2">
-        <v>216.77580731502201</v>
+        <v>43.601995082850721</v>
       </c>
       <c r="XG2">
-        <v>216.82653083797757</v>
+        <v>43.602345022945961</v>
       </c>
       <c r="XH2">
-        <v>216.89915805775323</v>
+        <v>43.602690943097237</v>
       </c>
       <c r="XI2">
-        <v>216.97973449260698</v>
+        <v>43.603032889483686</v>
       </c>
       <c r="XJ2">
-        <v>217.07533940556124</v>
+        <v>43.603370907754005</v>
       </c>
       <c r="XK2">
-        <v>217.19033262554763</v>
+        <v>43.603705043032569</v>
       </c>
       <c r="XL2">
-        <v>217.30437633751535</v>
+        <v>43.604035339925311</v>
       </c>
       <c r="XM2">
-        <v>217.30437633751595</v>
+        <v>43.604361842525726</v>
       </c>
       <c r="XN2">
-        <v>217.44677173689925</v>
+        <v>43.604684594420853</v>
       </c>
       <c r="XO2">
-        <v>217.58838636191507</v>
+        <v>43.605003638696999</v>
       </c>
       <c r="XP2">
-        <v>217.69612426646981</v>
+        <v>43.605319017945504</v>
       </c>
       <c r="XQ2">
-        <v>217.69612426647038</v>
+        <v>43.605630774268441</v>
       </c>
       <c r="XR2">
-        <v>217.97585004872153</v>
+        <v>43.605938949284266</v>
       </c>
       <c r="XS2">
-        <v>218.1554875417431</v>
+        <v>43.606243584133288</v>
       </c>
       <c r="XT2">
-        <v>218.15548754174367</v>
+        <v>43.606544719483274</v>
       </c>
       <c r="XU2">
-        <v>218.18348995685812</v>
+        <v>43.606842395534748</v>
       </c>
       <c r="XV2">
-        <v>218.18348995685875</v>
+        <v>43.607136652026526</v>
       </c>
       <c r="XW2">
-        <v>218.19301622515746</v>
+        <v>43.607427528240827</v>
       </c>
       <c r="XX2">
-        <v>218.19301622515806</v>
+        <v>43.607715063008676</v>
       </c>
       <c r="XY2">
-        <v>218.202538876566</v>
+        <v>43.607999294714993</v>
       </c>
       <c r="XZ2">
-        <v>218.21205791245643</v>
+        <v>43.608280261303797</v>
       </c>
       <c r="YA2">
-        <v>218.22710987105268</v>
+        <v>43.608558000283161</v>
       </c>
       <c r="YB2">
-        <v>218.2271098710533</v>
+        <v>43.608832548730319</v>
       </c>
       <c r="YC2">
-        <v>218.24612567422187</v>
+        <v>43.609103943296589</v>
       </c>
       <c r="YD2">
-        <v>218.26434953644804</v>
+        <v>43.609372220212265</v>
       </c>
       <c r="YE2">
-        <v>218.26434953644863</v>
+        <v>43.609637415291367</v>
       </c>
       <c r="YF2">
-        <v>218.28333706700775</v>
+        <v>43.609899563936587</v>
       </c>
       <c r="YG2">
-        <v>218.30231018210344</v>
+        <v>43.610158701143888</v>
       </c>
       <c r="YH2">
-        <v>218.34021320967338</v>
+        <v>43.610414861507223</v>
       </c>
       <c r="YI2">
-        <v>218.41013010681328</v>
+        <v>43.610668079223146</v>
       </c>
       <c r="YJ2">
-        <v>218.48486087885658</v>
+        <v>43.610918388095378</v>
       </c>
       <c r="YK2">
-        <v>218.57409512328968</v>
+        <v>43.611165821539331</v>
       </c>
       <c r="YL2">
-        <v>218.68104802632524</v>
+        <v>43.611410412586558</v>
       </c>
       <c r="YM2">
-        <v>218.81383104012576</v>
+        <v>43.611652193889128</v>
       </c>
       <c r="YN2">
-        <v>218.98502199730609</v>
+        <v>43.611891197724056</v>
       </c>
       <c r="YO2">
-        <v>219.21527457739532</v>
+        <v>43.61212745599753</v>
       </c>
       <c r="YP2">
-        <v>219.51644284881371</v>
+        <v>43.612361000249258</v>
       </c>
       <c r="YQ2">
-        <v>219.57825552142384</v>
+        <v>43.612591861656618</v>
       </c>
       <c r="YR2">
-        <v>219.57825552142438</v>
+        <v>43.612820071038833</v>
       </c>
       <c r="YS2">
-        <v>219.60612024029507</v>
+        <v>43.613045658861118</v>
       </c>
       <c r="YT2">
-        <v>219.6143122945771</v>
+        <v>43.613268655238684</v>
       </c>
       <c r="YU2">
-        <v>219.61431229457767</v>
+        <v>43.613489089940842</v>
       </c>
       <c r="YV2">
-        <v>219.63925363655599</v>
+        <v>43.61370699239481</v>
       </c>
       <c r="YW2">
-        <v>219.63925363655653</v>
+        <v>43.613922391689911</v>
       </c>
       <c r="YX2">
-        <v>219.66416868615826</v>
+        <v>43.614135316581205</v>
       </c>
       <c r="YY2">
-        <v>219.6890574711</v>
+        <v>43.614345795493477</v>
       </c>
       <c r="YZ2">
-        <v>219.73875635772384</v>
+        <v>43.614553856524921</v>
       </c>
       <c r="ZA2">
-        <v>219.80406033994998</v>
+        <v>43.614759527451028</v>
       </c>
       <c r="ZB2">
-        <v>219.87773222608976</v>
+        <v>43.614962835728171</v>
       </c>
       <c r="ZC2">
-        <v>219.88569019965911</v>
+        <v>43.615163808497321</v>
       </c>
       <c r="ZD2">
-        <v>219.88569019965965</v>
+        <v>43.615362472587691</v>
       </c>
       <c r="ZE2">
-        <v>219.9307634206624</v>
+        <v>43.615558854520266</v>
       </c>
       <c r="ZF2">
-        <v>219.93076342066297</v>
+        <v>43.61575298051136</v>
       </c>
       <c r="ZG2">
-        <v>219.96565075066189</v>
+        <v>43.615944876476163</v>
       </c>
       <c r="ZH2">
-        <v>219.96565075066243</v>
+        <v>43.61613456803218</v>
       </c>
       <c r="ZI2">
-        <v>220.00048594035218</v>
+        <v>43.616322080502556</v>
       </c>
       <c r="ZJ2">
-        <v>220.03526906765822</v>
+        <v>43.616507438919605</v>
       </c>
       <c r="ZK2">
-        <v>220.09338769153115</v>
+        <v>43.616690668028035</v>
       </c>
       <c r="ZL2">
-        <v>220.15583752587813</v>
+        <v>43.616871792288364</v>
       </c>
       <c r="ZM2">
-        <v>220.22896774410725</v>
+        <v>43.617050835880043</v>
       </c>
       <c r="ZN2">
-        <v>220.31511211597368</v>
+        <v>43.617227822704798</v>
       </c>
       <c r="ZO2">
-        <v>220.41947173937052</v>
+        <v>43.617402776389781</v>
       </c>
       <c r="ZP2">
-        <v>220.54995221227392</v>
+        <v>43.617575720290738</v>
       </c>
       <c r="ZQ2">
-        <v>220.71994377112239</v>
+        <v>43.61774667749512</v>
       </c>
       <c r="ZR2">
-        <v>220.9499045344771</v>
+        <v>43.617915670825106</v>
       </c>
       <c r="ZS2">
-        <v>221.23910029192305</v>
+        <v>43.618082722840775</v>
       </c>
       <c r="ZT2">
-        <v>221.43247717688229</v>
+        <v>43.618247855843016</v>
       </c>
       <c r="ZU2">
-        <v>221.58033779831018</v>
+        <v>43.618411091876474</v>
       </c>
       <c r="ZV2">
-        <v>221.58033779831069</v>
+        <v>43.618572452732707</v>
       </c>
       <c r="ZW2">
-        <v>221.60488977855258</v>
+        <v>43.61873195995279</v>
       </c>
       <c r="ZX2">
-        <v>221.61276812447989</v>
+        <v>43.618889634830389</v>
       </c>
       <c r="ZY2">
-        <v>221.6127681244804</v>
+        <v>43.619045498414629</v>
       </c>
       <c r="ZZ2">
-        <v>221.63728340150661</v>
+        <v>43.619199571512766</v>
       </c>
       <c r="AAA2">
-        <v>221.66177093322133</v>
+        <v>43.619351874693066</v>
       </c>
       <c r="AAB2">
-        <v>221.71066288628458</v>
+        <v>43.619502428287447</v>
       </c>
       <c r="AAC2">
-        <v>221.7663529854228</v>
+        <v>43.619651252394341</v>
       </c>
       <c r="AAD2">
-        <v>221.83036079188795</v>
+        <v>43.61979836688127</v>
       </c>
       <c r="AAE2">
-        <v>221.90534980623195</v>
+        <v>43.619943791387527</v>
       </c>
       <c r="AAF2">
-        <v>221.99521088556622</v>
+        <v>43.62008754532679</v>
       </c>
       <c r="AAG2">
-        <v>222.10609939411336</v>
+        <v>43.620229647889744</v>
       </c>
       <c r="AAH2">
-        <v>222.2481939592686</v>
+        <v>43.620370118046623</v>
       </c>
       <c r="AAI2">
-        <v>222.43828574638044</v>
+        <v>43.620508974549693</v>
       </c>
       <c r="AAJ2">
-        <v>222.69111975751554</v>
+        <v>43.62064623593583</v>
       </c>
       <c r="AAK2">
-        <v>222.72673967485625</v>
+        <v>43.620781920528998</v>
       </c>
       <c r="AAL2">
-        <v>222.72673967485673</v>
+        <v>43.620916046442623</v>
       </c>
       <c r="AAM2">
-        <v>222.77547548008329</v>
+        <v>43.621048631582049</v>
       </c>
       <c r="AAN2">
-        <v>222.77716688654155</v>
+        <v>43.621179693647008</v>
       </c>
       <c r="AAO2">
-        <v>222.77716688654203</v>
+        <v>43.621309250133834</v>
       </c>
       <c r="AAP2">
-        <v>222.79519096872562</v>
+        <v>43.621437318337861</v>
       </c>
       <c r="AAQ2">
-        <v>222.7951909687261</v>
+        <v>43.621563915355758</v>
       </c>
       <c r="AAR2">
-        <v>222.81319920129718</v>
+        <v>43.62168905808786</v>
       </c>
       <c r="AAS2">
-        <v>222.83119159819319</v>
+        <v>43.62181276324025</v>
       </c>
       <c r="AAT2">
-        <v>222.86712894064863</v>
+        <v>43.621935047327163</v>
       </c>
       <c r="AAU2">
-        <v>222.88984943254852</v>
+        <v>43.62205592667312</v>
       </c>
       <c r="AAV2">
-        <v>222.88984943254903</v>
+        <v>43.622175417415136</v>
       </c>
       <c r="AAW2">
-        <v>222.946519673133</v>
+        <v>43.622293535504809</v>
       </c>
       <c r="AAX2">
-        <v>223.00303236437773</v>
+        <v>43.62241029671052</v>
       </c>
       <c r="AAY2">
-        <v>223.08290873245386</v>
+        <v>43.622525716619492</v>
       </c>
       <c r="AAZ2">
-        <v>223.11290219432502</v>
+        <v>43.622639810639917</v>
       </c>
       <c r="ABA2">
-        <v>223.11290219432547</v>
+        <v>43.622752594002932</v>
       </c>
       <c r="ABB2">
-        <v>223.14304694957247</v>
+        <v>43.62286408176476</v>
       </c>
       <c r="ABC2">
-        <v>223.14304694957295</v>
+        <v>43.622974288808656</v>
       </c>
       <c r="ABD2">
-        <v>223.17314663265387</v>
+        <v>43.623083229846891</v>
       </c>
       <c r="ABE2">
-        <v>223.20320131096022</v>
+        <v>43.623190919422719</v>
       </c>
       <c r="ABF2">
-        <v>223.23515659739641</v>
+        <v>43.623297371912322</v>
       </c>
       <c r="ABG2">
-        <v>223.23515659739689</v>
+        <v>43.623402601526791</v>
       </c>
       <c r="ABH2">
-        <v>223.28527534536082</v>
+        <v>43.623506622313919</v>
       </c>
       <c r="ABI2">
-        <v>223.31745028578732</v>
+        <v>43.623609448160117</v>
       </c>
       <c r="ABJ2">
-        <v>223.3174502857878</v>
+        <v>43.623711092792313</v>
       </c>
       <c r="ABK2">
-        <v>223.35527349835749</v>
+        <v>43.623811569779718</v>
       </c>
       <c r="ABL2">
-        <v>223.35961867574824</v>
+        <v>43.623910892535669</v>
       </c>
       <c r="ABM2">
-        <v>223.35961867574872</v>
+        <v>43.624009074319474</v>
       </c>
       <c r="ABN2">
-        <v>223.38197322849652</v>
+        <v>43.624106128237997</v>
       </c>
       <c r="ABO2">
-        <v>223.38197322849697</v>
+        <v>43.624202067247658</v>
       </c>
       <c r="ABP2">
-        <v>223.40430268757248</v>
+        <v>43.624296904155997</v>
       </c>
       <c r="ABQ2">
-        <v>223.42660708114408</v>
+        <v>43.624390651623408</v>
       </c>
       <c r="ABR2">
-        <v>223.47114078429124</v>
+        <v>43.624483322164878</v>
       </c>
       <c r="ABS2">
-        <v>223.52758434922259</v>
+        <v>43.624574928151596</v>
       </c>
       <c r="ABT2">
-        <v>223.59192928978328</v>
+        <v>43.624665481812677</v>
       </c>
       <c r="ABU2">
-        <v>223.66861180585829</v>
+        <v>43.624754995236728</v>
       </c>
       <c r="ABV2">
-        <v>223.76194712436742</v>
+        <v>43.624843480373478</v>
       </c>
       <c r="ABW2">
-        <v>223.87965940328769</v>
+        <v>43.624930949035438</v>
       </c>
       <c r="ABX2">
-        <v>224.03448537841996</v>
+        <v>43.625017412899354</v>
       </c>
       <c r="ABY2">
-        <v>224.24418121759845</v>
+        <v>43.625102883507843</v>
       </c>
       <c r="ABZ2">
-        <v>224.49444043988143</v>
+        <v>43.625187372270993</v>
       </c>
       <c r="ACA2">
-        <v>224.53711551655411</v>
+        <v>43.625270890467746</v>
       </c>
       <c r="ACB2">
-        <v>224.53711551655456</v>
+        <v>43.625353449247484</v>
       </c>
       <c r="ACC2">
-        <v>224.5578120304867</v>
+        <v>43.625435059631556</v>
       </c>
       <c r="ACD2">
-        <v>224.56513480158947</v>
+        <v>43.625515732514685</v>
       </c>
       <c r="ACE2">
-        <v>224.56513480158989</v>
+        <v>43.625595478666426</v>
       </c>
       <c r="ACF2">
-        <v>224.58580036586207</v>
+        <v>43.625674308732606</v>
       </c>
       <c r="ACG2">
-        <v>224.60644310327814</v>
+        <v>43.625752233236796</v>
       </c>
       <c r="ACH2">
-        <v>224.64766019837083</v>
+        <v>43.625829262581675</v>
       </c>
       <c r="ACI2">
-        <v>224.69565539559986</v>
+        <v>43.62590540705034</v>
       </c>
       <c r="ACJ2">
-        <v>224.75055849054792</v>
+        <v>43.625980676807906</v>
       </c>
       <c r="ACK2">
-        <v>224.81487925940297</v>
+        <v>43.626055081902585</v>
       </c>
       <c r="ACL2">
-        <v>224.89185890490867</v>
+        <v>43.626128632267189</v>
       </c>
       <c r="ACM2">
-        <v>224.98672420984889</v>
+        <v>43.626201337720488</v>
       </c>
       <c r="ACN2">
-        <v>225.10806998730578</v>
+        <v>43.626273207968424</v>
       </c>
       <c r="ACO2">
-        <v>225.27014051821246</v>
+        <v>43.626344252605399</v>
       </c>
       <c r="ACP2">
-        <v>225.48647916226227</v>
+        <v>43.626414481115667</v>
       </c>
       <c r="ACQ2">
-        <v>225.66626993600363</v>
+        <v>43.626483902874504</v>
       </c>
       <c r="ACR2">
-        <v>225.84424344441811</v>
+        <v>43.626552527149457</v>
       </c>
       <c r="ACS2">
-        <v>225.86048603467171</v>
+        <v>43.626620363101658</v>
       </c>
       <c r="ACT2">
-        <v>225.86048603467214</v>
+        <v>43.626687419786975</v>
       </c>
       <c r="ACU2">
-        <v>225.88187995724724</v>
+        <v>43.626753706157245</v>
       </c>
       <c r="ACV2">
-        <v>225.88652858046061</v>
+        <v>43.626819231061475</v>
       </c>
       <c r="ACW2">
-        <v>225.88652858046106</v>
+        <v>43.626884003247021</v>
       </c>
       <c r="ACX2">
-        <v>225.90789050772233</v>
+        <v>43.626948031360776</v>
       </c>
       <c r="ACY2">
-        <v>225.92922619017739</v>
+        <v>43.627011323950256</v>
       </c>
       <c r="ACZ2">
-        <v>225.97181894960457</v>
+        <v>43.627073889464846</v>
       </c>
       <c r="ADA2">
-        <v>226.01687332972017</v>
+        <v>43.62713573625679</v>
       </c>
       <c r="ADB2">
-        <v>226.03125674096034</v>
+        <v>43.627196872582424</v>
       </c>
       <c r="ADC2">
-        <v>226.03125674096074</v>
+        <v>43.627257306603276</v>
       </c>
       <c r="ADD2">
-        <v>226.0594147465867</v>
+        <v>43.627317046387091</v>
       </c>
       <c r="ADE2">
-        <v>226.05941474658712</v>
+        <v>43.627376099908894</v>
       </c>
       <c r="ADF2">
-        <v>226.07613447737765</v>
+        <v>43.627434475052212</v>
       </c>
       <c r="ADG2">
-        <v>226.07613447737808</v>
+        <v>43.627492179609852</v>
       </c>
       <c r="ADH2">
-        <v>226.09283796910731</v>
+        <v>43.627549221285214</v>
       </c>
       <c r="ADI2">
-        <v>226.10952523754739</v>
+        <v>43.627605607693148</v>
       </c>
       <c r="ADJ2">
-        <v>226.1428511675725</v>
+        <v>43.627661346361073</v>
       </c>
       <c r="ADK2">
-        <v>226.18996792125373</v>
+        <v>43.62771644472992</v>
       </c>
       <c r="ADL2">
-        <v>226.24236540104681</v>
+        <v>43.627770910155135</v>
       </c>
       <c r="ADM2">
-        <v>226.3045413098024</v>
+        <v>43.627824749907667</v>
       </c>
       <c r="ADN2">
-        <v>226.37937987975667</v>
+        <v>43.627877971174925</v>
       </c>
       <c r="ADO2">
-        <v>226.47253263205783</v>
+        <v>43.627930581061797</v>
       </c>
       <c r="ADP2">
-        <v>226.59310753709889</v>
+        <v>43.6279825865915</v>
       </c>
       <c r="ADQ2">
-        <v>226.75570291469191</v>
+        <v>43.62803399470662</v>
       </c>
       <c r="ADR2">
-        <v>226.96563504663368</v>
+        <v>43.628084812269996</v>
       </c>
       <c r="ADS2">
-        <v>226.96896121866902</v>
+        <v>43.628135046065573</v>
       </c>
       <c r="ADT2">
-        <v>226.96896121866942</v>
+        <v>43.628184702799366</v>
       </c>
       <c r="ADU2">
-        <v>226.9877932907051</v>
+        <v>43.628233789100442</v>
       </c>
       <c r="ADV2">
-        <v>226.99651937155221</v>
+        <v>43.628282311521616</v>
       </c>
       <c r="ADW2">
-        <v>226.99651937155261</v>
+        <v>43.628330276540481</v>
       </c>
       <c r="ADX2">
-        <v>227.01531961442367</v>
+        <v>43.628377690560221</v>
       </c>
       <c r="ADY2">
-        <v>227.02112890845814</v>
+        <v>43.628424559910457</v>
       </c>
       <c r="ADZ2">
-        <v>227.02112890845851</v>
+        <v>43.62847089084805</v>
       </c>
       <c r="AEA2">
-        <v>227.03990072776264</v>
+        <v>43.628516689558055</v>
       </c>
       <c r="AEB2">
-        <v>227.05865086595745</v>
+        <v>43.628561962154443</v>
       </c>
       <c r="AEC2">
-        <v>227.09036791713095</v>
+        <v>43.62860671468097</v>
       </c>
       <c r="AED2">
-        <v>227.09036791713137</v>
+        <v>43.628650953111936</v>
       </c>
       <c r="AEE2">
-        <v>227.11457343797898</v>
+        <v>43.628694683353011</v>
       </c>
       <c r="AEF2">
-        <v>227.11457343797935</v>
+        <v>43.628737911242048</v>
       </c>
       <c r="AEG2">
-        <v>227.13874275522977</v>
+        <v>43.628780642549827</v>
       </c>
       <c r="AEH2">
-        <v>227.16287592303189</v>
+        <v>43.628822882980849</v>
       </c>
       <c r="AEI2">
-        <v>227.20317284289308</v>
+        <v>43.628864638174022</v>
       </c>
       <c r="AEJ2">
-        <v>227.24647705740335</v>
+        <v>43.628905913703562</v>
       </c>
       <c r="AEK2">
-        <v>227.29718776872593</v>
+        <v>43.628946715079628</v>
       </c>
       <c r="AEL2">
-        <v>227.35692477336983</v>
+        <v>43.628987047749057</v>
       </c>
       <c r="AEM2">
-        <v>227.42929583441941</v>
+        <v>43.629026917096134</v>
       </c>
       <c r="AEN2">
-        <v>227.51978547896931</v>
+        <v>43.629066328443272</v>
       </c>
       <c r="AEO2">
-        <v>227.63768334033986</v>
+        <v>43.629105287051772</v>
       </c>
       <c r="AEP2">
-        <v>227.79717643699448</v>
+        <v>43.629143798122428</v>
       </c>
       <c r="AEQ2">
-        <v>227.96181904237429</v>
+        <v>43.629181866796387</v>
       </c>
       <c r="AER2">
-        <v>227.96181904237466</v>
+        <v>43.629219498155663</v>
       </c>
       <c r="AES2">
-        <v>227.98383402136355</v>
+        <v>43.629256697223916</v>
       </c>
       <c r="AET2">
-        <v>227.98443805026423</v>
+        <v>43.629293468967127</v>
       </c>
       <c r="AEU2">
-        <v>227.9844380502646</v>
+        <v>43.629329818294181</v>
       </c>
       <c r="AEV2">
-        <v>228.00062119901335</v>
+        <v>43.629365750057616</v>
       </c>
       <c r="AEW2">
-        <v>228.00062119901372</v>
+        <v>43.629401269054156</v>
       </c>
       <c r="AEX2">
-        <v>228.01678721884969</v>
+        <v>43.629436380025517</v>
       </c>
       <c r="AEY2">
-        <v>228.03293612790279</v>
+        <v>43.629471087658899</v>
       </c>
       <c r="AEZ2">
-        <v>228.06518268608428</v>
+        <v>43.629505396587632</v>
       </c>
       <c r="AFA2">
-        <v>228.10735634990769</v>
+        <v>43.629539311391838</v>
       </c>
       <c r="AFB2">
-        <v>228.15497266617737</v>
+        <v>43.629572836599024</v>
       </c>
       <c r="AFC2">
-        <v>228.18121690327797</v>
+        <v>43.629605976684694</v>
       </c>
       <c r="AFD2">
-        <v>228.18121690327831</v>
+        <v>43.629638736072941</v>
       </c>
       <c r="AFE2">
-        <v>228.2332579674364</v>
+        <v>43.629671119137086</v>
       </c>
       <c r="AFF2">
-        <v>228.23325796743677</v>
+        <v>43.629703130200106</v>
       </c>
       <c r="AFG2">
-        <v>228.25575536593871</v>
+        <v>43.62973477353539</v>
       </c>
       <c r="AFH2">
-        <v>228.25575536593908</v>
+        <v>43.629766053367184</v>
       </c>
       <c r="AFI2">
-        <v>228.27821911374053</v>
+        <v>43.629796973871301</v>
       </c>
       <c r="AFJ2">
-        <v>228.30064926117487</v>
+        <v>43.629827539175515</v>
       </c>
       <c r="AFK2">
-        <v>228.33810069271286</v>
+        <v>43.629857753360163</v>
       </c>
       <c r="AFL2">
-        <v>228.37834735411565</v>
+        <v>43.629887620458746</v>
       </c>
       <c r="AFM2">
-        <v>228.42547760122005</v>
+        <v>43.62991714445841</v>
       </c>
       <c r="AFN2">
-        <v>228.48099696671025</v>
+        <v>43.62994632930053</v>
       </c>
       <c r="AFO2">
-        <v>228.54825856790708</v>
+        <v>43.629975178881153</v>
       </c>
       <c r="AFP2">
-        <v>228.63235987281527</v>
+        <v>43.630003697051656</v>
       </c>
       <c r="AFQ2">
-        <v>228.74193492736822</v>
+        <v>43.630031887619076</v>
       </c>
       <c r="AFR2">
-        <v>228.89016911709993</v>
+        <v>43.630059754346796</v>
       </c>
       <c r="AFS2">
-        <v>229.07653210153595</v>
+        <v>43.630087300954891</v>
       </c>
       <c r="AFT2">
-        <v>229.20107303810704</v>
+        <v>43.630114531120796</v>
       </c>
       <c r="AFU2">
-        <v>229.29543884598067</v>
+        <v>43.630141448479598</v>
       </c>
       <c r="AFV2">
-        <v>229.29543884598101</v>
+        <v>43.630168056624697</v>
       </c>
       <c r="AFW2">
-        <v>229.31125647550948</v>
+        <v>43.630194359108174</v>
       </c>
       <c r="AFX2">
-        <v>229.31634820326829</v>
+        <v>43.630220359441353</v>
       </c>
       <c r="AFY2">
-        <v>229.31634820326863</v>
+        <v>43.630246061095157</v>
       </c>
       <c r="AFZ2">
-        <v>229.33214217260385</v>
+        <v>43.630271467500705</v>
       </c>
       <c r="AGA2">
-        <v>229.34791827011438</v>
+        <v>43.630296582049631</v>
       </c>
       <c r="AGB2">
-        <v>229.37941693053077</v>
+        <v>43.630321408094666</v>
       </c>
       <c r="AGC2">
-        <v>229.41530186868181</v>
+        <v>43.630345948950016</v>
       </c>
       <c r="AGD2">
-        <v>229.45654499873194</v>
+        <v>43.630370207891779</v>
       </c>
       <c r="AGE2">
-        <v>229.50486401675064</v>
+        <v>43.630394188158434</v>
       </c>
       <c r="AGF2">
-        <v>229.56276552633753</v>
+        <v>43.630417892951307</v>
       </c>
       <c r="AGG2">
-        <v>229.63421565534102</v>
+        <v>43.630441325434902</v>
       </c>
       <c r="AGH2">
-        <v>229.725772624256</v>
+        <v>43.63046448873736</v>
       </c>
       <c r="AGI2">
-        <v>229.84382651098272</v>
+        <v>43.630487385950893</v>
       </c>
       <c r="AGJ2">
-        <v>229.84382651098306</v>
+        <v>43.630510020132228</v>
       </c>
       <c r="AGK2">
-        <v>229.87417142250254</v>
+        <v>43.630532394302939</v>
       </c>
       <c r="AGL2">
-        <v>229.87484596570238</v>
+        <v>43.630554511449901</v>
       </c>
       <c r="AGM2">
-        <v>229.87484596570269</v>
+        <v>43.630576374525681</v>
       </c>
       <c r="AGN2">
-        <v>229.87946119117569</v>
+        <v>43.630597986448933</v>
       </c>
       <c r="AGO2">
-        <v>229.87946119117603</v>
+        <v>43.630619350104809</v>
       </c>
       <c r="AGP2">
-        <v>229.88407482697866</v>
+        <v>43.63064046834522</v>
       </c>
       <c r="AGQ2">
-        <v>229.88810658046219</v>
+        <v>43.630661343989409</v>
       </c>
       <c r="AGR2">
-        <v>229.88810658046248</v>
+        <v>43.630681979824203</v>
       </c>
       <c r="AGS2">
-        <v>229.89271723844323</v>
+        <v>43.630702378604433</v>
       </c>
       <c r="AGT2">
-        <v>229.8973263083268</v>
+        <v>43.63072254305326</v>
       </c>
       <c r="AGU2">
-        <v>229.90653968599037</v>
+        <v>43.630742475862569</v>
       </c>
       <c r="AGV2">
-        <v>229.92494740820712</v>
+        <v>43.630762179693328</v>
       </c>
       <c r="AGW2">
-        <v>229.96158782104786</v>
+        <v>43.630781657175909</v>
       </c>
       <c r="AGX2">
-        <v>230.00030923377466</v>
+        <v>43.630800910910501</v>
       </c>
       <c r="AGY2">
-        <v>230.04640986376111</v>
+        <v>43.630819943467429</v>
       </c>
       <c r="AGZ2">
-        <v>230.10135526165081</v>
+        <v>43.630838757387494</v>
       </c>
       <c r="AHA2">
-        <v>230.16909634879426</v>
+        <v>43.630857355182265</v>
       </c>
       <c r="AHB2">
-        <v>230.25146617756903</v>
+        <v>43.630875739334485</v>
       </c>
       <c r="AHC2">
-        <v>230.25146617756937</v>
+        <v>43.630893912298376</v>
       </c>
       <c r="AHD2">
-        <v>230.25951780068411</v>
+        <v>43.630911876499994</v>
       </c>
       <c r="AHE2">
-        <v>230.25951780068439</v>
+        <v>43.630929634337448</v>
       </c>
       <c r="AHF2">
-        <v>230.26756444562642</v>
+        <v>43.630947188181395</v>
       </c>
       <c r="AHG2">
-        <v>230.27560611547364</v>
+        <v>43.630964540375196</v>
       </c>
       <c r="AHH2">
-        <v>230.27753734669872</v>
+        <v>43.630981693235334</v>
       </c>
       <c r="AHI2">
-        <v>230.27753734669903</v>
+        <v>43.630998649051627</v>
       </c>
       <c r="AHJ2">
-        <v>230.2825379165277</v>
+        <v>43.631015410087649</v>
       </c>
       <c r="AHK2">
-        <v>230.28253791652799</v>
+        <v>43.631031978580914</v>
       </c>
       <c r="AHL2">
-        <v>230.28753656232416</v>
+        <v>43.631048356743278</v>
       </c>
       <c r="AHM2">
-        <v>230.29210088241453</v>
+        <v>43.631064546761174</v>
       </c>
       <c r="AHN2">
-        <v>230.29210088241487</v>
+        <v>43.631080550795879</v>
       </c>
       <c r="AHO2">
-        <v>230.29709584873893</v>
+        <v>43.631096370983926</v>
       </c>
       <c r="AHP2">
-        <v>230.3019714420677</v>
+        <v>43.631112009437238</v>
       </c>
       <c r="AHQ2">
-        <v>230.30197144206801</v>
+        <v>43.631127468243491</v>
       </c>
       <c r="AHR2">
-        <v>230.30696261056934</v>
+        <v>43.631142749466406</v>
       </c>
       <c r="AHS2">
-        <v>230.31195185865548</v>
+        <v>43.631157855145958</v>
       </c>
       <c r="AHT2">
-        <v>230.3219245965374</v>
+        <v>43.631172787298723</v>
       </c>
       <c r="AHU2">
-        <v>230.34184705981124</v>
+        <v>43.631187547918074</v>
       </c>
       <c r="AHV2">
-        <v>230.37424984586136</v>
+        <v>43.63120213897448</v>
       </c>
       <c r="AHW2">
-        <v>230.40920151286491</v>
+        <v>43.631216562415844</v>
       </c>
       <c r="AHX2">
-        <v>230.45013237008757</v>
+        <v>43.63123082016763</v>
       </c>
       <c r="AHY2">
-        <v>230.49839246120263</v>
+        <v>43.631244914133205</v>
       </c>
       <c r="AHZ2">
-        <v>230.55691702561069</v>
+        <v>43.631258846194044</v>
       </c>
       <c r="AIA2">
-        <v>230.63018999189219</v>
+        <v>43.631272618210062</v>
       </c>
       <c r="AIB2">
-        <v>230.7258069690653</v>
+        <v>43.631286232019761</v>
       </c>
       <c r="AIC2">
-        <v>230.85522801867413</v>
+        <v>43.631299689440546</v>
       </c>
       <c r="AID2">
-        <v>231.0167143307508</v>
+        <v>43.631312992268953</v>
       </c>
       <c r="AIE2">
-        <v>231.12305373267628</v>
+        <v>43.63132614228082</v>
       </c>
       <c r="AIF2">
-        <v>231.1999418214308</v>
+        <v>43.631339141231685</v>
       </c>
       <c r="AIG2">
-        <v>231.19994182143108</v>
+        <v>43.631351990856793</v>
       </c>
       <c r="AIH2">
-        <v>231.21354460906878</v>
+        <v>43.6313646928716</v>
       </c>
       <c r="AII2">
-        <v>231.21800341706432</v>
+        <v>43.631377248971752</v>
       </c>
       <c r="AIJ2">
-        <v>231.21800341706461</v>
+        <v>43.631389660833463</v>
       </c>
       <c r="AIK2">
-        <v>231.23158585635056</v>
+        <v>43.63140193011364</v>
       </c>
       <c r="AIL2">
-        <v>231.24515299354155</v>
+        <v>43.631414058450211</v>
       </c>
       <c r="AIM2">
-        <v>231.27224143057705</v>
+        <v>43.631426047462263</v>
       </c>
       <c r="AIN2">
-        <v>231.30322492218488</v>
+        <v>43.631437898750264</v>
       </c>
       <c r="AIO2">
-        <v>231.33880405207128</v>
+        <v>43.631449613896365</v>
       </c>
       <c r="AIP2">
-        <v>231.38048713846209</v>
+        <v>43.631461194464499</v>
       </c>
       <c r="AIQ2">
-        <v>231.43042514509213</v>
+        <v>43.631472642000638</v>
       </c>
       <c r="AIR2">
-        <v>231.49203322993583</v>
+        <v>43.631483958032966</v>
       </c>
       <c r="AIS2">
-        <v>231.57095282025554</v>
+        <v>43.631495144072133</v>
       </c>
       <c r="AIT2">
-        <v>231.67649875969138</v>
+        <v>43.631506201611465</v>
       </c>
       <c r="AIU2">
-        <v>231.81697976271531</v>
+        <v>43.63151713212708</v>
       </c>
       <c r="AIV2">
-        <v>231.93143520698294</v>
+        <v>43.631527937078182</v>
       </c>
       <c r="AIW2">
-        <v>232.04474724749306</v>
+        <v>43.631538617907182</v>
       </c>
       <c r="AIX2">
-        <v>232.05252328200424</v>
+        <v>43.631549176039933</v>
       </c>
       <c r="AIY2">
-        <v>232.0525232820045</v>
+        <v>43.631559612885923</v>
       </c>
       <c r="AIZ2">
-        <v>232.06634048652106</v>
+        <v>43.63156992983842</v>
       </c>
       <c r="AJA2">
-        <v>232.06930954256498</v>
+        <v>43.631580128274713</v>
       </c>
       <c r="AJB2">
-        <v>232.06930954256529</v>
+        <v>43.631590209556272</v>
       </c>
       <c r="AJC2">
-        <v>232.08310607793817</v>
+        <v>43.631600175028879</v>
       </c>
       <c r="AJD2">
-        <v>232.09688562545537</v>
+        <v>43.631610026022919</v>
       </c>
       <c r="AJE2">
-        <v>232.12439384056654</v>
+        <v>43.631619763853472</v>
       </c>
       <c r="AJF2">
-        <v>232.1534342683662</v>
+        <v>43.631629389820489</v>
       </c>
       <c r="AJG2">
-        <v>232.18739455075803</v>
+        <v>43.631638905209037</v>
       </c>
       <c r="AJH2">
-        <v>232.20757871695051</v>
+        <v>43.631648311289332</v>
       </c>
       <c r="AJI2">
-        <v>232.20757871695076</v>
+        <v>43.631657609317095</v>
       </c>
       <c r="AJJ2">
-        <v>232.22529708729843</v>
+        <v>43.63166680053358</v>
       </c>
       <c r="AJK2">
-        <v>232.22529708729869</v>
+        <v>43.631675886165787</v>
       </c>
       <c r="AJL2">
-        <v>232.23620487776645</v>
+        <v>43.631684867426586</v>
       </c>
       <c r="AJM2">
-        <v>232.23620487776677</v>
+        <v>43.631693745515008</v>
       </c>
       <c r="AJN2">
-        <v>232.24710189960089</v>
+        <v>43.631702521616198</v>
       </c>
       <c r="AJO2">
-        <v>232.25798816343266</v>
+        <v>43.631711196901726</v>
       </c>
       <c r="AJP2">
-        <v>232.27972845956151</v>
+        <v>43.631719772529763</v>
       </c>
       <c r="AJQ2">
-        <v>232.31001062304622</v>
+        <v>43.631728249645086</v>
       </c>
       <c r="AJR2">
-        <v>232.34378065453535</v>
+        <v>43.631736629379368</v>
       </c>
       <c r="AJS2">
-        <v>232.38385457500513</v>
+        <v>43.631744912851282</v>
       </c>
       <c r="AJT2">
-        <v>232.43212772203626</v>
+        <v>43.631753101166659</v>
       </c>
       <c r="AJU2">
-        <v>232.49226492988814</v>
+        <v>43.631761195418605</v>
       </c>
       <c r="AJV2">
-        <v>232.57018991221332</v>
+        <v>43.631769196687642</v>
       </c>
       <c r="AJW2">
-        <v>232.67534077628392</v>
+        <v>43.631777106041937</v>
       </c>
       <c r="AJX2">
-        <v>232.80579677535931</v>
+        <v>43.631784924537385</v>
       </c>
       <c r="AJY2">
-        <v>232.80579677535954</v>
+        <v>43.631792653217687</v>
       </c>
       <c r="AJZ2">
-        <v>232.82064621394377</v>
+        <v>43.631800293114615</v>
       </c>
       <c r="AKA2">
-        <v>232.82312556972539</v>
+        <v>43.631807845248069</v>
       </c>
       <c r="AKB2">
-        <v>232.82312556972565</v>
+        <v>43.631815310626244</v>
       </c>
       <c r="AKC2">
-        <v>232.83795042703127</v>
+        <v>43.631822690245734</v>
       </c>
       <c r="AKD2">
-        <v>232.83907968407115</v>
+        <v>43.63182998509172</v>
       </c>
       <c r="AKE2">
-        <v>232.83907968407141</v>
+        <v>43.631837196138001</v>
       </c>
       <c r="AKF2">
-        <v>232.84491149631901</v>
+        <v>43.631844324347234</v>
       </c>
       <c r="AKG2">
-        <v>232.84491149631927</v>
+        <v>43.631851370671008</v>
       </c>
       <c r="AKH2">
-        <v>232.85074004932827</v>
+        <v>43.631858336049994</v>
       </c>
       <c r="AKI2">
-        <v>232.85656534492014</v>
+        <v>43.631865221414039</v>
       </c>
       <c r="AKJ2">
-        <v>232.86051285686128</v>
+        <v>43.631872027682327</v>
       </c>
       <c r="AKK2">
-        <v>232.86051285686153</v>
+        <v>43.631878755763481</v>
       </c>
       <c r="AKL2">
-        <v>232.87214927199733</v>
+        <v>43.631885406555682</v>
       </c>
       <c r="AKM2">
-        <v>232.88377268422627</v>
+        <v>43.631891980946747</v>
       </c>
       <c r="AKN2">
-        <v>232.90698055806695</v>
+        <v>43.631898479814375</v>
       </c>
       <c r="AKO2">
-        <v>232.93372307910124</v>
+        <v>43.631904904026122</v>
       </c>
       <c r="AKP2">
-        <v>232.96438315532131</v>
+        <v>43.631911254439601</v>
       </c>
       <c r="AKQ2">
-        <v>233.00030295899924</v>
+        <v>43.631917531902573</v>
       </c>
       <c r="AKR2">
-        <v>233.04331789216738</v>
+        <v>43.631923737253061</v>
       </c>
       <c r="AKS2">
-        <v>233.09636089760258</v>
+        <v>43.631929871319436</v>
       </c>
       <c r="AKT2">
-        <v>233.16426769642109</v>
+        <v>43.631935934920641</v>
       </c>
       <c r="AKU2">
-        <v>233.25503554871472</v>
+        <v>43.631941928866084</v>
       </c>
       <c r="AKV2">
-        <v>233.3759964304476</v>
+        <v>43.631947853955957</v>
       </c>
       <c r="AKW2">
-        <v>233.46885720441165</v>
+        <v>43.631953710981243</v>
       </c>
       <c r="AKX2">
-        <v>233.46885720441185</v>
+        <v>43.631959500723823</v>
       </c>
       <c r="AKY2">
-        <v>233.48070903182705</v>
+        <v>43.631965223956627</v>
       </c>
       <c r="AKZ2">
-        <v>233.48306297769957</v>
+        <v>43.631970881443685</v>
       </c>
       <c r="ALA2">
-        <v>233.4830629776998</v>
+        <v>43.631976473940227</v>
       </c>
       <c r="ALB2">
-        <v>233.49350120788031</v>
+        <v>43.631982002192856</v>
       </c>
       <c r="ALC2">
-        <v>233.49350120788057</v>
+        <v>43.63198746693957</v>
       </c>
       <c r="ALD2">
-        <v>233.50392830979266</v>
+        <v>43.631992868909904</v>
       </c>
       <c r="ALE2">
-        <v>233.51434429530033</v>
+        <v>43.63199820882496</v>
       </c>
       <c r="ALF2">
-        <v>233.53514296449467</v>
+        <v>43.632003487397661</v>
       </c>
       <c r="ALG2">
-        <v>233.56215703410496</v>
+        <v>43.632008705332659</v>
       </c>
       <c r="ALH2">
-        <v>233.58132360224926</v>
+        <v>43.632013863326527</v>
       </c>
       <c r="ALI2">
-        <v>233.58132360224951</v>
+        <v>43.632018962067825</v>
       </c>
       <c r="ALJ2">
-        <v>233.5958235468421</v>
+        <v>43.632024002237202</v>
       </c>
       <c r="ALK2">
-        <v>233.59582354684233</v>
+        <v>43.632028984507556</v>
       </c>
       <c r="ALL2">
-        <v>233.61030180006091</v>
+        <v>43.632033909543964</v>
       </c>
       <c r="ALM2">
-        <v>233.62195924222092</v>
+        <v>43.632038778003917</v>
       </c>
       <c r="ALN2">
-        <v>233.62195924222115</v>
+        <v>43.632043590537322</v>
       </c>
       <c r="ALO2">
-        <v>233.63639839741839</v>
+        <v>43.632048347786665</v>
       </c>
       <c r="ALP2">
-        <v>233.65081595218032</v>
+        <v>43.632053050387015</v>
       </c>
       <c r="ALQ2">
-        <v>233.6795862260428</v>
+        <v>43.632057698966129</v>
       </c>
       <c r="ALR2">
-        <v>233.71013909483423</v>
+        <v>43.63206229414461</v>
       </c>
       <c r="ALS2">
-        <v>233.74706869667747</v>
+        <v>43.632066836535863</v>
       </c>
       <c r="ALT2">
-        <v>233.79176194933748</v>
+        <v>43.632071326746335</v>
       </c>
       <c r="ALU2">
-        <v>233.84804934177001</v>
+        <v>43.632075765375411</v>
       </c>
       <c r="ALV2">
-        <v>233.92184992202124</v>
+        <v>43.632080153015643</v>
       </c>
       <c r="ALW2">
-        <v>234.02183477664022</v>
+        <v>43.63208449025278</v>
       </c>
       <c r="ALX2">
-        <v>234.14319776575149</v>
+        <v>43.6320887776658</v>
       </c>
       <c r="ALY2">
-        <v>234.21969566123227</v>
+        <v>43.632093015827074</v>
       </c>
       <c r="ALZ2">
-        <v>234.26574368008804</v>
+        <v>43.632097205302387</v>
       </c>
       <c r="AMA2">
-        <v>234.26574368008826</v>
+        <v>43.632101346651019</v>
       </c>
       <c r="AMB2">
-        <v>234.27575902462834</v>
+        <v>43.632105440425832</v>
       </c>
       <c r="AMC2">
-        <v>234.27921983317015</v>
+        <v>43.632109487173302</v>
       </c>
       <c r="AMD2">
-        <v>234.27921983317037</v>
+        <v>43.632113487433699</v>
       </c>
       <c r="AME2">
-        <v>234.28922019504645</v>
+        <v>43.632117441741002</v>
       </c>
       <c r="AMF2">
-        <v>234.29920943861148</v>
+        <v>43.63212135062313</v>
       </c>
       <c r="AMG2">
-        <v>234.31915462023957</v>
+        <v>43.632125214601892</v>
       </c>
       <c r="AMH2">
-        <v>234.34224334490645</v>
+        <v>43.63212903419312</v>
       </c>
       <c r="AMI2">
-        <v>234.36868836992892</v>
+        <v>43.632132809906736</v>
       </c>
       <c r="AMJ2">
-        <v>234.39966986689677</v>
+        <v>43.632136542246741</v>
       </c>
       <c r="AMK2">
-        <v>234.4367612984461</v>
+        <v>43.632140231711453</v>
       </c>
       <c r="AML2">
-        <v>234.48248708658076</v>
+        <v>43.632143878793322</v>
       </c>
       <c r="AMM2">
-        <v>234.54100455061908</v>
+        <v>43.632147483979274</v>
       </c>
       <c r="AMN2">
-        <v>234.6191955324941</v>
+        <v>43.63215104775059</v>
       </c>
       <c r="AMO2">
-        <v>234.66139305612361</v>
+        <v>43.632154570583012</v>
       </c>
       <c r="AMP2">
-        <v>234.66139305612384</v>
+        <v>43.632158052946821</v>
       </c>
       <c r="AMQ2">
-        <v>234.66851893958523</v>
+        <v>43.632161495306882</v>
       </c>
       <c r="AMR2">
-        <v>234.66851893958545</v>
+        <v>43.632164898122788</v>
       </c>
       <c r="AMS2">
-        <v>234.67563892727514</v>
+        <v>43.632168261848761</v>
       </c>
       <c r="AMT2">
-        <v>234.68084464879661</v>
+        <v>43.632171586933886</v>
       </c>
       <c r="AMU2">
-        <v>234.68084464879678</v>
+        <v>43.632174873822024</v>
       </c>
       <c r="AMV2">
-        <v>234.68795443851354</v>
+        <v>43.632178122951949</v>
       </c>
       <c r="AMW2">
-        <v>234.68962932705216</v>
+        <v>43.632181334757441</v>
       </c>
       <c r="AMX2">
-        <v>234.68962932705239</v>
+        <v>43.632184509667233</v>
       </c>
       <c r="AMY2">
-        <v>234.69673184855358</v>
+        <v>43.632187648105187</v>
       </c>
       <c r="AMZ2">
-        <v>234.70382849361224</v>
+        <v>43.632190750490267</v>
       </c>
       <c r="ANA2">
-        <v>234.71800417384586</v>
+        <v>43.632193817236619</v>
       </c>
       <c r="ANB2">
-        <v>234.74177351651389</v>
+        <v>43.632196848753672</v>
       </c>
       <c r="ANC2">
-        <v>234.76751134253942</v>
+        <v>43.632199845446124</v>
       </c>
       <c r="AND2">
-        <v>234.79816510525106</v>
+        <v>43.632202807714016</v>
       </c>
       <c r="ANE2">
-        <v>234.83493786007307</v>
+        <v>43.632205735952802</v>
       </c>
       <c r="ANF2">
-        <v>234.88059795588433</v>
+        <v>43.632208630553357</v>
       </c>
       <c r="ANG2">
-        <v>234.90182194917156</v>
+        <v>43.632211491902162</v>
       </c>
       <c r="ANH2">
-        <v>234.90182194917196</v>
+        <v>43.632214320381145</v>
       </c>
       <c r="ANI2">
-        <v>234.91434608099843</v>
+        <v>43.632217116367883</v>
       </c>
       <c r="ANJ2">
-        <v>234.91434608099883</v>
+        <v>43.632219880235724</v>
       </c>
       <c r="ANK2">
-        <v>234.92685147778664</v>
+        <v>43.632222612353551</v>
       </c>
       <c r="ANL2">
-        <v>234.92811501469575</v>
+        <v>43.632225313086138</v>
       </c>
       <c r="ANM2">
-        <v>234.92811501469615</v>
+        <v>43.632227982793978</v>
       </c>
       <c r="ANN2">
-        <v>234.9405998143273</v>
+        <v>43.632230621833486</v>
       </c>
       <c r="ANO2">
-        <v>234.94450770423202</v>
+        <v>43.632233230556999</v>
       </c>
       <c r="ANP2">
-        <v>234.94450770423242</v>
+        <v>43.632235809312746</v>
       </c>
       <c r="ANQ2">
-        <v>234.94539071385734</v>
+        <v>43.632238358444972</v>
       </c>
       <c r="ANR2">
-        <v>234.94539071385773</v>
+        <v>43.632240878293992</v>
       </c>
       <c r="ANS2">
-        <v>234.94627362987521</v>
+        <v>43.632243369196182</v>
       </c>
       <c r="ANT2">
-        <v>234.94715645229525</v>
+        <v>43.632245831484113</v>
       </c>
       <c r="ANU2">
-        <v>234.94892181638264</v>
+        <v>43.632248265486453</v>
       </c>
       <c r="ANV2">
-        <v>234.95245142182435</v>
+        <v>43.632250671528119</v>
       </c>
       <c r="ANW2">
-        <v>234.95388431086624</v>
+        <v>43.63225304993037</v>
       </c>
       <c r="ANX2">
-        <v>234.95388431086664</v>
+        <v>43.632255401010646</v>
       </c>
       <c r="ANY2">
-        <v>234.96093781829126</v>
+        <v>43.632257725082837</v>
       </c>
       <c r="ANZ2">
-        <v>234.96798534602593</v>
+        <v>43.632260022457224</v>
       </c>
       <c r="AOA2">
-        <v>234.98206248269855</v>
+        <v>43.63226229344049</v>
       </c>
       <c r="AOB2">
-        <v>235.00506860126069</v>
+        <v>43.632264538335775</v>
       </c>
       <c r="AOC2">
-        <v>235.03007423337556</v>
+        <v>43.632266757442764</v>
       </c>
       <c r="AOD2">
-        <v>235.05984109379227</v>
+        <v>43.632268951057704</v>
       </c>
       <c r="AOE2">
-        <v>235.09556759699424</v>
+        <v>43.632271119473472</v>
       </c>
       <c r="AOF2">
-        <v>235.13994524474623</v>
+        <v>43.632273262979503</v>
       </c>
       <c r="AOG2">
-        <v>235.19721504156246</v>
+        <v>43.632275381861994</v>
       </c>
       <c r="AOH2">
-        <v>235.27429337582865</v>
+        <v>43.632277476403786</v>
       </c>
       <c r="AOI2">
-        <v>235.37482026640077</v>
+        <v>43.632279546884462</v>
       </c>
       <c r="AOJ2">
-        <v>235.44907185848746</v>
+        <v>43.632281593580458</v>
       </c>
       <c r="AOK2">
-        <v>235.49299557810525</v>
+        <v>43.63228361676498</v>
       </c>
       <c r="AOL2">
-        <v>235.49299557810562</v>
+        <v>43.632285616708131</v>
       </c>
       <c r="AOM2">
-        <v>235.50206717822473</v>
+        <v>43.632287593676907</v>
       </c>
       <c r="AON2">
-        <v>235.50463586449825</v>
+        <v>43.632289547935201</v>
       </c>
       <c r="AOO2">
-        <v>235.50463586449862</v>
+        <v>43.632291479743913</v>
       </c>
       <c r="AOP2">
-        <v>235.51369389369046</v>
+        <v>43.632293389360932</v>
       </c>
       <c r="AOQ2">
-        <v>235.52274136250168</v>
+        <v>43.632295277041173</v>
       </c>
       <c r="AOR2">
-        <v>235.54080466821537</v>
+        <v>43.632297143036666</v>
       </c>
       <c r="AOS2">
-        <v>235.5608348696889</v>
+        <v>43.632298987596506</v>
       </c>
       <c r="AOT2">
-        <v>235.58399370731155</v>
+        <v>43.63230081096691</v>
       </c>
       <c r="AOU2">
-        <v>235.61112661391488</v>
+        <v>43.632302613391325</v>
       </c>
       <c r="AOV2">
-        <v>235.64369283533642</v>
+        <v>43.632304395110346</v>
       </c>
       <c r="AOW2">
-        <v>235.68394799684367</v>
+        <v>43.632306156361857</v>
       </c>
       <c r="AOX2">
-        <v>235.73564796981015</v>
+        <v>43.632307897380905</v>
       </c>
       <c r="AOY2">
-        <v>235.80494707654461</v>
+        <v>43.632309618399994</v>
       </c>
       <c r="AOZ2">
-        <v>235.89664403257146</v>
+        <v>43.632311319648828</v>
       </c>
       <c r="APA2">
-        <v>235.96883317258329</v>
+        <v>43.632313001354561</v>
       </c>
       <c r="APB2">
-        <v>236.04031592919</v>
+        <v>43.632314663741617</v>
       </c>
       <c r="APC2">
-        <v>236.04241688170202</v>
+        <v>43.632316307032013</v>
       </c>
       <c r="APD2">
-        <v>236.04241688170237</v>
+        <v>43.632317931445037</v>
       </c>
       <c r="APE2">
-        <v>236.0513543707159</v>
+        <v>43.63231953719761</v>
       </c>
       <c r="APF2">
-        <v>236.0532350579237</v>
+        <v>43.632321124504081</v>
       </c>
       <c r="APG2">
-        <v>236.05323505792401</v>
+        <v>43.632322693576313</v>
       </c>
       <c r="APH2">
-        <v>236.06215917686913</v>
+        <v>43.632324244623817</v>
       </c>
       <c r="API2">
-        <v>236.07107226659093</v>
+        <v>43.632325777853602</v>
       </c>
       <c r="APJ2">
-        <v>236.0888654128714</v>
+        <v>43.632327293470382</v>
       </c>
       <c r="APK2">
-        <v>236.10758731320763</v>
+        <v>43.632328791676478</v>
       </c>
       <c r="APL2">
-        <v>236.12949834458374</v>
+        <v>43.632330272671879</v>
       </c>
       <c r="APM2">
-        <v>236.15517087595236</v>
+        <v>43.632331736654351</v>
       </c>
       <c r="APN2">
-        <v>236.18608717015076</v>
+        <v>43.632333183819291</v>
       </c>
       <c r="APO2">
-        <v>236.20891387429484</v>
+        <v>43.632334614359863</v>
       </c>
       <c r="APP2">
-        <v>236.20891387429518</v>
+        <v>43.632336028467115</v>
       </c>
       <c r="APQ2">
-        <v>236.22012344825788</v>
+        <v>43.632337426329762</v>
       </c>
       <c r="APR2">
-        <v>236.22012344825822</v>
+        <v>43.632338808134435</v>
       </c>
       <c r="APS2">
-        <v>236.22713206215835</v>
+        <v>43.632340174065604</v>
       </c>
       <c r="APT2">
-        <v>236.22713206215869</v>
+        <v>43.632341524305602</v>
       </c>
       <c r="APU2">
-        <v>236.2341337124592</v>
+        <v>43.632342859034708</v>
       </c>
       <c r="APV2">
-        <v>236.24112840607899</v>
+        <v>43.632344178431076</v>
       </c>
       <c r="APW2">
-        <v>236.2550969509175</v>
+        <v>43.632345482670843</v>
       </c>
       <c r="APX2">
-        <v>236.27443934777648</v>
+        <v>43.632346771928134</v>
       </c>
       <c r="APY2">
-        <v>236.29603348571791</v>
+        <v>43.63234804637505</v>
       </c>
       <c r="APZ2">
-        <v>236.32165874166063</v>
+        <v>43.632349306181752</v>
       </c>
       <c r="AQA2">
-        <v>236.35253625962602</v>
+        <v>43.632350551516382</v>
       </c>
       <c r="AQB2">
-        <v>236.39101483659221</v>
+        <v>43.632351782545214</v>
       </c>
       <c r="AQC2">
-        <v>236.44089538475382</v>
+        <v>43.63235299943257</v>
       </c>
       <c r="AQD2">
-        <v>236.50821946659264</v>
+        <v>43.632354202340878</v>
       </c>
       <c r="AQE2">
-        <v>236.55304714352019</v>
+        <v>43.632355391430785</v>
       </c>
       <c r="AQF2">
-        <v>236.5530471435205</v>
+        <v>43.632356566860977</v>
       </c>
       <c r="AQG2">
-        <v>236.56258155649513</v>
+        <v>43.632357728788392</v>
       </c>
       <c r="AQH2">
-        <v>236.56310168031152</v>
+        <v>43.632358877368176</v>
       </c>
       <c r="AQI2">
-        <v>236.56310168031186</v>
+        <v>43.632360012753615</v>
       </c>
       <c r="AQJ2">
-        <v>236.57262182990743</v>
+        <v>43.632361135096268</v>
       </c>
       <c r="AQK2">
-        <v>236.58212847420631</v>
+        <v>43.632362244546002</v>
       </c>
       <c r="AQL2">
-        <v>236.59295382713367</v>
+        <v>43.632363341250922</v>
       </c>
       <c r="AQM2">
-        <v>236.59295382713398</v>
+        <v>43.632364425357416</v>
       </c>
       <c r="AQN2">
-        <v>236.60393775303945</v>
+        <v>43.632365497010213</v>
       </c>
       <c r="AQO2">
-        <v>236.60393775303979</v>
+        <v>43.63236655635238</v>
       </c>
       <c r="AQP2">
-        <v>236.6141539676041</v>
+        <v>43.632367603525331</v>
       </c>
       <c r="AQQ2">
-        <v>236.61415396760441</v>
+        <v>43.632368638668858</v>
       </c>
       <c r="AQR2">
-        <v>236.62435453458266</v>
+        <v>43.63236966192116</v>
       </c>
       <c r="AQS2">
-        <v>236.63453947794136</v>
+        <v>43.632370673418826</v>
       </c>
       <c r="AQT2">
-        <v>236.65317025113922</v>
+        <v>43.632371673296873</v>
       </c>
       <c r="AQU2">
-        <v>236.67310778919963</v>
+        <v>43.632372661688827</v>
       </c>
       <c r="AQV2">
-        <v>236.69691558018434</v>
+        <v>43.632373638726591</v>
       </c>
       <c r="AQW2">
-        <v>236.72546049694805</v>
+        <v>43.632374604540608</v>
       </c>
       <c r="AQX2">
-        <v>236.76091274972632</v>
+        <v>43.632375559259835</v>
       </c>
       <c r="AQY2">
-        <v>236.80664207329568</v>
+        <v>43.632376503011713</v>
       </c>
       <c r="AQZ2">
-        <v>236.86817033155307</v>
+        <v>43.632377435922209</v>
       </c>
       <c r="ARA2">
-        <v>236.94852594449466</v>
+        <v>43.632378358115879</v>
       </c>
       <c r="ARB2">
-        <v>237.00818158292267</v>
+        <v>43.632379269715834</v>
       </c>
       <c r="ARC2">
-        <v>237.01856200510008</v>
+        <v>43.632380170843753</v>
       </c>
       <c r="ARD2">
-        <v>237.01856200510042</v>
+        <v>43.632381061619967</v>
       </c>
       <c r="ARE2">
-        <v>237.02589288053761</v>
+        <v>43.632381942163363</v>
       </c>
       <c r="ARF2">
-        <v>237.02757307955335</v>
+        <v>43.632382812591487</v>
       </c>
       <c r="ARG2">
-        <v>237.02757307955363</v>
+        <v>43.632383673020549</v>
       </c>
       <c r="ARH2">
-        <v>237.0276160387856</v>
+        <v>43.632384523565413</v>
       </c>
       <c r="ARI2">
-        <v>237.02761603878591</v>
+        <v>43.632385364339633</v>
       </c>
       <c r="ARJ2">
-        <v>237.02765899772245</v>
+        <v>43.632386195455446</v>
       </c>
       <c r="ARK2">
-        <v>237.02770195636353</v>
+        <v>43.632387017023795</v>
       </c>
       <c r="ARL2">
-        <v>237.02778787275938</v>
+        <v>43.632387829154347</v>
       </c>
       <c r="ARM2">
-        <v>237.02795970200583</v>
+        <v>43.632388631955536</v>
       </c>
       <c r="ARN2">
-        <v>237.02830334631821</v>
+        <v>43.632389425534555</v>
       </c>
       <c r="ARO2">
-        <v>237.02899057822461</v>
+        <v>43.632390209997311</v>
       </c>
       <c r="ARP2">
-        <v>237.03036481519294</v>
+        <v>43.632390985448517</v>
       </c>
       <c r="ARQ2">
-        <v>237.03311238198484</v>
+        <v>43.632391751991733</v>
       </c>
       <c r="ARR2">
-        <v>237.03425367880476</v>
+        <v>43.632392509729272</v>
       </c>
       <c r="ARS2">
-        <v>237.03425367880513</v>
+        <v>43.632393258762271</v>
       </c>
       <c r="ART2">
-        <v>237.03696061741735</v>
+        <v>43.632393999190718</v>
       </c>
       <c r="ARU2">
-        <v>237.03696061741766</v>
+        <v>43.632394731113493</v>
       </c>
       <c r="ARV2">
-        <v>237.03966638170866</v>
+        <v>43.632395454628302</v>
       </c>
       <c r="ARW2">
-        <v>237.04237097218785</v>
+        <v>43.632396169831708</v>
       </c>
       <c r="ARX2">
-        <v>237.04777663374753</v>
+        <v>43.632396876819207</v>
       </c>
       <c r="ARY2">
-        <v>237.05857389351638</v>
+        <v>43.632397575685175</v>
       </c>
       <c r="ARZ2">
-        <v>237.07427465210881</v>
+        <v>43.632398266522898</v>
       </c>
       <c r="ASA2">
-        <v>237.09150519690809</v>
+        <v>43.632398949424626</v>
       </c>
       <c r="ASB2">
-        <v>237.11168605104612</v>
+        <v>43.632399624481501</v>
       </c>
       <c r="ASC2">
-        <v>237.11639238778778</v>
+        <v>43.632400291783632</v>
       </c>
       <c r="ASD2">
-        <v>237.11639238778807</v>
+        <v>43.632400951420109</v>
       </c>
       <c r="ASE2">
-        <v>237.14026980963786</v>
+        <v>43.632401603479011</v>
       </c>
       <c r="ASF2">
-        <v>237.16405464239077</v>
+        <v>43.632402248047377</v>
       </c>
       <c r="ASG2">
-        <v>237.20337347001418</v>
+        <v>43.632402885211256</v>
       </c>
       <c r="ASH2">
-        <v>237.25112857046972</v>
+        <v>43.632403515055707</v>
       </c>
       <c r="ASI2">
-        <v>237.31628615909159</v>
+        <v>43.632404137664793</v>
       </c>
       <c r="ASJ2">
-        <v>237.39495190741917</v>
+        <v>43.632404753121648</v>
       </c>
       <c r="ASK2">
-        <v>237.44356211455178</v>
+        <v>43.632405361508418</v>
       </c>
       <c r="ASL2">
-        <v>237.46867796449942</v>
+        <v>43.632405962906347</v>
       </c>
       <c r="ASM2">
-        <v>237.46867796449973</v>
+        <v>43.63240655739569</v>
       </c>
       <c r="ASN2">
-        <v>237.47510156023168</v>
+        <v>43.632407145055829</v>
       </c>
       <c r="ASO2">
-        <v>237.47736276040888</v>
+        <v>43.632407725965216</v>
       </c>
       <c r="ASP2">
-        <v>237.47736276040916</v>
+        <v>43.632408300201391</v>
       </c>
       <c r="ASQ2">
-        <v>237.48377674647469</v>
+        <v>43.632408867841029</v>
       </c>
       <c r="ASR2">
-        <v>237.49018363550911</v>
+        <v>43.632409428959889</v>
       </c>
       <c r="ASS2">
-        <v>237.5029761538872</v>
+        <v>43.632409983632868</v>
       </c>
       <c r="AST2">
-        <v>237.51784926217286</v>
+        <v>43.632410531934021</v>
       </c>
       <c r="ASU2">
-        <v>237.53486868594857</v>
+        <v>43.632411073936559</v>
       </c>
       <c r="ASV2">
-        <v>237.55480758136275</v>
+        <v>43.63241160971284</v>
       </c>
       <c r="ASW2">
-        <v>237.57867279342574</v>
+        <v>43.632412139334384</v>
       </c>
       <c r="ASX2">
-        <v>237.60808578125295</v>
+        <v>43.632412662871921</v>
       </c>
       <c r="ASY2">
-        <v>237.6457138997585</v>
+        <v>43.632413180395282</v>
       </c>
       <c r="ASZ2">
-        <v>237.69597639682266</v>
+        <v>43.632413691973582</v>
       </c>
       <c r="ATA2">
-        <v>237.76305244463094</v>
+        <v>43.632414197675132</v>
       </c>
       <c r="ATB2">
-        <v>237.78476509963417</v>
+        <v>43.632414697567427</v>
       </c>
       <c r="ATC2">
-        <v>237.78476509963446</v>
+        <v>43.632415191717172</v>
       </c>
       <c r="ATD2">
-        <v>237.7903795170019</v>
+        <v>43.632415680190377</v>
       </c>
       <c r="ATE2">
-        <v>237.79037951700215</v>
+        <v>43.63241616305222</v>
       </c>
       <c r="ATF2">
         <v>237.79598819195954</v>
